--- a/temp_valid.xlsx
+++ b/temp_valid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9972b86d8e28e227/AI REU/Project Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub Repos\REU_AI_Thermography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D268D7-5D50-438D-B9CA-3BB1C0A879B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98BD48B-4002-4B7C-B5A6-8A0EE23A7960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3768" yWindow="3024" windowWidth="20160" windowHeight="11760" xr2:uid="{FC7C66D4-DC70-4140-B480-F4558C6BA7EF}"/>
+    <workbookView xWindow="13344" yWindow="0" windowWidth="13632" windowHeight="16176" xr2:uid="{FC7C66D4-DC70-4140-B480-F4558C6BA7EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B6041F-FBA6-4CE6-8DB8-198F6CCF36E9}">
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection sqref="A1:K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,6722 +473,7002 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>410.76120096592598</v>
+        <v>277.11564021073502</v>
       </c>
       <c r="B2">
-        <v>412.67879441171402</v>
+        <v>308.44307429211</v>
       </c>
       <c r="C2">
-        <v>409.48287169616498</v>
+        <v>317.90911772035201</v>
       </c>
       <c r="D2">
-        <v>401.94839316814398</v>
+        <v>318.79539611434302</v>
       </c>
       <c r="E2">
-        <v>398.92893218813498</v>
+        <v>314.41508948848201</v>
       </c>
       <c r="F2">
-        <v>397.94839316814398</v>
+        <v>328.002745813768</v>
       </c>
       <c r="G2">
-        <v>401.34073607243403</v>
+        <v>326.912105454879</v>
       </c>
       <c r="H2">
-        <v>408.67879441171402</v>
+        <v>334.32152181885101</v>
       </c>
       <c r="I2">
-        <v>416.76120096592598</v>
+        <v>342.246108944181</v>
       </c>
       <c r="J2">
-        <v>421.62176524022101</v>
+        <v>338.99340451939503</v>
       </c>
       <c r="K2">
-        <v>421.25422420075301</v>
+        <v>321.16996780733598</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>408.69013315406102</v>
+        <v>305.07483051544398</v>
       </c>
       <c r="B3">
-        <v>411.33904844955902</v>
+        <v>314.38169962393499</v>
       </c>
       <c r="C3">
-        <v>412.41180388430001</v>
+        <v>324.31219965157499</v>
       </c>
       <c r="D3">
-        <v>410.60864720598801</v>
+        <v>337.88359397338201</v>
       </c>
       <c r="E3">
-        <v>411</v>
+        <v>345.17684961157897</v>
       </c>
       <c r="F3">
-        <v>407.94839316814398</v>
+        <v>341.61822408845501</v>
       </c>
       <c r="G3">
-        <v>403.41180388430001</v>
+        <v>346.46129899997499</v>
       </c>
       <c r="H3">
-        <v>400.01854037387</v>
+        <v>342.33470229165198</v>
       </c>
       <c r="I3">
-        <v>399.69013315406102</v>
+        <v>322.49723045561899</v>
       </c>
       <c r="J3">
-        <v>402.96151120237698</v>
+        <v>318.58091111545502</v>
       </c>
       <c r="K3">
-        <v>409.18315638888703</v>
+        <v>273.74444294430998</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>414.29673487185897</v>
+        <v>348.70056939406197</v>
       </c>
       <c r="B4">
-        <v>417.67879441171402</v>
+        <v>334.08987719419798</v>
       </c>
       <c r="C4">
-        <v>413.01840560209803</v>
+        <v>336.39921153643797</v>
       </c>
       <c r="D4">
-        <v>401.94839316814398</v>
+        <v>323.10992501592801</v>
       </c>
       <c r="E4">
-        <v>395.39339828220199</v>
+        <v>316.02537228896</v>
       </c>
       <c r="F4">
-        <v>392.94839316814398</v>
+        <v>316.09644388095199</v>
       </c>
       <c r="G4">
-        <v>397.80520216650098</v>
+        <v>309.31513268238001</v>
       </c>
       <c r="H4">
-        <v>408.67879441171402</v>
+        <v>300.57078084001398</v>
       </c>
       <c r="I4">
-        <v>420.29673487185897</v>
+        <v>299.35734016886403</v>
       </c>
       <c r="J4">
-        <v>426.62176524022101</v>
+        <v>292.76168144355501</v>
       </c>
       <c r="K4">
-        <v>424.78975810668601</v>
+        <v>276.18693343576001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>411.19013315406102</v>
+        <v>296.36940028486202</v>
       </c>
       <c r="B5">
-        <v>415.669175468481</v>
+        <v>308.64376743389602</v>
       </c>
       <c r="C5">
-        <v>417.41180388430001</v>
+        <v>310.84596407228099</v>
       </c>
       <c r="D5">
-        <v>414.93877422490999</v>
+        <v>323.97370074340199</v>
       </c>
       <c r="E5">
-        <v>413.5</v>
+        <v>325.49516595324297</v>
       </c>
       <c r="F5">
-        <v>407.94839316814398</v>
+        <v>335.21788601852199</v>
       </c>
       <c r="G5">
-        <v>400.91180388430001</v>
+        <v>326.76004106257199</v>
       </c>
       <c r="H5">
-        <v>395.68841335494801</v>
+        <v>328.39502246559402</v>
       </c>
       <c r="I5">
-        <v>394.69013315406102</v>
+        <v>322.12482033985901</v>
       </c>
       <c r="J5">
-        <v>398.631384183455</v>
+        <v>308.28042443562299</v>
       </c>
       <c r="K5">
-        <v>406.68315638888703</v>
+        <v>330.65707301178998</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>415.48287169616498</v>
+        <v>285.166995144434</v>
       </c>
       <c r="B6">
-        <v>416.78800783071398</v>
+        <v>305.35193002871699</v>
       </c>
       <c r="C6">
-        <v>412.019460980009</v>
+        <v>312.17436515250301</v>
       </c>
       <c r="D6">
-        <v>402.726044771163</v>
+        <v>310.89051536489598</v>
       </c>
       <c r="E6">
-        <v>398.92893218813498</v>
+        <v>309.18893223021303</v>
       </c>
       <c r="F6">
-        <v>398.726044771163</v>
+        <v>319.66149482718299</v>
       </c>
       <c r="G6">
-        <v>403.87732535627799</v>
+        <v>334.18442094522499</v>
       </c>
       <c r="H6">
-        <v>412.78800783071398</v>
+        <v>323.76991646440598</v>
       </c>
       <c r="I6">
-        <v>421.48287169616498</v>
+        <v>339.81856118744997</v>
       </c>
       <c r="J6">
-        <v>425.99351788599301</v>
+        <v>341.44970456136599</v>
       </c>
       <c r="K6">
-        <v>424.74986222358001</v>
+        <v>358.99096982162303</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>413.41180388430001</v>
+        <v>313.99390054272902</v>
       </c>
       <c r="B7">
-        <v>415.44826186855801</v>
+        <v>340.47651232284898</v>
       </c>
       <c r="C7">
-        <v>414.94839316814398</v>
+        <v>333.46451503327302</v>
       </c>
       <c r="D7">
-        <v>411.386298809008</v>
+        <v>328.87150415455898</v>
       </c>
       <c r="E7">
-        <v>411</v>
+        <v>311.13315645375297</v>
       </c>
       <c r="F7">
-        <v>408.726044771163</v>
+        <v>302.53107054709301</v>
       </c>
       <c r="G7">
-        <v>405.94839316814398</v>
+        <v>300.878328141189</v>
       </c>
       <c r="H7">
-        <v>404.12775379287001</v>
+        <v>312.40599250481301</v>
       </c>
       <c r="I7">
-        <v>404.41180388430001</v>
+        <v>323.95517598696603</v>
       </c>
       <c r="J7">
-        <v>407.33326384814802</v>
+        <v>348.01413718211398</v>
       </c>
       <c r="K7">
-        <v>412.67879441171402</v>
+        <v>348.774763559924</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>419.01840560209803</v>
+        <v>327.491937073298</v>
       </c>
       <c r="B8">
-        <v>421.78800783071398</v>
+        <v>323.07161813804402</v>
       </c>
       <c r="C8">
-        <v>415.55499488594199</v>
+        <v>323.71924956980098</v>
       </c>
       <c r="D8">
-        <v>402.726044771163</v>
+        <v>329.451308935246</v>
       </c>
       <c r="E8">
-        <v>395.39339828220199</v>
+        <v>340.50058046447202</v>
       </c>
       <c r="F8">
-        <v>393.726044771163</v>
+        <v>339.71202497812999</v>
       </c>
       <c r="G8">
-        <v>400.341791450345</v>
+        <v>346.72802610410002</v>
       </c>
       <c r="H8">
-        <v>412.78800783071398</v>
+        <v>347.74109272456002</v>
       </c>
       <c r="I8">
-        <v>425.01840560209803</v>
+        <v>336.72849169731001</v>
       </c>
       <c r="J8">
-        <v>430.99351788599301</v>
+        <v>330.20532031043098</v>
       </c>
       <c r="K8">
-        <v>428.285396129513</v>
+        <v>301.08922876427602</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>415.91180388430001</v>
+        <v>284.07374393459901</v>
       </c>
       <c r="B9">
-        <v>419.77838888748101</v>
+        <v>292.43266326990101</v>
       </c>
       <c r="C9">
-        <v>419.94839316814398</v>
+        <v>303.97589768041598</v>
       </c>
       <c r="D9">
-        <v>415.71642582792998</v>
+        <v>313.26372944525201</v>
       </c>
       <c r="E9">
-        <v>413.5</v>
+        <v>318.56241489746498</v>
       </c>
       <c r="F9">
-        <v>408.726044771163</v>
+        <v>330.62340851381703</v>
       </c>
       <c r="G9">
-        <v>403.44839316814398</v>
+        <v>329.64936750523202</v>
       </c>
       <c r="H9">
-        <v>399.797626773947</v>
+        <v>331.441946692084</v>
       </c>
       <c r="I9">
-        <v>399.41180388430001</v>
+        <v>326.84987405699201</v>
       </c>
       <c r="J9">
-        <v>403.00313682922598</v>
+        <v>318.07557635567599</v>
       </c>
       <c r="K9">
-        <v>410.17879441171402</v>
+        <v>307.55253958331502</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>409.25422420075301</v>
+        <v>279.025090572838</v>
       </c>
       <c r="B10">
-        <v>409.62176524022101</v>
+        <v>297.17251216273598</v>
       </c>
       <c r="C10">
-        <v>404.76120096592598</v>
+        <v>316.85628303724798</v>
       </c>
       <c r="D10">
-        <v>396.67879441171402</v>
+        <v>320.87071540337502</v>
       </c>
       <c r="E10">
-        <v>395.34073607243403</v>
+        <v>312.068423386419</v>
       </c>
       <c r="F10">
-        <v>397.94839316814398</v>
+        <v>323.36474915613599</v>
       </c>
       <c r="G10">
-        <v>404.92893218813498</v>
+        <v>328.60978517210498</v>
       </c>
       <c r="H10">
-        <v>413.94839316814398</v>
+        <v>325.92219199108803</v>
       </c>
       <c r="I10">
-        <v>421.48287169616498</v>
+        <v>327.89118864665198</v>
       </c>
       <c r="J10">
-        <v>424.67879441171402</v>
+        <v>338.16444285136203</v>
       </c>
       <c r="K10">
-        <v>422.76120096592598</v>
+        <v>308.94223568129303</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>407.18315638888703</v>
+        <v>369.43256549833001</v>
       </c>
       <c r="B11">
-        <v>408.282019278066</v>
+        <v>348.75610724984699</v>
       </c>
       <c r="C11">
-        <v>407.69013315406102</v>
+        <v>334.54649554472701</v>
       </c>
       <c r="D11">
-        <v>405.33904844955902</v>
+        <v>318.47014216396701</v>
       </c>
       <c r="E11">
-        <v>407.41180388430001</v>
+        <v>307.39634973244102</v>
       </c>
       <c r="F11">
-        <v>407.94839316814398</v>
+        <v>301.67043146927301</v>
       </c>
       <c r="G11">
-        <v>407</v>
+        <v>301.82841633778003</v>
       </c>
       <c r="H11">
-        <v>405.28813913029899</v>
+        <v>293.84305151414401</v>
       </c>
       <c r="I11">
-        <v>404.41180388430001</v>
+        <v>300.283238747974</v>
       </c>
       <c r="J11">
-        <v>406.01854037387</v>
+        <v>302.859663654043</v>
       </c>
       <c r="K11">
-        <v>410.69013315406102</v>
+        <v>321.25173476367701</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>412.78975810668601</v>
+        <v>315.80886393299198</v>
       </c>
       <c r="B12">
-        <v>414.62176524022101</v>
+        <v>326.68737595872398</v>
       </c>
       <c r="C12">
-        <v>408.29673487185897</v>
+        <v>322.51065284745101</v>
       </c>
       <c r="D12">
-        <v>396.67879441171402</v>
+        <v>329.29866657093498</v>
       </c>
       <c r="E12">
-        <v>391.80520216650098</v>
+        <v>329.52795235179502</v>
       </c>
       <c r="F12">
-        <v>392.94839316814398</v>
+        <v>331.09797971098902</v>
       </c>
       <c r="G12">
-        <v>401.39339828220199</v>
+        <v>331.21445067432398</v>
       </c>
       <c r="H12">
-        <v>413.94839316814398</v>
+        <v>331.99470677058099</v>
       </c>
       <c r="I12">
-        <v>425.01840560209803</v>
+        <v>326.42922658549202</v>
       </c>
       <c r="J12">
-        <v>429.67879441171402</v>
+        <v>319.63210109467002</v>
       </c>
       <c r="K12">
-        <v>426.29673487185897</v>
+        <v>321.92153162496197</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>409.68315638888703</v>
+        <v>297.44322724472198</v>
       </c>
       <c r="B13">
-        <v>412.61214629698799</v>
+        <v>327.938969047645</v>
       </c>
       <c r="C13">
-        <v>412.69013315406102</v>
+        <v>328.69313838919601</v>
       </c>
       <c r="D13">
-        <v>409.669175468481</v>
+        <v>338.244622575807</v>
       </c>
       <c r="E13">
-        <v>409.91180388430001</v>
+        <v>334.872655718472</v>
       </c>
       <c r="F13">
-        <v>407.94839316814398</v>
+        <v>330.19346405988</v>
       </c>
       <c r="G13">
-        <v>404.5</v>
+        <v>317.17202368828799</v>
       </c>
       <c r="H13">
-        <v>400.958012111377</v>
+        <v>321.45836288669</v>
       </c>
       <c r="I13">
-        <v>399.41180388430001</v>
+        <v>316.38558377839001</v>
       </c>
       <c r="J13">
-        <v>401.68841335494801</v>
+        <v>311.93667719112301</v>
       </c>
       <c r="K13">
-        <v>408.19013315406102</v>
+        <v>319.83675263627799</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>412.74986222358001</v>
+        <v>368.28397349102403</v>
       </c>
       <c r="B14">
-        <v>413.99351788599301</v>
+        <v>339.05553494615799</v>
       </c>
       <c r="C14">
-        <v>409.48287169616498</v>
+        <v>326.99755345337798</v>
       </c>
       <c r="D14">
-        <v>400.78800783071398</v>
+        <v>317.48332008325599</v>
       </c>
       <c r="E14">
-        <v>397.87732535627799</v>
+        <v>323.01584893945699</v>
       </c>
       <c r="F14">
-        <v>398.726044771163</v>
+        <v>318.11933805868102</v>
       </c>
       <c r="G14">
-        <v>404.92893218813498</v>
+        <v>310.54571707107999</v>
       </c>
       <c r="H14">
-        <v>414.726044771163</v>
+        <v>324.93473500851502</v>
       </c>
       <c r="I14">
-        <v>424.019460980009</v>
+        <v>319.36546482101699</v>
       </c>
       <c r="J14">
-        <v>428.78800783071398</v>
+        <v>314.92153429350299</v>
       </c>
       <c r="K14">
-        <v>427.48287169616498</v>
+        <v>292.86645570292302</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>410.67879441171402</v>
+        <v>281.96996451846201</v>
       </c>
       <c r="B15">
-        <v>412.65377192383698</v>
+        <v>299.50399817409499</v>
       </c>
       <c r="C15">
-        <v>412.41180388430001</v>
+        <v>299.91658143741699</v>
       </c>
       <c r="D15">
-        <v>409.44826186855801</v>
+        <v>310.73575656267798</v>
       </c>
       <c r="E15">
-        <v>409.94839316814398</v>
+        <v>307.73734097184501</v>
       </c>
       <c r="F15">
-        <v>408.726044771163</v>
+        <v>315.839223664749</v>
       </c>
       <c r="G15">
-        <v>407</v>
+        <v>317.40885119535102</v>
       </c>
       <c r="H15">
-        <v>406.06579073331898</v>
+        <v>316.50853450347699</v>
       </c>
       <c r="I15">
-        <v>406.94839316814398</v>
+        <v>305.61686013882399</v>
       </c>
       <c r="J15">
-        <v>410.12775379287001</v>
+        <v>295.34164505998098</v>
       </c>
       <c r="K15">
-        <v>415.41180388430001</v>
+        <v>281.60746832150699</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>416.285396129513</v>
+        <v>298.19938103366201</v>
       </c>
       <c r="B16">
-        <v>418.99351788599301</v>
+        <v>288.25734365067302</v>
       </c>
       <c r="C16">
-        <v>413.01840560209803</v>
+        <v>300.839217470574</v>
       </c>
       <c r="D16">
-        <v>400.78800783071398</v>
+        <v>305.151123321314</v>
       </c>
       <c r="E16">
-        <v>394.34179145034602</v>
+        <v>313.83752025755803</v>
       </c>
       <c r="F16">
-        <v>393.726044771163</v>
+        <v>320.33800342677699</v>
       </c>
       <c r="G16">
-        <v>401.39339828220199</v>
+        <v>311.733811263691</v>
       </c>
       <c r="H16">
-        <v>414.726044771163</v>
+        <v>326.50335247793402</v>
       </c>
       <c r="I16">
-        <v>427.55499488594199</v>
+        <v>333.42687014014001</v>
       </c>
       <c r="J16">
-        <v>433.78800783071398</v>
+        <v>341.54243341834302</v>
       </c>
       <c r="K16">
-        <v>431.01840560209803</v>
+        <v>354.37649859839399</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>413.17879441171402</v>
+        <v>303.29855433823599</v>
       </c>
       <c r="B17">
-        <v>416.98389894275903</v>
+        <v>304.305833912438</v>
       </c>
       <c r="C17">
-        <v>417.41180388430001</v>
+        <v>310.09364543415501</v>
       </c>
       <c r="D17">
-        <v>413.77838888748101</v>
+        <v>305.24517307264102</v>
       </c>
       <c r="E17">
-        <v>412.44839316814398</v>
+        <v>302.13483157315301</v>
       </c>
       <c r="F17">
-        <v>408.726044771163</v>
+        <v>313.14636473936298</v>
       </c>
       <c r="G17">
-        <v>404.5</v>
+        <v>321.53365107755099</v>
       </c>
       <c r="H17">
-        <v>401.73566371439699</v>
+        <v>323.66917584153703</v>
       </c>
       <c r="I17">
-        <v>401.94839316814398</v>
+        <v>330.06389580473098</v>
       </c>
       <c r="J17">
-        <v>405.797626773947</v>
+        <v>333.73152443032302</v>
       </c>
       <c r="K17">
-        <v>412.91180388430001</v>
+        <v>311.02979234664099</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>411.606267542956</v>
+        <v>309.03672883215302</v>
       </c>
       <c r="B18">
-        <v>414.51819161757197</v>
+        <v>297.60235209710902</v>
       </c>
       <c r="C18">
-        <v>412.68877363831501</v>
+        <v>319.337206766588</v>
       </c>
       <c r="D18">
-        <v>406.42258975221603</v>
+        <v>323.01784745673802</v>
       </c>
       <c r="E18">
-        <v>403.92893218813498</v>
+        <v>330.57575637457302</v>
       </c>
       <c r="F18">
-        <v>402.42258975221603</v>
+        <v>347.365488868466</v>
       </c>
       <c r="G18">
-        <v>404.546638014584</v>
+        <v>345.94692291793001</v>
       </c>
       <c r="H18">
-        <v>410.51819161757197</v>
+        <v>345.53895407111099</v>
       </c>
       <c r="I18">
-        <v>417.606267542956</v>
+        <v>353.20185822856001</v>
       </c>
       <c r="J18">
-        <v>421.932647860332</v>
+        <v>353.50025220832902</v>
       </c>
       <c r="K18">
-        <v>421.34580239519698</v>
+        <v>365.75445307014797</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>409.53519973109098</v>
+        <v>301.77151811496702</v>
       </c>
       <c r="B19">
-        <v>413.178445655416</v>
+        <v>341.09923242572597</v>
       </c>
       <c r="C19">
-        <v>415.61770582644903</v>
+        <v>340.755227673523</v>
       </c>
       <c r="D19">
-        <v>415.08284379006</v>
+        <v>348.93338352795001</v>
       </c>
       <c r="E19">
-        <v>416</v>
+        <v>347.60945356712898</v>
       </c>
       <c r="F19">
-        <v>412.42258975221603</v>
+        <v>342.67230092678199</v>
       </c>
       <c r="G19">
-        <v>406.61770582644903</v>
+        <v>345.73680225706102</v>
       </c>
       <c r="H19">
-        <v>401.85793757972698</v>
+        <v>329.92145684809299</v>
       </c>
       <c r="I19">
-        <v>400.53519973109098</v>
+        <v>331.17745567628498</v>
       </c>
       <c r="J19">
-        <v>403.272393822487</v>
+        <v>321.888837408352</v>
       </c>
       <c r="K19">
-        <v>409.274734583331</v>
+        <v>348.94229152806798</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>415.141801448889</v>
+        <v>290.54201343416003</v>
       </c>
       <c r="B20">
-        <v>419.51819161757197</v>
+        <v>315.249136633359</v>
       </c>
       <c r="C20">
-        <v>416.22430754424801</v>
+        <v>318.431094685147</v>
       </c>
       <c r="D20">
-        <v>406.42258975221603</v>
+        <v>333.96407812653098</v>
       </c>
       <c r="E20">
-        <v>400.39339828220199</v>
+        <v>333.66209416543001</v>
       </c>
       <c r="F20">
-        <v>397.42258975221603</v>
+        <v>328.20033791253297</v>
       </c>
       <c r="G20">
-        <v>401.01110410865101</v>
+        <v>322.54187986733501</v>
       </c>
       <c r="H20">
-        <v>410.51819161757197</v>
+        <v>323.688930123212</v>
       </c>
       <c r="I20">
-        <v>421.141801448889</v>
+        <v>304.804896430903</v>
       </c>
       <c r="J20">
-        <v>426.932647860332</v>
+        <v>299.21259558619602</v>
       </c>
       <c r="K20">
-        <v>424.88133630112901</v>
+        <v>273.78676217953301</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>412.03519973109098</v>
+        <v>299.549349505105</v>
       </c>
       <c r="B21">
-        <v>417.50857267433798</v>
+        <v>304.80275848440999</v>
       </c>
       <c r="C21">
-        <v>420.61770582644903</v>
+        <v>303.83949312449801</v>
       </c>
       <c r="D21">
-        <v>419.41297080898198</v>
+        <v>316.04232316523797</v>
       </c>
       <c r="E21">
-        <v>418.5</v>
+        <v>316.04358000857502</v>
       </c>
       <c r="F21">
-        <v>412.42258975221603</v>
+        <v>324.96385565150302</v>
       </c>
       <c r="G21">
-        <v>404.11770582644903</v>
+        <v>326.65888761182299</v>
       </c>
       <c r="H21">
-        <v>397.52781056080499</v>
+        <v>341.01392121590601</v>
       </c>
       <c r="I21">
-        <v>395.53519973109098</v>
+        <v>333.64480766684102</v>
       </c>
       <c r="J21">
-        <v>398.94226680356502</v>
+        <v>336.25248331825202</v>
       </c>
       <c r="K21">
-        <v>406.774734583331</v>
+        <v>323.71793196347801</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>418.68877363831501</v>
+        <v>346.627042696606</v>
       </c>
       <c r="B22">
-        <v>420.682011746071</v>
+        <v>329.93456061706502</v>
       </c>
       <c r="C22">
-        <v>416.49365756408099</v>
+        <v>321.52132496644299</v>
       </c>
       <c r="D22">
-        <v>407.58906715674499</v>
+        <v>324.16730597166702</v>
       </c>
       <c r="E22">
-        <v>403.92893218813498</v>
+        <v>308.35666763104501</v>
       </c>
       <c r="F22">
-        <v>403.58906715674499</v>
+        <v>318.299159408631</v>
       </c>
       <c r="G22">
-        <v>408.35152194034998</v>
+        <v>316.52067664489101</v>
       </c>
       <c r="H22">
-        <v>416.682011746071</v>
+        <v>316.218738777402</v>
       </c>
       <c r="I22">
-        <v>424.68877363831501</v>
+        <v>310.24996101724901</v>
       </c>
       <c r="J22">
-        <v>428.49027682898901</v>
+        <v>312.47129958227998</v>
       </c>
       <c r="K22">
-        <v>426.58925942943699</v>
+        <v>330.01305892196098</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>416.61770582644903</v>
+        <v>286.218209677093</v>
       </c>
       <c r="B23">
-        <v>419.34226578391502</v>
+        <v>313.07287909411701</v>
       </c>
       <c r="C23">
-        <v>419.42258975221603</v>
+        <v>307.70881807735498</v>
       </c>
       <c r="D23">
-        <v>416.24932119458998</v>
+        <v>306.4966675265</v>
       </c>
       <c r="E23">
-        <v>416</v>
+        <v>322.03282431938101</v>
       </c>
       <c r="F23">
-        <v>413.58906715674499</v>
+        <v>322.47102904990999</v>
       </c>
       <c r="G23">
-        <v>410.42258975221603</v>
+        <v>322.944726308952</v>
       </c>
       <c r="H23">
-        <v>408.02175770822703</v>
+        <v>320.914156990317</v>
       </c>
       <c r="I23">
-        <v>407.61770582644903</v>
+        <v>337.35339084461202</v>
       </c>
       <c r="J23">
-        <v>409.83002279114498</v>
+        <v>317.96490633358297</v>
       </c>
       <c r="K23">
-        <v>414.51819161757197</v>
+        <v>362.35362619429401</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>422.22430754424801</v>
+        <v>311.36446214031997</v>
       </c>
       <c r="B24">
-        <v>425.682011746071</v>
+        <v>312.45531440563701</v>
       </c>
       <c r="C24">
-        <v>420.02919147001398</v>
+        <v>298.77834394338998</v>
       </c>
       <c r="D24">
-        <v>407.58906715674499</v>
+        <v>301.88516991097703</v>
       </c>
       <c r="E24">
-        <v>400.39339828220199</v>
+        <v>317.08766613159798</v>
       </c>
       <c r="F24">
-        <v>398.58906715674499</v>
+        <v>307.58424034875901</v>
       </c>
       <c r="G24">
-        <v>404.81598803441699</v>
+        <v>309.30826709805399</v>
       </c>
       <c r="H24">
-        <v>416.682011746071</v>
+        <v>308.245170264249</v>
       </c>
       <c r="I24">
-        <v>428.22430754424801</v>
+        <v>312.72070546653703</v>
       </c>
       <c r="J24">
-        <v>433.49027682898901</v>
+        <v>303.035564689061</v>
       </c>
       <c r="K24">
-        <v>430.12479333536999</v>
+        <v>349.27626798969197</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>419.11770582644903</v>
+        <v>345.27541836592002</v>
       </c>
       <c r="B25">
-        <v>423.67239280283798</v>
+        <v>333.90501487966401</v>
       </c>
       <c r="C25">
-        <v>424.42258975221603</v>
+        <v>322.81324091069501</v>
       </c>
       <c r="D25">
-        <v>420.57944821351202</v>
+        <v>310.61404885695902</v>
       </c>
       <c r="E25">
-        <v>418.5</v>
+        <v>300.48821344012703</v>
       </c>
       <c r="F25">
-        <v>413.58906715674499</v>
+        <v>304.92805713932501</v>
       </c>
       <c r="G25">
-        <v>407.92258975221603</v>
+        <v>294.22069102374297</v>
       </c>
       <c r="H25">
-        <v>403.69163068930499</v>
+        <v>306.88905208676903</v>
       </c>
       <c r="I25">
-        <v>402.61770582644903</v>
+        <v>315.13890603834199</v>
       </c>
       <c r="J25">
-        <v>405.499895772223</v>
+        <v>315.89495416893499</v>
       </c>
       <c r="K25">
-        <v>412.01819161757197</v>
+        <v>325.52872785510698</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>409.34580239519698</v>
+        <v>324.58665729397597</v>
       </c>
       <c r="B26">
-        <v>409.932647860332</v>
+        <v>325.93279907439199</v>
       </c>
       <c r="C26">
-        <v>405.606267542956</v>
+        <v>334.71904619008399</v>
       </c>
       <c r="D26">
-        <v>398.51819161757197</v>
+        <v>331.31978548965202</v>
       </c>
       <c r="E26">
-        <v>398.546638014584</v>
+        <v>313.874951138151</v>
       </c>
       <c r="F26">
-        <v>402.42258975221603</v>
+        <v>311.470012116296</v>
       </c>
       <c r="G26">
-        <v>409.92893218813498</v>
+        <v>298.59018670625198</v>
       </c>
       <c r="H26">
-        <v>418.42258975221603</v>
+        <v>287.49594138371799</v>
       </c>
       <c r="I26">
-        <v>424.68877363831501</v>
+        <v>284.93111656835902</v>
       </c>
       <c r="J26">
-        <v>426.51819161757197</v>
+        <v>290.230903259792</v>
       </c>
       <c r="K26">
-        <v>423.606267542956</v>
+        <v>294.76622971502201</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>407.274734583331</v>
+        <v>303.19019819601198</v>
       </c>
       <c r="B27">
-        <v>408.59290189817602</v>
+        <v>321.69974017867099</v>
       </c>
       <c r="C27">
-        <v>408.53519973109098</v>
+        <v>314.39144449247698</v>
       </c>
       <c r="D27">
-        <v>407.178445655416</v>
+        <v>315.11586789903703</v>
       </c>
       <c r="E27">
-        <v>410.61770582644903</v>
+        <v>318.12537425024999</v>
       </c>
       <c r="F27">
-        <v>412.42258975221603</v>
+        <v>314.23139837252302</v>
       </c>
       <c r="G27">
-        <v>412</v>
+        <v>318.33589133325103</v>
       </c>
       <c r="H27">
-        <v>409.76233571437098</v>
+        <v>321.95291269783502</v>
       </c>
       <c r="I27">
-        <v>407.61770582644903</v>
+        <v>326.95285435238799</v>
       </c>
       <c r="J27">
-        <v>407.85793757972698</v>
+        <v>325.75919901817002</v>
       </c>
       <c r="K27">
-        <v>411.53519973109098</v>
+        <v>331.81202350157599</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>412.88133630112901</v>
+        <v>275.874578530706</v>
       </c>
       <c r="B28">
-        <v>414.932647860332</v>
+        <v>293.69657497328501</v>
       </c>
       <c r="C28">
-        <v>409.141801448889</v>
+        <v>308.73532429437103</v>
       </c>
       <c r="D28">
-        <v>398.51819161757197</v>
+        <v>321.219166535542</v>
       </c>
       <c r="E28">
-        <v>395.01110410865101</v>
+        <v>320.700626952655</v>
       </c>
       <c r="F28">
-        <v>397.42258975221603</v>
+        <v>311.00695139986499</v>
       </c>
       <c r="G28">
-        <v>406.39339828220199</v>
+        <v>303.04368094820097</v>
       </c>
       <c r="H28">
-        <v>418.42258975221603</v>
+        <v>311.138326760832</v>
       </c>
       <c r="I28">
-        <v>428.22430754424801</v>
+        <v>305.96265874066302</v>
       </c>
       <c r="J28">
-        <v>431.51819161757197</v>
+        <v>325.21974099751702</v>
       </c>
       <c r="K28">
-        <v>427.141801448889</v>
+        <v>312.41544963571499</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>409.774734583331</v>
+        <v>311.06357171265603</v>
       </c>
       <c r="B29">
-        <v>412.92302891709801</v>
+        <v>323.11236639005801</v>
       </c>
       <c r="C29">
-        <v>413.53519973109098</v>
+        <v>320.088445132733</v>
       </c>
       <c r="D29">
-        <v>411.50857267433798</v>
+        <v>330.98093361775898</v>
       </c>
       <c r="E29">
-        <v>413.11770582644903</v>
+        <v>331.226553106361</v>
       </c>
       <c r="F29">
-        <v>412.42258975221603</v>
+        <v>323.63305154682899</v>
       </c>
       <c r="G29">
-        <v>409.5</v>
+        <v>317.990566295983</v>
       </c>
       <c r="H29">
-        <v>405.43220869544899</v>
+        <v>331.28322320523898</v>
       </c>
       <c r="I29">
-        <v>402.61770582644903</v>
+        <v>322.10035389846399</v>
       </c>
       <c r="J29">
-        <v>403.52781056080499</v>
+        <v>329.65588412981703</v>
       </c>
       <c r="K29">
-        <v>409.03519973109098</v>
+        <v>319.61166760390802</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>414.58925942943699</v>
+        <v>323.82005165271897</v>
       </c>
       <c r="B30">
-        <v>416.49027682898901</v>
+        <v>320.93432769121199</v>
       </c>
       <c r="C30">
-        <v>412.68877363831501</v>
+        <v>309.66403552800898</v>
       </c>
       <c r="D30">
-        <v>404.682011746071</v>
+        <v>299.53784730321797</v>
       </c>
       <c r="E30">
-        <v>402.35152194034998</v>
+        <v>300.79876830100699</v>
       </c>
       <c r="F30">
-        <v>403.58906715674499</v>
+        <v>298.29694727952398</v>
       </c>
       <c r="G30">
-        <v>409.92893218813498</v>
+        <v>294.37072317765598</v>
       </c>
       <c r="H30">
-        <v>419.58906715674499</v>
+        <v>307.37690446561498</v>
       </c>
       <c r="I30">
-        <v>428.49365756408099</v>
+        <v>322.73994622453898</v>
       </c>
       <c r="J30">
-        <v>432.682011746071</v>
+        <v>326.97376660675002</v>
       </c>
       <c r="K30">
-        <v>430.68877363831501</v>
+        <v>350.00431932338898</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>412.51819161757197</v>
+        <v>358.71597637953198</v>
       </c>
       <c r="B31">
-        <v>415.150530866834</v>
+        <v>333.18949855736003</v>
       </c>
       <c r="C31">
-        <v>415.61770582644903</v>
+        <v>326.79266173069499</v>
       </c>
       <c r="D31">
-        <v>413.34226578391502</v>
+        <v>329.19541671114899</v>
       </c>
       <c r="E31">
-        <v>414.42258975221603</v>
+        <v>322.031588158246</v>
       </c>
       <c r="F31">
-        <v>413.58906715674499</v>
+        <v>332.977529941797</v>
       </c>
       <c r="G31">
-        <v>412</v>
+        <v>348.01613178237602</v>
       </c>
       <c r="H31">
-        <v>410.92881311890102</v>
+        <v>347.861165145256</v>
       </c>
       <c r="I31">
-        <v>411.42258975221603</v>
+        <v>334.93836490473399</v>
       </c>
       <c r="J31">
-        <v>414.02175770822703</v>
+        <v>338.30957969262801</v>
       </c>
       <c r="K31">
-        <v>418.61770582644903</v>
+        <v>306.11575007919299</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>418.12479333536999</v>
+        <v>307.00564619249599</v>
       </c>
       <c r="B32">
-        <v>421.49027682898901</v>
+        <v>325.73079304201002</v>
       </c>
       <c r="C32">
-        <v>416.22430754424801</v>
+        <v>316.76932963618901</v>
       </c>
       <c r="D32">
-        <v>404.682011746071</v>
+        <v>322.98518703194497</v>
       </c>
       <c r="E32">
-        <v>398.81598803441699</v>
+        <v>319.07158245796302</v>
       </c>
       <c r="F32">
-        <v>398.58906715674499</v>
+        <v>332.04912951439098</v>
       </c>
       <c r="G32">
-        <v>406.39339828220199</v>
+        <v>337.39500239124197</v>
       </c>
       <c r="H32">
-        <v>419.58906715674499</v>
+        <v>341.221478407858</v>
       </c>
       <c r="I32">
-        <v>432.02919147001398</v>
+        <v>333.83103476856598</v>
       </c>
       <c r="J32">
-        <v>437.682011746071</v>
+        <v>317.88290949902199</v>
       </c>
       <c r="K32">
-        <v>434.22430754424801</v>
+        <v>301.13271497481497</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>415.01819161757197</v>
+        <v>363.19094779039102</v>
       </c>
       <c r="B33">
-        <v>419.48065788575599</v>
+        <v>335.13488769891802</v>
       </c>
       <c r="C33">
-        <v>420.61770582644903</v>
+        <v>331.086065757075</v>
       </c>
       <c r="D33">
-        <v>417.67239280283798</v>
+        <v>316.73245316400602</v>
       </c>
       <c r="E33">
-        <v>416.92258975221603</v>
+        <v>312.12724676070002</v>
       </c>
       <c r="F33">
-        <v>413.58906715674499</v>
+        <v>313.58659832648402</v>
       </c>
       <c r="G33">
-        <v>409.5</v>
+        <v>311.38703918989802</v>
       </c>
       <c r="H33">
-        <v>406.59868609997898</v>
+        <v>307.72253583821703</v>
       </c>
       <c r="I33">
-        <v>406.42258975221603</v>
+        <v>320.683387917743</v>
       </c>
       <c r="J33">
-        <v>409.69163068930499</v>
+        <v>325.64416615665499</v>
       </c>
       <c r="K33">
-        <v>416.11770582644903</v>
+        <v>356.22714522267898</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>416.76120096592598</v>
+        <v>320.27949788182298</v>
       </c>
       <c r="B34">
-        <v>418.67879441171402</v>
+        <v>316.40509526187799</v>
       </c>
       <c r="C34">
-        <v>415.48287169616498</v>
+        <v>319.040794171237</v>
       </c>
       <c r="D34">
-        <v>407.94839316814398</v>
+        <v>321.891152739338</v>
       </c>
       <c r="E34">
-        <v>398.92893218813498</v>
+        <v>325.73338767913202</v>
       </c>
       <c r="F34">
-        <v>391.94839316814398</v>
+        <v>330.074681123142</v>
       </c>
       <c r="G34">
-        <v>395.34073607243403</v>
+        <v>328.05002637059101</v>
       </c>
       <c r="H34">
-        <v>402.67879441171402</v>
+        <v>338.24353158824903</v>
       </c>
       <c r="I34">
-        <v>410.76120096592598</v>
+        <v>345.17097547767003</v>
       </c>
       <c r="J34">
-        <v>415.62176524022101</v>
+        <v>352.00048252184001</v>
       </c>
       <c r="K34">
-        <v>415.25422420075301</v>
+        <v>369.16851016943502</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>414.69013315406102</v>
+        <v>333.78691692062802</v>
       </c>
       <c r="B35">
-        <v>417.33904844955902</v>
+        <v>346.18059805107299</v>
       </c>
       <c r="C35">
-        <v>418.41180388430001</v>
+        <v>338.54809783213301</v>
       </c>
       <c r="D35">
-        <v>416.60864720598801</v>
+        <v>330.62101288356598</v>
       </c>
       <c r="E35">
-        <v>411</v>
+        <v>328.50599567198299</v>
       </c>
       <c r="F35">
-        <v>401.94839316814398</v>
+        <v>312.149088543777</v>
       </c>
       <c r="G35">
-        <v>397.41180388430001</v>
+        <v>309.02188797871798</v>
       </c>
       <c r="H35">
-        <v>394.01854037387</v>
+        <v>307.236266630751</v>
       </c>
       <c r="I35">
-        <v>393.69013315406102</v>
+        <v>306.62340176023599</v>
       </c>
       <c r="J35">
-        <v>396.96151120237698</v>
+        <v>306.90725108917701</v>
       </c>
       <c r="K35">
-        <v>403.18315638888703</v>
+        <v>291.08716782521498</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>420.29673487185897</v>
+        <v>300.60753059164301</v>
       </c>
       <c r="B36">
-        <v>423.67879441171402</v>
+        <v>308.24966637976001</v>
       </c>
       <c r="C36">
-        <v>419.01840560209803</v>
+        <v>317.70102590265998</v>
       </c>
       <c r="D36">
-        <v>407.94839316814398</v>
+        <v>312.19265815689801</v>
       </c>
       <c r="E36">
-        <v>395.39339828220199</v>
+        <v>311.29639316403399</v>
       </c>
       <c r="F36">
-        <v>386.94839316814398</v>
+        <v>309.84542383299203</v>
       </c>
       <c r="G36">
-        <v>391.80520216650098</v>
+        <v>299.06758512724502</v>
       </c>
       <c r="H36">
-        <v>402.67879441171402</v>
+        <v>296.15549251336103</v>
       </c>
       <c r="I36">
-        <v>414.29673487185897</v>
+        <v>297.67416799164101</v>
       </c>
       <c r="J36">
-        <v>420.62176524022101</v>
+        <v>291.98851434336501</v>
       </c>
       <c r="K36">
-        <v>418.78975810668601</v>
+        <v>280.65906925422797</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>417.19013315406102</v>
+        <v>298.06914318065401</v>
       </c>
       <c r="B37">
-        <v>421.669175468481</v>
+        <v>305.76289033577802</v>
       </c>
       <c r="C37">
-        <v>423.41180388430001</v>
+        <v>318.722661484117</v>
       </c>
       <c r="D37">
-        <v>420.93877422490999</v>
+        <v>330.79750783087201</v>
       </c>
       <c r="E37">
-        <v>413.5</v>
+        <v>330.028982731241</v>
       </c>
       <c r="F37">
-        <v>401.94839316814398</v>
+        <v>336.21787412035201</v>
       </c>
       <c r="G37">
-        <v>394.91180388430001</v>
+        <v>331.00155833490197</v>
       </c>
       <c r="H37">
-        <v>389.68841335494801</v>
+        <v>322.91892635409698</v>
       </c>
       <c r="I37">
-        <v>388.69013315406102</v>
+        <v>317.21266580159403</v>
       </c>
       <c r="J37">
-        <v>392.631384183455</v>
+        <v>313.24732324463099</v>
       </c>
       <c r="K37">
-        <v>400.68315638888703</v>
+        <v>329.91207215191503</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>421.48287169616498</v>
+        <v>307.14599692419603</v>
       </c>
       <c r="B38">
-        <v>422.78800783071398</v>
+        <v>304.20516092730497</v>
       </c>
       <c r="C38">
-        <v>418.019460980009</v>
+        <v>321.93452691419799</v>
       </c>
       <c r="D38">
-        <v>408.726044771163</v>
+        <v>318.81418914392799</v>
       </c>
       <c r="E38">
-        <v>398.92893218813498</v>
+        <v>322.67839116506298</v>
       </c>
       <c r="F38">
-        <v>392.726044771163</v>
+        <v>333.24597926559198</v>
       </c>
       <c r="G38">
-        <v>397.87732535627799</v>
+        <v>317.11682445029697</v>
       </c>
       <c r="H38">
-        <v>406.78800783071398</v>
+        <v>314.01831529898499</v>
       </c>
       <c r="I38">
-        <v>415.48287169616498</v>
+        <v>315.49186345065101</v>
       </c>
       <c r="J38">
-        <v>419.99351788599301</v>
+        <v>299.943626929071</v>
       </c>
       <c r="K38">
-        <v>418.74986222358001</v>
+        <v>298.91204883117399</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>419.41180388430001</v>
+        <v>323.82159985608399</v>
       </c>
       <c r="B39">
-        <v>421.44826186855801</v>
+        <v>349.65629130927903</v>
       </c>
       <c r="C39">
-        <v>420.94839316814398</v>
+        <v>354.10134988574902</v>
       </c>
       <c r="D39">
-        <v>417.386298809008</v>
+        <v>349.927121480658</v>
       </c>
       <c r="E39">
-        <v>411</v>
+        <v>348.06280165221898</v>
       </c>
       <c r="F39">
-        <v>402.726044771163</v>
+        <v>336.80243412363302</v>
       </c>
       <c r="G39">
-        <v>399.94839316814398</v>
+        <v>323.47016690110399</v>
       </c>
       <c r="H39">
-        <v>398.12775379287001</v>
+        <v>309.27018998022402</v>
       </c>
       <c r="I39">
-        <v>398.41180388430001</v>
+        <v>320.50225239645698</v>
       </c>
       <c r="J39">
-        <v>401.33326384814802</v>
+        <v>314.32914156522003</v>
       </c>
       <c r="K39">
-        <v>406.67879441171402</v>
+        <v>359.110769911793</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>425.01840560209803</v>
+        <v>317.45989586831098</v>
       </c>
       <c r="B40">
-        <v>427.78800783071398</v>
+        <v>328.440350504533</v>
       </c>
       <c r="C40">
-        <v>421.55499488594199</v>
+        <v>328.350113740837</v>
       </c>
       <c r="D40">
-        <v>408.726044771163</v>
+        <v>328.64819329584702</v>
       </c>
       <c r="E40">
-        <v>395.39339828220199</v>
+        <v>324.18508057694299</v>
       </c>
       <c r="F40">
-        <v>387.726044771163</v>
+        <v>312.91995827481099</v>
       </c>
       <c r="G40">
-        <v>394.341791450345</v>
+        <v>319.20412958223301</v>
       </c>
       <c r="H40">
-        <v>406.78800783071398</v>
+        <v>316.69543036649401</v>
       </c>
       <c r="I40">
-        <v>419.01840560209803</v>
+        <v>315.25318965799897</v>
       </c>
       <c r="J40">
-        <v>424.99351788599301</v>
+        <v>329.01532258329598</v>
       </c>
       <c r="K40">
-        <v>422.285396129513</v>
+        <v>311.73909010088602</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>421.91180388430001</v>
+        <v>277.44251760194197</v>
       </c>
       <c r="B41">
-        <v>425.77838888748101</v>
+        <v>324.80988267447998</v>
       </c>
       <c r="C41">
-        <v>425.94839316814398</v>
+        <v>338.796737090943</v>
       </c>
       <c r="D41">
-        <v>421.71642582792998</v>
+        <v>351.62001570826999</v>
       </c>
       <c r="E41">
-        <v>413.5</v>
+        <v>342.23994767281999</v>
       </c>
       <c r="F41">
-        <v>402.726044771163</v>
+        <v>340.61859851313898</v>
       </c>
       <c r="G41">
-        <v>397.44839316814398</v>
+        <v>331.34775557658401</v>
       </c>
       <c r="H41">
-        <v>393.797626773947</v>
+        <v>314.147488346702</v>
       </c>
       <c r="I41">
-        <v>393.41180388430001</v>
+        <v>304.75334838019802</v>
       </c>
       <c r="J41">
-        <v>397.00313682922598</v>
+        <v>293.92889915171497</v>
       </c>
       <c r="K41">
-        <v>404.17879441171402</v>
+        <v>294.588210856052</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>415.25422420075301</v>
+        <v>281.53037606022298</v>
       </c>
       <c r="B42">
-        <v>415.62176524022101</v>
+        <v>315.79952789862398</v>
       </c>
       <c r="C42">
-        <v>410.76120096592598</v>
+        <v>306.00536402880903</v>
       </c>
       <c r="D42">
-        <v>402.67879441171402</v>
+        <v>321.723685792114</v>
       </c>
       <c r="E42">
-        <v>395.34073607243403</v>
+        <v>324.41427309457902</v>
       </c>
       <c r="F42">
-        <v>391.94839316814398</v>
+        <v>324.892848120949</v>
       </c>
       <c r="G42">
-        <v>398.92893218813498</v>
+        <v>341.22007701937599</v>
       </c>
       <c r="H42">
-        <v>407.94839316814398</v>
+        <v>344.50316664780701</v>
       </c>
       <c r="I42">
-        <v>415.48287169616498</v>
+        <v>345.24561725818501</v>
       </c>
       <c r="J42">
-        <v>418.67879441171402</v>
+        <v>348.17135567036797</v>
       </c>
       <c r="K42">
-        <v>416.76120096592598</v>
+        <v>363.83423792864198</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>413.18315638888703</v>
+        <v>298.05340227876297</v>
       </c>
       <c r="B43">
-        <v>414.282019278066</v>
+        <v>307.06697932432201</v>
       </c>
       <c r="C43">
-        <v>413.69013315406102</v>
+        <v>320.72344634514201</v>
       </c>
       <c r="D43">
-        <v>411.33904844955902</v>
+        <v>322.70884252007897</v>
       </c>
       <c r="E43">
-        <v>407.41180388430001</v>
+        <v>317.31858889119002</v>
       </c>
       <c r="F43">
-        <v>401.94839316814398</v>
+        <v>315.79852513450197</v>
       </c>
       <c r="G43">
-        <v>401</v>
+        <v>311.014433681637</v>
       </c>
       <c r="H43">
-        <v>399.28813913029899</v>
+        <v>316.71979963865903</v>
       </c>
       <c r="I43">
-        <v>398.41180388430001</v>
+        <v>326.70210875164503</v>
       </c>
       <c r="J43">
-        <v>400.01854037387</v>
+        <v>348.30486499730301</v>
       </c>
       <c r="K43">
-        <v>404.69013315406102</v>
+        <v>357.89192871837702</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>418.78975810668601</v>
+        <v>357.477244385944</v>
       </c>
       <c r="B44">
-        <v>420.62176524022101</v>
+        <v>325.93535938947701</v>
       </c>
       <c r="C44">
-        <v>414.29673487185897</v>
+        <v>319.96313692784003</v>
       </c>
       <c r="D44">
-        <v>402.67879441171402</v>
+        <v>313.92766187202699</v>
       </c>
       <c r="E44">
-        <v>391.80520216650098</v>
+        <v>315.18742793653399</v>
       </c>
       <c r="F44">
-        <v>386.94839316814398</v>
+        <v>312.65858599665398</v>
       </c>
       <c r="G44">
-        <v>395.39339828220199</v>
+        <v>309.94922286661898</v>
       </c>
       <c r="H44">
-        <v>407.94839316814398</v>
+        <v>316.664909809015</v>
       </c>
       <c r="I44">
-        <v>419.01840560209803</v>
+        <v>310.445658186358</v>
       </c>
       <c r="J44">
-        <v>423.67879441171402</v>
+        <v>312.74827884205502</v>
       </c>
       <c r="K44">
-        <v>420.29673487185897</v>
+        <v>296.20361099359098</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>415.68315638888703</v>
+        <v>275.84190649573299</v>
       </c>
       <c r="B45">
-        <v>418.61214629698799</v>
+        <v>283.95828069378302</v>
       </c>
       <c r="C45">
-        <v>418.69013315406102</v>
+        <v>300.06453710293403</v>
       </c>
       <c r="D45">
-        <v>415.669175468481</v>
+        <v>314.50593639277099</v>
       </c>
       <c r="E45">
-        <v>409.91180388430001</v>
+        <v>329.89841587369699</v>
       </c>
       <c r="F45">
-        <v>401.94839316814398</v>
+        <v>325.48723008540702</v>
       </c>
       <c r="G45">
-        <v>398.5</v>
+        <v>311.78209706727</v>
       </c>
       <c r="H45">
-        <v>394.958012111377</v>
+        <v>319.74463035171499</v>
       </c>
       <c r="I45">
-        <v>393.41180388430001</v>
+        <v>318.02268995849897</v>
       </c>
       <c r="J45">
-        <v>395.68841335494801</v>
+        <v>319.72468191456699</v>
       </c>
       <c r="K45">
-        <v>402.19013315406102</v>
+        <v>339.43920097883802</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>418.74986222358001</v>
+        <v>331.53266139658598</v>
       </c>
       <c r="B46">
-        <v>419.99351788599301</v>
+        <v>328.72338746614099</v>
       </c>
       <c r="C46">
-        <v>415.48287169616498</v>
+        <v>330.26545172096598</v>
       </c>
       <c r="D46">
-        <v>406.78800783071398</v>
+        <v>319.32389013607798</v>
       </c>
       <c r="E46">
-        <v>397.87732535627799</v>
+        <v>305.52236250272</v>
       </c>
       <c r="F46">
-        <v>392.726044771163</v>
+        <v>316.33093286477998</v>
       </c>
       <c r="G46">
-        <v>398.92893218813498</v>
+        <v>303.94409427201998</v>
       </c>
       <c r="H46">
-        <v>408.726044771163</v>
+        <v>313.74171161420099</v>
       </c>
       <c r="I46">
-        <v>418.019460980009</v>
+        <v>324.75059110007498</v>
       </c>
       <c r="J46">
-        <v>422.78800783071398</v>
+        <v>328.02674695167701</v>
       </c>
       <c r="K46">
-        <v>421.48287169616498</v>
+        <v>331.869250901523</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>416.67879441171402</v>
+        <v>283.87560967496398</v>
       </c>
       <c r="B47">
-        <v>418.65377192383698</v>
+        <v>322.55647287603801</v>
       </c>
       <c r="C47">
-        <v>418.41180388430001</v>
+        <v>320.45443750756999</v>
       </c>
       <c r="D47">
-        <v>415.44826186855801</v>
+        <v>321.30334057553802</v>
       </c>
       <c r="E47">
-        <v>409.94839316814398</v>
+        <v>318.870756077637</v>
       </c>
       <c r="F47">
-        <v>402.726044771163</v>
+        <v>308.77975111336099</v>
       </c>
       <c r="G47">
-        <v>401</v>
+        <v>308.34541832207401</v>
       </c>
       <c r="H47">
-        <v>400.06579073331898</v>
+        <v>316.49312774595899</v>
       </c>
       <c r="I47">
-        <v>400.94839316814398</v>
+        <v>319.45691000458902</v>
       </c>
       <c r="J47">
-        <v>404.12775379287001</v>
+        <v>325.36956279356002</v>
       </c>
       <c r="K47">
-        <v>409.41180388430001</v>
+        <v>302.93903630795597</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>422.285396129513</v>
+        <v>330.71689049026202</v>
       </c>
       <c r="B48">
-        <v>424.99351788599301</v>
+        <v>332.29774792561398</v>
       </c>
       <c r="C48">
-        <v>419.01840560209803</v>
+        <v>323.129098073845</v>
       </c>
       <c r="D48">
-        <v>406.78800783071398</v>
+        <v>326.913542872959</v>
       </c>
       <c r="E48">
-        <v>394.34179145034602</v>
+        <v>327.67878531408002</v>
       </c>
       <c r="F48">
-        <v>387.726044771163</v>
+        <v>315.31463971617501</v>
       </c>
       <c r="G48">
-        <v>395.39339828220199</v>
+        <v>317.46150753679098</v>
       </c>
       <c r="H48">
-        <v>408.726044771163</v>
+        <v>312.55910436305101</v>
       </c>
       <c r="I48">
-        <v>421.55499488594199</v>
+        <v>306.04530949406598</v>
       </c>
       <c r="J48">
-        <v>427.78800783071398</v>
+        <v>307.34823665588999</v>
       </c>
       <c r="K48">
-        <v>425.01840560209803</v>
+        <v>317.07014014090697</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>419.17879441171402</v>
+        <v>334.84006944915302</v>
       </c>
       <c r="B49">
-        <v>422.98389894275903</v>
+        <v>330.38964175704098</v>
       </c>
       <c r="C49">
-        <v>423.41180388430001</v>
+        <v>328.46116270503097</v>
       </c>
       <c r="D49">
-        <v>419.77838888748101</v>
+        <v>332.32868143237999</v>
       </c>
       <c r="E49">
-        <v>412.44839316814398</v>
+        <v>336.868689198136</v>
       </c>
       <c r="F49">
-        <v>402.726044771163</v>
+        <v>332.95940387575098</v>
       </c>
       <c r="G49">
-        <v>398.5</v>
+        <v>324.086704979714</v>
       </c>
       <c r="H49">
-        <v>395.73566371439699</v>
+        <v>332.29812425052802</v>
       </c>
       <c r="I49">
-        <v>395.94839316814398</v>
+        <v>330.7470212536</v>
       </c>
       <c r="J49">
-        <v>399.797626773947</v>
+        <v>331.41754607639098</v>
       </c>
       <c r="K49">
-        <v>406.91180388430001</v>
+        <v>346.42214810126001</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>417.606267542956</v>
+        <v>343.79291589445597</v>
       </c>
       <c r="B50">
-        <v>420.51819161757197</v>
+        <v>309.28510073559499</v>
       </c>
       <c r="C50">
-        <v>418.68877363831501</v>
+        <v>319.62311827388498</v>
       </c>
       <c r="D50">
-        <v>412.42258975221603</v>
+        <v>305.48479062681002</v>
       </c>
       <c r="E50">
-        <v>403.92893218813498</v>
+        <v>305.115146130217</v>
       </c>
       <c r="F50">
-        <v>396.42258975221603</v>
+        <v>316.41224970364198</v>
       </c>
       <c r="G50">
-        <v>398.546638014584</v>
+        <v>325.648322811198</v>
       </c>
       <c r="H50">
-        <v>404.51819161757197</v>
+        <v>315.41366798131003</v>
       </c>
       <c r="I50">
-        <v>411.606267542956</v>
+        <v>320.05122108684799</v>
       </c>
       <c r="J50">
-        <v>415.932647860332</v>
+        <v>320.51880791258299</v>
       </c>
       <c r="K50">
-        <v>415.34580239519698</v>
+        <v>296.28904318676803</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>415.53519973109098</v>
+        <v>306.51907551010299</v>
       </c>
       <c r="B51">
-        <v>419.178445655416</v>
+        <v>300.02463777941398</v>
       </c>
       <c r="C51">
-        <v>421.61770582644903</v>
+        <v>309.75757246534198</v>
       </c>
       <c r="D51">
-        <v>421.08284379006</v>
+        <v>320.88466141974499</v>
       </c>
       <c r="E51">
-        <v>416</v>
+        <v>320.45203061100602</v>
       </c>
       <c r="F51">
-        <v>406.42258975221603</v>
+        <v>315.84526913203501</v>
       </c>
       <c r="G51">
-        <v>400.61770582644903</v>
+        <v>312.360154082794</v>
       </c>
       <c r="H51">
-        <v>395.85793757972698</v>
+        <v>317.07514967268003</v>
       </c>
       <c r="I51">
-        <v>394.53519973109098</v>
+        <v>317.01478491076199</v>
       </c>
       <c r="J51">
-        <v>397.272393822487</v>
+        <v>338.90534938807201</v>
       </c>
       <c r="K51">
-        <v>403.274734583331</v>
+        <v>361.85269647252301</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>421.141801448889</v>
+        <v>277.62039372242202</v>
       </c>
       <c r="B52">
-        <v>425.51819161757197</v>
+        <v>316.07099845696303</v>
       </c>
       <c r="C52">
-        <v>422.22430754424801</v>
+        <v>315.17740296371397</v>
       </c>
       <c r="D52">
-        <v>412.42258975221603</v>
+        <v>314.821810477371</v>
       </c>
       <c r="E52">
-        <v>400.39339828220199</v>
+        <v>327.51967843727601</v>
       </c>
       <c r="F52">
-        <v>391.42258975221603</v>
+        <v>315.856515155365</v>
       </c>
       <c r="G52">
-        <v>395.01110410865101</v>
+        <v>300.95379676448698</v>
       </c>
       <c r="H52">
-        <v>404.51819161757197</v>
+        <v>309.91111090435601</v>
       </c>
       <c r="I52">
-        <v>415.141801448889</v>
+        <v>328.32570611679</v>
       </c>
       <c r="J52">
-        <v>420.932647860332</v>
+        <v>321.95413518183699</v>
       </c>
       <c r="K52">
-        <v>418.88133630112901</v>
+        <v>367.91540735287998</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>418.03519973109098</v>
+        <v>366.243827341035</v>
       </c>
       <c r="B53">
-        <v>423.50857267433798</v>
+        <v>336.35656866566501</v>
       </c>
       <c r="C53">
-        <v>426.61770582644903</v>
+        <v>324.91981185598303</v>
       </c>
       <c r="D53">
-        <v>425.41297080898198</v>
+        <v>318.64773917573302</v>
       </c>
       <c r="E53">
-        <v>418.5</v>
+        <v>335.08006101967999</v>
       </c>
       <c r="F53">
-        <v>406.42258975221603</v>
+        <v>325.18657665714102</v>
       </c>
       <c r="G53">
-        <v>398.11770582644903</v>
+        <v>333.720147183054</v>
       </c>
       <c r="H53">
-        <v>391.52781056080499</v>
+        <v>340.49652381969702</v>
       </c>
       <c r="I53">
-        <v>389.53519973109098</v>
+        <v>345.00778036675501</v>
       </c>
       <c r="J53">
-        <v>392.94226680356502</v>
+        <v>349.83961192359101</v>
       </c>
       <c r="K53">
-        <v>400.774734583331</v>
+        <v>357.439746675077</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>424.68877363831501</v>
+        <v>349.05050412563901</v>
       </c>
       <c r="B54">
-        <v>426.682011746071</v>
+        <v>350.95809868131698</v>
       </c>
       <c r="C54">
-        <v>422.49365756408099</v>
+        <v>338.31262563069799</v>
       </c>
       <c r="D54">
-        <v>413.58906715674499</v>
+        <v>337.17067386787301</v>
       </c>
       <c r="E54">
-        <v>403.92893218813498</v>
+        <v>328.95236207204402</v>
       </c>
       <c r="F54">
-        <v>397.58906715674499</v>
+        <v>321.17328370255001</v>
       </c>
       <c r="G54">
-        <v>402.35152194034998</v>
+        <v>314.74691819602702</v>
       </c>
       <c r="H54">
-        <v>410.682011746071</v>
+        <v>322.83839024959002</v>
       </c>
       <c r="I54">
-        <v>418.68877363831501</v>
+        <v>328.52221485130099</v>
       </c>
       <c r="J54">
-        <v>422.49027682898901</v>
+        <v>339.591411054937</v>
       </c>
       <c r="K54">
-        <v>420.58925942943699</v>
+        <v>371.759868320073</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>422.61770582644903</v>
+        <v>350.693010804381</v>
       </c>
       <c r="B55">
-        <v>425.34226578391502</v>
+        <v>350.881067430759</v>
       </c>
       <c r="C55">
-        <v>425.42258975221603</v>
+        <v>334.19258984471901</v>
       </c>
       <c r="D55">
-        <v>422.24932119458998</v>
+        <v>325.91242259314703</v>
       </c>
       <c r="E55">
-        <v>416</v>
+        <v>323.91467572468599</v>
       </c>
       <c r="F55">
-        <v>407.58906715674499</v>
+        <v>313.25126500499101</v>
       </c>
       <c r="G55">
-        <v>404.42258975221603</v>
+        <v>320.66611329739999</v>
       </c>
       <c r="H55">
-        <v>402.02175770822703</v>
+        <v>327.02150566524602</v>
       </c>
       <c r="I55">
-        <v>401.61770582644903</v>
+        <v>337.52383419791801</v>
       </c>
       <c r="J55">
-        <v>403.83002279114498</v>
+        <v>349.65825581415601</v>
       </c>
       <c r="K55">
-        <v>408.51819161757197</v>
+        <v>361.80381720987901</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>428.22430754424801</v>
+        <v>340.88380479455401</v>
       </c>
       <c r="B56">
-        <v>431.682011746071</v>
+        <v>309.332506145916</v>
       </c>
       <c r="C56">
-        <v>426.02919147001398</v>
+        <v>318.35129225471502</v>
       </c>
       <c r="D56">
-        <v>413.58906715674499</v>
+        <v>320.50852020072398</v>
       </c>
       <c r="E56">
-        <v>400.39339828220199</v>
+        <v>328.21252961196399</v>
       </c>
       <c r="F56">
-        <v>392.58906715674499</v>
+        <v>327.47890967650602</v>
       </c>
       <c r="G56">
-        <v>398.81598803441699</v>
+        <v>323.01897102531001</v>
       </c>
       <c r="H56">
-        <v>410.682011746071</v>
+        <v>324.862034159556</v>
       </c>
       <c r="I56">
-        <v>422.22430754424801</v>
+        <v>319.43409320682099</v>
       </c>
       <c r="J56">
-        <v>427.49027682898901</v>
+        <v>325.06826833733101</v>
       </c>
       <c r="K56">
-        <v>424.12479333536999</v>
+        <v>324.53023976092402</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>425.11770582644903</v>
+        <v>319.89855316307501</v>
       </c>
       <c r="B57">
-        <v>429.67239280283798</v>
+        <v>314.06208564986798</v>
       </c>
       <c r="C57">
-        <v>430.42258975221603</v>
+        <v>316.749033521716</v>
       </c>
       <c r="D57">
-        <v>426.57944821351202</v>
+        <v>326.85838806072798</v>
       </c>
       <c r="E57">
-        <v>418.5</v>
+        <v>333.75937349751598</v>
       </c>
       <c r="F57">
-        <v>407.58906715674499</v>
+        <v>322.56134983973999</v>
       </c>
       <c r="G57">
-        <v>401.92258975221603</v>
+        <v>321.85951036635203</v>
       </c>
       <c r="H57">
-        <v>397.69163068930499</v>
+        <v>330.79929253151698</v>
       </c>
       <c r="I57">
-        <v>396.61770582644903</v>
+        <v>322.50675426156198</v>
       </c>
       <c r="J57">
-        <v>399.499895772223</v>
+        <v>337.24375287540897</v>
       </c>
       <c r="K57">
-        <v>406.01819161757197</v>
+        <v>328.98263450835901</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>415.34580239519698</v>
+        <v>297.91182879356398</v>
       </c>
       <c r="B58">
-        <v>415.932647860332</v>
+        <v>308.91545072470501</v>
       </c>
       <c r="C58">
-        <v>411.606267542956</v>
+        <v>310.83595512215499</v>
       </c>
       <c r="D58">
-        <v>404.51819161757197</v>
+        <v>320.59189909313397</v>
       </c>
       <c r="E58">
-        <v>398.546638014584</v>
+        <v>323.31536303221401</v>
       </c>
       <c r="F58">
-        <v>396.42258975221603</v>
+        <v>326.24907144469802</v>
       </c>
       <c r="G58">
-        <v>403.92893218813498</v>
+        <v>323.20796881092798</v>
       </c>
       <c r="H58">
-        <v>412.42258975221603</v>
+        <v>335.74026526742199</v>
       </c>
       <c r="I58">
-        <v>418.68877363831501</v>
+        <v>340.17647375497501</v>
       </c>
       <c r="J58">
-        <v>420.51819161757197</v>
+        <v>347.92066121216902</v>
       </c>
       <c r="K58">
-        <v>417.606267542956</v>
+        <v>368.87259108622902</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>413.274734583331</v>
+        <v>324.56686355347603</v>
       </c>
       <c r="B59">
-        <v>414.59290189817602</v>
+        <v>318.23695684775498</v>
       </c>
       <c r="C59">
-        <v>414.53519973109098</v>
+        <v>324.84061442114</v>
       </c>
       <c r="D59">
-        <v>413.178445655416</v>
+        <v>328.64714969100601</v>
       </c>
       <c r="E59">
-        <v>410.61770582644903</v>
+        <v>339.09143015594702</v>
       </c>
       <c r="F59">
-        <v>406.42258975221603</v>
+        <v>323.74235552160701</v>
       </c>
       <c r="G59">
-        <v>406</v>
+        <v>322.32408704290498</v>
       </c>
       <c r="H59">
-        <v>403.76233571437098</v>
+        <v>311.494311332233</v>
       </c>
       <c r="I59">
-        <v>401.61770582644903</v>
+        <v>312.414182719937</v>
       </c>
       <c r="J59">
-        <v>401.85793757972698</v>
+        <v>318.81695915229602</v>
       </c>
       <c r="K59">
-        <v>405.53519973109098</v>
+        <v>348.19889684131903</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>418.88133630112901</v>
+        <v>276.53883295042903</v>
       </c>
       <c r="B60">
-        <v>420.932647860332</v>
+        <v>318.59411875794001</v>
       </c>
       <c r="C60">
-        <v>415.141801448889</v>
+        <v>335.466850986471</v>
       </c>
       <c r="D60">
-        <v>404.51819161757197</v>
+        <v>336.42613687378298</v>
       </c>
       <c r="E60">
-        <v>395.01110410865101</v>
+        <v>327.50849860662697</v>
       </c>
       <c r="F60">
-        <v>391.42258975221603</v>
+        <v>337.37095887593199</v>
       </c>
       <c r="G60">
-        <v>400.39339828220199</v>
+        <v>330.62191265676302</v>
       </c>
       <c r="H60">
-        <v>412.42258975221603</v>
+        <v>316.82436521416003</v>
       </c>
       <c r="I60">
-        <v>422.22430754424801</v>
+        <v>333.66014256774002</v>
       </c>
       <c r="J60">
-        <v>425.51819161757197</v>
+        <v>328.11102650151997</v>
       </c>
       <c r="K60">
-        <v>421.141801448889</v>
+        <v>365.51414915488601</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>415.774734583331</v>
+        <v>276.93554416264902</v>
       </c>
       <c r="B61">
-        <v>418.92302891709801</v>
+        <v>330.65699837921699</v>
       </c>
       <c r="C61">
-        <v>419.53519973109098</v>
+        <v>328.201050722025</v>
       </c>
       <c r="D61">
-        <v>417.50857267433798</v>
+        <v>341.22404250508902</v>
       </c>
       <c r="E61">
-        <v>413.11770582644903</v>
+        <v>338.37923655958201</v>
       </c>
       <c r="F61">
-        <v>406.42258975221603</v>
+        <v>328.97691536738898</v>
       </c>
       <c r="G61">
-        <v>403.5</v>
+        <v>314.23517426359501</v>
       </c>
       <c r="H61">
-        <v>399.43220869544899</v>
+        <v>311.89163601494801</v>
       </c>
       <c r="I61">
-        <v>396.61770582644903</v>
+        <v>310.87186246191999</v>
       </c>
       <c r="J61">
-        <v>397.52781056080499</v>
+        <v>300.18649900769998</v>
       </c>
       <c r="K61">
-        <v>403.03519973109098</v>
+        <v>336.95163531283299</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>420.58925942943699</v>
+        <v>280.82117588832</v>
       </c>
       <c r="B62">
-        <v>422.49027682898901</v>
+        <v>319.86822080988998</v>
       </c>
       <c r="C62">
-        <v>418.68877363831501</v>
+        <v>317.57142920547801</v>
       </c>
       <c r="D62">
-        <v>410.682011746071</v>
+        <v>324.409356526355</v>
       </c>
       <c r="E62">
-        <v>402.35152194034998</v>
+        <v>322.412223241238</v>
       </c>
       <c r="F62">
-        <v>397.58906715674499</v>
+        <v>327.40315463514798</v>
       </c>
       <c r="G62">
-        <v>403.92893218813498</v>
+        <v>343.31753608345201</v>
       </c>
       <c r="H62">
-        <v>413.58906715674499</v>
+        <v>342.11264904958398</v>
       </c>
       <c r="I62">
-        <v>422.49365756408099</v>
+        <v>350.28961669524301</v>
       </c>
       <c r="J62">
-        <v>426.682011746071</v>
+        <v>352.56520213030001</v>
       </c>
       <c r="K62">
-        <v>424.68877363831501</v>
+        <v>355.89565072099901</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>418.51819161757197</v>
+        <v>369.800864104347</v>
       </c>
       <c r="B63">
-        <v>421.150530866834</v>
+        <v>349.62427114062399</v>
       </c>
       <c r="C63">
-        <v>421.61770582644903</v>
+        <v>342.32067813956098</v>
       </c>
       <c r="D63">
-        <v>419.34226578391502</v>
+        <v>327.08032559481302</v>
       </c>
       <c r="E63">
-        <v>414.42258975221603</v>
+        <v>331.79630298289698</v>
       </c>
       <c r="F63">
-        <v>407.58906715674499</v>
+        <v>330.502288894667</v>
       </c>
       <c r="G63">
-        <v>406</v>
+        <v>316.21662253532799</v>
       </c>
       <c r="H63">
-        <v>404.92881311890102</v>
+        <v>319.64445753733702</v>
       </c>
       <c r="I63">
-        <v>405.42258975221603</v>
+        <v>319.78120179856501</v>
       </c>
       <c r="J63">
-        <v>408.02175770822703</v>
+        <v>300.908081058677</v>
       </c>
       <c r="K63">
-        <v>412.61770582644903</v>
+        <v>294.28282268674798</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>424.12479333536999</v>
+        <v>302.83937198964799</v>
       </c>
       <c r="B64">
-        <v>427.49027682898901</v>
+        <v>326.63557498869301</v>
       </c>
       <c r="C64">
-        <v>422.22430754424801</v>
+        <v>312.973370335428</v>
       </c>
       <c r="D64">
-        <v>410.682011746071</v>
+        <v>319.03263604173998</v>
       </c>
       <c r="E64">
-        <v>398.81598803441699</v>
+        <v>322.64139220593597</v>
       </c>
       <c r="F64">
-        <v>392.58906715674499</v>
+        <v>326.502634820205</v>
       </c>
       <c r="G64">
-        <v>400.39339828220199</v>
+        <v>331.92993940620499</v>
       </c>
       <c r="H64">
-        <v>413.58906715674499</v>
+        <v>335.868409957935</v>
       </c>
       <c r="I64">
-        <v>426.02919147001398</v>
+        <v>339.39773839081698</v>
       </c>
       <c r="J64">
-        <v>431.682011746071</v>
+        <v>327.52378169511002</v>
       </c>
       <c r="K64">
-        <v>428.22430754424801</v>
+        <v>350.78234268561999</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>421.01819161757197</v>
+        <v>294.89905846286001</v>
       </c>
       <c r="B65">
-        <v>425.48065788575599</v>
+        <v>293.70221972002503</v>
       </c>
       <c r="C65">
-        <v>426.61770582644903</v>
+        <v>315.779616653907</v>
       </c>
       <c r="D65">
-        <v>423.67239280283798</v>
+        <v>324.69273378178798</v>
       </c>
       <c r="E65">
-        <v>416.92258975221603</v>
+        <v>335.05079485080103</v>
       </c>
       <c r="F65">
-        <v>407.58906715674499</v>
+        <v>342.38538523371102</v>
       </c>
       <c r="G65">
-        <v>403.5</v>
+        <v>324.17501529916598</v>
       </c>
       <c r="H65">
-        <v>400.59868609997898</v>
+        <v>322.57809509916098</v>
       </c>
       <c r="I65">
-        <v>400.42258975221603</v>
+        <v>316.30530770295701</v>
       </c>
       <c r="J65">
-        <v>403.69163068930499</v>
+        <v>302.28522685265199</v>
       </c>
       <c r="K65">
-        <v>410.11770582644903</v>
+        <v>308.10070712124599</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>419.76120096592598</v>
+        <v>333.52218053306598</v>
       </c>
       <c r="B66">
-        <v>421.67879441171402</v>
+        <v>323.72001402472898</v>
       </c>
       <c r="C66">
-        <v>418.48287169616498</v>
+        <v>323.67093212330201</v>
       </c>
       <c r="D66">
-        <v>410.94839316814398</v>
+        <v>311.67689164177</v>
       </c>
       <c r="E66">
-        <v>401.92893218813498</v>
+        <v>303.77352559888101</v>
       </c>
       <c r="F66">
-        <v>394.94839316814398</v>
+        <v>308.38699252239201</v>
       </c>
       <c r="G66">
-        <v>392.34073607243403</v>
+        <v>298.45470456638401</v>
       </c>
       <c r="H66">
-        <v>399.67879441171402</v>
+        <v>298.31231484281398</v>
       </c>
       <c r="I66">
-        <v>407.76120096592598</v>
+        <v>310.43857581907099</v>
       </c>
       <c r="J66">
-        <v>412.62176524022101</v>
+        <v>310.33483771704101</v>
       </c>
       <c r="K66">
-        <v>412.25422420075301</v>
+        <v>334.18328300668998</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>417.69013315406102</v>
+        <v>301.487250822779</v>
       </c>
       <c r="B67">
-        <v>420.33904844955902</v>
+        <v>309.26373483551401</v>
       </c>
       <c r="C67">
-        <v>421.41180388430001</v>
+        <v>305.61527461500799</v>
       </c>
       <c r="D67">
-        <v>419.60864720598801</v>
+        <v>302.27971253995099</v>
       </c>
       <c r="E67">
-        <v>414</v>
+        <v>299.01624110513899</v>
       </c>
       <c r="F67">
-        <v>404.94839316814398</v>
+        <v>304.24358030342501</v>
       </c>
       <c r="G67">
-        <v>394.41180388430001</v>
+        <v>297.80915377158499</v>
       </c>
       <c r="H67">
-        <v>391.01854037387</v>
+        <v>307.59620063604399</v>
       </c>
       <c r="I67">
-        <v>390.69013315406102</v>
+        <v>309.90941231526199</v>
       </c>
       <c r="J67">
-        <v>393.96151120237698</v>
+        <v>304.47458969172499</v>
       </c>
       <c r="K67">
-        <v>400.18315638888703</v>
+        <v>296.37549884357799</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>423.29673487185897</v>
+        <v>339.21311149343097</v>
       </c>
       <c r="B68">
-        <v>426.67879441171402</v>
+        <v>344.78711433888299</v>
       </c>
       <c r="C68">
-        <v>422.01840560209803</v>
+        <v>352.48684563100898</v>
       </c>
       <c r="D68">
-        <v>410.94839316814398</v>
+        <v>355.41550010755901</v>
       </c>
       <c r="E68">
-        <v>398.39339828220199</v>
+        <v>344.11340811745498</v>
       </c>
       <c r="F68">
-        <v>389.94839316814398</v>
+        <v>333.12021913826601</v>
       </c>
       <c r="G68">
-        <v>388.80520216650098</v>
+        <v>317.74686929306398</v>
       </c>
       <c r="H68">
-        <v>399.67879441171402</v>
+        <v>312.86837612699497</v>
       </c>
       <c r="I68">
-        <v>411.29673487185897</v>
+        <v>305.75113378677099</v>
       </c>
       <c r="J68">
-        <v>417.62176524022101</v>
+        <v>315.02794741903301</v>
       </c>
       <c r="K68">
-        <v>415.78975810668601</v>
+        <v>318.27017217506102</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>420.19013315406102</v>
+        <v>307.96052245944702</v>
       </c>
       <c r="B69">
-        <v>424.669175468481</v>
+        <v>313.40765627053997</v>
       </c>
       <c r="C69">
-        <v>426.41180388430001</v>
+        <v>306.60105120589401</v>
       </c>
       <c r="D69">
-        <v>423.93877422490999</v>
+        <v>314.66999296798502</v>
       </c>
       <c r="E69">
-        <v>416.5</v>
+        <v>306.69679531841501</v>
       </c>
       <c r="F69">
-        <v>404.94839316814398</v>
+        <v>311.9190676467</v>
       </c>
       <c r="G69">
-        <v>391.91180388430001</v>
+        <v>316.92505223106002</v>
       </c>
       <c r="H69">
-        <v>386.68841335494801</v>
+        <v>318.34129863138497</v>
       </c>
       <c r="I69">
-        <v>385.69013315406102</v>
+        <v>312.49634826063601</v>
       </c>
       <c r="J69">
-        <v>389.631384183455</v>
+        <v>314.65797385247902</v>
       </c>
       <c r="K69">
-        <v>397.68315638888703</v>
+        <v>319.08047941615598</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>424.48287169616498</v>
+        <v>314.220411013545</v>
       </c>
       <c r="B70">
-        <v>425.78800783071398</v>
+        <v>349.90720393041602</v>
       </c>
       <c r="C70">
-        <v>421.019460980009</v>
+        <v>335.75672074859102</v>
       </c>
       <c r="D70">
-        <v>411.726044771163</v>
+        <v>334.247206915905</v>
       </c>
       <c r="E70">
-        <v>401.92893218813498</v>
+        <v>325.07349854461</v>
       </c>
       <c r="F70">
-        <v>395.726044771163</v>
+        <v>323.14629636940901</v>
       </c>
       <c r="G70">
-        <v>394.87732535627799</v>
+        <v>315.30050132501998</v>
       </c>
       <c r="H70">
-        <v>403.78800783071398</v>
+        <v>318.421542029541</v>
       </c>
       <c r="I70">
-        <v>412.48287169616498</v>
+        <v>318.26307324007797</v>
       </c>
       <c r="J70">
-        <v>416.99351788599301</v>
+        <v>303.77290605172198</v>
       </c>
       <c r="K70">
-        <v>415.74986222358001</v>
+        <v>305.88049790279899</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>422.41180388430001</v>
+        <v>307.210421522057</v>
       </c>
       <c r="B71">
-        <v>424.44826186855801</v>
+        <v>336.54258630118898</v>
       </c>
       <c r="C71">
-        <v>423.94839316814398</v>
+        <v>328.44372569205802</v>
       </c>
       <c r="D71">
-        <v>420.386298809008</v>
+        <v>341.13804974673297</v>
       </c>
       <c r="E71">
-        <v>414</v>
+        <v>337.71373283751001</v>
       </c>
       <c r="F71">
-        <v>405.726044771163</v>
+        <v>330.49357287054602</v>
       </c>
       <c r="G71">
-        <v>396.94839316814398</v>
+        <v>324.24428188064098</v>
       </c>
       <c r="H71">
-        <v>395.12775379287001</v>
+        <v>322.76840194236701</v>
       </c>
       <c r="I71">
-        <v>395.41180388430001</v>
+        <v>308.759460756463</v>
       </c>
       <c r="J71">
-        <v>398.33326384814802</v>
+        <v>298.20078359391403</v>
       </c>
       <c r="K71">
-        <v>403.67879441171402</v>
+        <v>300.63733586591297</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>428.01840560209803</v>
+        <v>309.697254107444</v>
       </c>
       <c r="B72">
-        <v>430.78800783071398</v>
+        <v>312.19898657809898</v>
       </c>
       <c r="C72">
-        <v>424.55499488594199</v>
+        <v>314.854659475934</v>
       </c>
       <c r="D72">
-        <v>411.726044771163</v>
+        <v>308.24882452641401</v>
       </c>
       <c r="E72">
-        <v>398.39339828220199</v>
+        <v>308.03238338053598</v>
       </c>
       <c r="F72">
-        <v>390.726044771163</v>
+        <v>321.01551331126097</v>
       </c>
       <c r="G72">
-        <v>391.341791450345</v>
+        <v>331.52368132387801</v>
       </c>
       <c r="H72">
-        <v>403.78800783071398</v>
+        <v>328.135273578274</v>
       </c>
       <c r="I72">
-        <v>416.01840560209803</v>
+        <v>347.20833923868798</v>
       </c>
       <c r="J72">
-        <v>421.99351788599301</v>
+        <v>348.43618221411901</v>
       </c>
       <c r="K72">
-        <v>419.285396129513</v>
+        <v>372.033407661919</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>424.91180388430001</v>
+        <v>290.793285151438</v>
       </c>
       <c r="B73">
-        <v>428.77838888748101</v>
+        <v>314.51818009094399</v>
       </c>
       <c r="C73">
-        <v>428.94839316814398</v>
+        <v>329.73318155322102</v>
       </c>
       <c r="D73">
-        <v>424.71642582792998</v>
+        <v>344.32656944075501</v>
       </c>
       <c r="E73">
-        <v>416.5</v>
+        <v>336.862462384558</v>
       </c>
       <c r="F73">
-        <v>405.726044771163</v>
+        <v>336.99536532405398</v>
       </c>
       <c r="G73">
-        <v>394.44839316814398</v>
+        <v>333.14488268140701</v>
       </c>
       <c r="H73">
-        <v>390.797626773947</v>
+        <v>320.54508952593801</v>
       </c>
       <c r="I73">
-        <v>390.41180388430001</v>
+        <v>316.82384927913199</v>
       </c>
       <c r="J73">
-        <v>394.00313682922598</v>
+        <v>322.67133728592501</v>
       </c>
       <c r="K73">
-        <v>401.17879441171402</v>
+        <v>345.154023355079</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>418.25422420075301</v>
+        <v>323.48875399523502</v>
       </c>
       <c r="B74">
-        <v>418.62176524022101</v>
+        <v>339.152355894403</v>
       </c>
       <c r="C74">
-        <v>413.76120096592598</v>
+        <v>328.66788109698598</v>
       </c>
       <c r="D74">
-        <v>405.67879441171402</v>
+        <v>337.72290393961498</v>
       </c>
       <c r="E74">
-        <v>398.34073607243403</v>
+        <v>330.88804411641701</v>
       </c>
       <c r="F74">
-        <v>394.94839316814398</v>
+        <v>321.20612544080399</v>
       </c>
       <c r="G74">
-        <v>395.92893218813498</v>
+        <v>320.906485789378</v>
       </c>
       <c r="H74">
-        <v>404.94839316814398</v>
+        <v>321.53231993181203</v>
       </c>
       <c r="I74">
-        <v>412.48287169616498</v>
+        <v>307.93962726495801</v>
       </c>
       <c r="J74">
-        <v>415.67879441171402</v>
+        <v>309.43790504362403</v>
       </c>
       <c r="K74">
-        <v>413.76120096592598</v>
+        <v>300.80040487410997</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>416.18315638888703</v>
+        <v>338.94157397262398</v>
       </c>
       <c r="B75">
-        <v>417.282019278066</v>
+        <v>322.524583481256</v>
       </c>
       <c r="C75">
-        <v>416.69013315406102</v>
+        <v>333.73023712192003</v>
       </c>
       <c r="D75">
-        <v>414.33904844955902</v>
+        <v>335.08586494175699</v>
       </c>
       <c r="E75">
-        <v>410.41180388430001</v>
+        <v>341.82751922509101</v>
       </c>
       <c r="F75">
-        <v>404.94839316814398</v>
+        <v>349.38729128987802</v>
       </c>
       <c r="G75">
-        <v>398</v>
+        <v>340.29940018990698</v>
       </c>
       <c r="H75">
-        <v>396.28813913029899</v>
+        <v>333.90314421352701</v>
       </c>
       <c r="I75">
-        <v>395.41180388430001</v>
+        <v>332.83279576698499</v>
       </c>
       <c r="J75">
-        <v>397.01854037387</v>
+        <v>321.34155687439198</v>
       </c>
       <c r="K75">
-        <v>401.69013315406102</v>
+        <v>340.36797083909897</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>421.78975810668601</v>
+        <v>358.91011683816703</v>
       </c>
       <c r="B76">
-        <v>423.62176524022101</v>
+        <v>347.80523994739502</v>
       </c>
       <c r="C76">
-        <v>417.29673487185897</v>
+        <v>328.88426993730099</v>
       </c>
       <c r="D76">
-        <v>405.67879441171402</v>
+        <v>330.00361047312998</v>
       </c>
       <c r="E76">
-        <v>394.80520216650098</v>
+        <v>330.34933399134599</v>
       </c>
       <c r="F76">
-        <v>389.94839316814398</v>
+        <v>321.78486523124701</v>
       </c>
       <c r="G76">
-        <v>392.39339828220199</v>
+        <v>326.01758407695797</v>
       </c>
       <c r="H76">
-        <v>404.94839316814398</v>
+        <v>318.088151885164</v>
       </c>
       <c r="I76">
-        <v>416.01840560209803</v>
+        <v>313.10558619143001</v>
       </c>
       <c r="J76">
-        <v>420.67879441171402</v>
+        <v>307.37201805418198</v>
       </c>
       <c r="K76">
-        <v>417.29673487185897</v>
+        <v>339.59399104864298</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>418.68315638888703</v>
+        <v>285.55561495060499</v>
       </c>
       <c r="B77">
-        <v>421.61214629698799</v>
+        <v>295.57525000749899</v>
       </c>
       <c r="C77">
-        <v>421.69013315406102</v>
+        <v>316.85815088107501</v>
       </c>
       <c r="D77">
-        <v>418.669175468481</v>
+        <v>325.77723549688301</v>
       </c>
       <c r="E77">
-        <v>412.91180388430001</v>
+        <v>325.118919252127</v>
       </c>
       <c r="F77">
-        <v>404.94839316814398</v>
+        <v>323.510442266881</v>
       </c>
       <c r="G77">
-        <v>395.5</v>
+        <v>312.83783606608</v>
       </c>
       <c r="H77">
-        <v>391.958012111377</v>
+        <v>302.86520898076998</v>
       </c>
       <c r="I77">
-        <v>390.41180388430001</v>
+        <v>310.55298797461398</v>
       </c>
       <c r="J77">
-        <v>392.68841335494801</v>
+        <v>320.976256983729</v>
       </c>
       <c r="K77">
-        <v>399.19013315406102</v>
+        <v>368.58993299885998</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>421.74986222358001</v>
+        <v>370.75686215734697</v>
       </c>
       <c r="B78">
-        <v>422.99351788599301</v>
+        <v>319.44428386696097</v>
       </c>
       <c r="C78">
-        <v>418.48287169616498</v>
+        <v>335.72241034444301</v>
       </c>
       <c r="D78">
-        <v>409.78800783071398</v>
+        <v>328.28811897650598</v>
       </c>
       <c r="E78">
-        <v>400.87732535627799</v>
+        <v>342.27628560895801</v>
       </c>
       <c r="F78">
-        <v>395.726044771163</v>
+        <v>350.39246994890902</v>
       </c>
       <c r="G78">
-        <v>395.92893218813498</v>
+        <v>349.44510146456298</v>
       </c>
       <c r="H78">
-        <v>405.726044771163</v>
+        <v>353.50134327280898</v>
       </c>
       <c r="I78">
-        <v>415.019460980009</v>
+        <v>342.545792768269</v>
       </c>
       <c r="J78">
-        <v>419.78800783071398</v>
+        <v>338.21040651193198</v>
       </c>
       <c r="K78">
-        <v>418.48287169616498</v>
+        <v>278.80765279496597</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>419.67879441171402</v>
+        <v>275.63787270586897</v>
       </c>
       <c r="B79">
-        <v>421.65377192383698</v>
+        <v>318.87046615706299</v>
       </c>
       <c r="C79">
-        <v>421.41180388430001</v>
+        <v>321.02435299301999</v>
       </c>
       <c r="D79">
-        <v>418.44826186855801</v>
+        <v>322.38366341977502</v>
       </c>
       <c r="E79">
-        <v>412.94839316814398</v>
+        <v>324.586404879979</v>
       </c>
       <c r="F79">
-        <v>405.726044771163</v>
+        <v>319.281742335986</v>
       </c>
       <c r="G79">
-        <v>398</v>
+        <v>328.167604043278</v>
       </c>
       <c r="H79">
-        <v>397.06579073331898</v>
+        <v>333.81214352282001</v>
       </c>
       <c r="I79">
-        <v>397.94839316814398</v>
+        <v>343.78333527558601</v>
       </c>
       <c r="J79">
-        <v>401.12775379287001</v>
+        <v>351.15091867718399</v>
       </c>
       <c r="K79">
-        <v>406.41180388430001</v>
+        <v>332.29038360347602</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>425.285396129513</v>
+        <v>282.59332381553202</v>
       </c>
       <c r="B80">
-        <v>427.99351788599301</v>
+        <v>284.91839898970898</v>
       </c>
       <c r="C80">
-        <v>422.01840560209803</v>
+        <v>300.84062574826498</v>
       </c>
       <c r="D80">
-        <v>409.78800783071398</v>
+        <v>301.30117686196297</v>
       </c>
       <c r="E80">
-        <v>397.34179145034602</v>
+        <v>313.73352337614</v>
       </c>
       <c r="F80">
-        <v>390.726044771163</v>
+        <v>330.57735120136601</v>
       </c>
       <c r="G80">
-        <v>392.39339828220199</v>
+        <v>345.40584088165298</v>
       </c>
       <c r="H80">
-        <v>405.726044771163</v>
+        <v>328.03069329303099</v>
       </c>
       <c r="I80">
-        <v>418.55499488594199</v>
+        <v>341.57345352688299</v>
       </c>
       <c r="J80">
-        <v>424.78800783071398</v>
+        <v>329.77484092793497</v>
       </c>
       <c r="K80">
-        <v>422.01840560209803</v>
+        <v>352.60988055328301</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>422.17879441171402</v>
+        <v>291.21457090277102</v>
       </c>
       <c r="B81">
-        <v>425.98389894275903</v>
+        <v>285.58658521162698</v>
       </c>
       <c r="C81">
-        <v>426.41180388430001</v>
+        <v>306.88339448807301</v>
       </c>
       <c r="D81">
-        <v>422.77838888748101</v>
+        <v>318.83072056183403</v>
       </c>
       <c r="E81">
-        <v>415.44839316814398</v>
+        <v>325.16601638018</v>
       </c>
       <c r="F81">
-        <v>405.726044771163</v>
+        <v>336.06815649476101</v>
       </c>
       <c r="G81">
-        <v>395.5</v>
+        <v>331.71711414648399</v>
       </c>
       <c r="H81">
-        <v>392.73566371439699</v>
+        <v>328.67039419091401</v>
       </c>
       <c r="I81">
-        <v>392.94839316814398</v>
+        <v>322.25804368897599</v>
       </c>
       <c r="J81">
-        <v>396.797626773947</v>
+        <v>319.85261801604298</v>
       </c>
       <c r="K81">
-        <v>403.91180388430001</v>
+        <v>318.88944876187998</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>420.606267542956</v>
+        <v>294.91195127887198</v>
       </c>
       <c r="B82">
-        <v>423.51819161757197</v>
+        <v>316.01815844295902</v>
       </c>
       <c r="C82">
-        <v>421.68877363831501</v>
+        <v>329.60808410058701</v>
       </c>
       <c r="D82">
-        <v>415.42258975221603</v>
+        <v>328.82113940167699</v>
       </c>
       <c r="E82">
-        <v>406.92893218813498</v>
+        <v>331.778065634548</v>
       </c>
       <c r="F82">
-        <v>399.42258975221603</v>
+        <v>334.54863505766599</v>
       </c>
       <c r="G82">
-        <v>395.546638014584</v>
+        <v>333.10686850700199</v>
       </c>
       <c r="H82">
-        <v>401.51819161757197</v>
+        <v>323.94480241376601</v>
       </c>
       <c r="I82">
-        <v>408.606267542956</v>
+        <v>327.22470612800601</v>
       </c>
       <c r="J82">
-        <v>412.932647860332</v>
+        <v>318.11450943669399</v>
       </c>
       <c r="K82">
-        <v>412.34580239519698</v>
+        <v>307.37674635552099</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>418.53519973109098</v>
+        <v>346.07311563079497</v>
       </c>
       <c r="B83">
-        <v>422.178445655416</v>
+        <v>321.73029189527603</v>
       </c>
       <c r="C83">
-        <v>424.61770582644903</v>
+        <v>338.70793466068397</v>
       </c>
       <c r="D83">
-        <v>424.08284379006</v>
+        <v>336.38437572688002</v>
       </c>
       <c r="E83">
-        <v>419</v>
+        <v>334.16969687302702</v>
       </c>
       <c r="F83">
-        <v>409.42258975221603</v>
+        <v>326.57373831110499</v>
       </c>
       <c r="G83">
-        <v>397.61770582644903</v>
+        <v>323.49103309289899</v>
       </c>
       <c r="H83">
-        <v>392.85793757972698</v>
+        <v>308.41660657561101</v>
       </c>
       <c r="I83">
-        <v>391.53519973109098</v>
+        <v>309.41577380013501</v>
       </c>
       <c r="J83">
-        <v>394.272393822487</v>
+        <v>325.67143200817202</v>
       </c>
       <c r="K83">
-        <v>400.274734583331</v>
+        <v>339.45115708439198</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>424.141801448889</v>
+        <v>357.42246934843598</v>
       </c>
       <c r="B84">
-        <v>428.51819161757197</v>
+        <v>355.62576418844799</v>
       </c>
       <c r="C84">
-        <v>425.22430754424801</v>
+        <v>345.13266506965601</v>
       </c>
       <c r="D84">
-        <v>415.42258975221603</v>
+        <v>329.16077675568198</v>
       </c>
       <c r="E84">
-        <v>403.39339828220199</v>
+        <v>324.31777285866099</v>
       </c>
       <c r="F84">
-        <v>394.42258975221603</v>
+        <v>317.93639418474697</v>
       </c>
       <c r="G84">
-        <v>392.01110410865101</v>
+        <v>332.03064956048303</v>
       </c>
       <c r="H84">
-        <v>401.51819161757197</v>
+        <v>326.99123730268201</v>
       </c>
       <c r="I84">
-        <v>412.141801448889</v>
+        <v>335.52925342112701</v>
       </c>
       <c r="J84">
-        <v>417.932647860332</v>
+        <v>341.43778558113399</v>
       </c>
       <c r="K84">
-        <v>415.88133630112901</v>
+        <v>320.25310837079098</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>421.03519973109098</v>
+        <v>285.15856282451603</v>
       </c>
       <c r="B85">
-        <v>426.50857267433798</v>
+        <v>312.01698983988501</v>
       </c>
       <c r="C85">
-        <v>429.61770582644903</v>
+        <v>311.787844693377</v>
       </c>
       <c r="D85">
-        <v>428.41297080898198</v>
+        <v>326.32525353985301</v>
       </c>
       <c r="E85">
-        <v>421.5</v>
+        <v>338.77797168768802</v>
       </c>
       <c r="F85">
-        <v>409.42258975221603</v>
+        <v>336.91448470693098</v>
       </c>
       <c r="G85">
-        <v>395.11770582644903</v>
+        <v>322.71048906829299</v>
       </c>
       <c r="H85">
-        <v>388.52781056080499</v>
+        <v>332.25718025390699</v>
       </c>
       <c r="I85">
-        <v>386.53519973109098</v>
+        <v>329.01967277918101</v>
       </c>
       <c r="J85">
-        <v>389.94226680356502</v>
+        <v>313.75326712179299</v>
       </c>
       <c r="K85">
-        <v>397.774734583331</v>
+        <v>341.65806968327001</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>427.68877363831501</v>
+        <v>276.68705560882802</v>
       </c>
       <c r="B86">
-        <v>429.682011746071</v>
+        <v>293.12962290359297</v>
       </c>
       <c r="C86">
-        <v>425.49365756408099</v>
+        <v>297.60648639653499</v>
       </c>
       <c r="D86">
-        <v>416.58906715674499</v>
+        <v>315.22588093829398</v>
       </c>
       <c r="E86">
-        <v>406.92893218813498</v>
+        <v>311.19472397613902</v>
       </c>
       <c r="F86">
-        <v>400.58906715674499</v>
+        <v>310.50439495104399</v>
       </c>
       <c r="G86">
-        <v>399.35152194034998</v>
+        <v>323.47089313565999</v>
       </c>
       <c r="H86">
-        <v>407.682011746071</v>
+        <v>332.14062510577702</v>
       </c>
       <c r="I86">
-        <v>415.68877363831501</v>
+        <v>329.58933460685199</v>
       </c>
       <c r="J86">
-        <v>419.49027682898901</v>
+        <v>356.28409662285299</v>
       </c>
       <c r="K86">
-        <v>417.58925942943699</v>
+        <v>352.02757582299603</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>425.61770582644903</v>
+        <v>275.263945691446</v>
       </c>
       <c r="B87">
-        <v>428.34226578391502</v>
+        <v>307.091251223293</v>
       </c>
       <c r="C87">
-        <v>428.42258975221603</v>
+        <v>304.58688242480503</v>
       </c>
       <c r="D87">
-        <v>425.24932119458998</v>
+        <v>319.94664059138103</v>
       </c>
       <c r="E87">
-        <v>419</v>
+        <v>332.92433892834401</v>
       </c>
       <c r="F87">
-        <v>410.58906715674499</v>
+        <v>316.41494062522298</v>
       </c>
       <c r="G87">
-        <v>401.42258975221603</v>
+        <v>321.92185604754701</v>
       </c>
       <c r="H87">
-        <v>399.02175770822703</v>
+        <v>335.21570714122299</v>
       </c>
       <c r="I87">
-        <v>398.61770582644903</v>
+        <v>327.19944848460301</v>
       </c>
       <c r="J87">
-        <v>400.83002279114498</v>
+        <v>335.88197809179098</v>
       </c>
       <c r="K87">
-        <v>405.51819161757197</v>
+        <v>311.98144324123001</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>431.22430754424801</v>
+        <v>363.61356400375502</v>
       </c>
       <c r="B88">
-        <v>434.682011746071</v>
+        <v>322.794086693861</v>
       </c>
       <c r="C88">
-        <v>429.02919147001398</v>
+        <v>325.70310738033299</v>
       </c>
       <c r="D88">
-        <v>416.58906715674499</v>
+        <v>308.616029861816</v>
       </c>
       <c r="E88">
-        <v>403.39339828220199</v>
+        <v>306.49978423929099</v>
       </c>
       <c r="F88">
-        <v>395.58906715674499</v>
+        <v>299.52255580949702</v>
       </c>
       <c r="G88">
-        <v>395.81598803441699</v>
+        <v>300.08289451335799</v>
       </c>
       <c r="H88">
-        <v>407.682011746071</v>
+        <v>299.90329972799299</v>
       </c>
       <c r="I88">
-        <v>419.22430754424801</v>
+        <v>314.548532247136</v>
       </c>
       <c r="J88">
-        <v>424.49027682898901</v>
+        <v>337.81377847314798</v>
       </c>
       <c r="K88">
-        <v>421.12479333536999</v>
+        <v>351.40433900688498</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>428.11770582644903</v>
+        <v>368.47561381041299</v>
       </c>
       <c r="B89">
-        <v>432.67239280283798</v>
+        <v>326.85827806676298</v>
       </c>
       <c r="C89">
-        <v>433.42258975221603</v>
+        <v>331.85655977740498</v>
       </c>
       <c r="D89">
-        <v>429.57944821351202</v>
+        <v>318.72169074940501</v>
       </c>
       <c r="E89">
-        <v>421.5</v>
+        <v>319.982577224328</v>
       </c>
       <c r="F89">
-        <v>410.58906715674499</v>
+        <v>327.28712139203702</v>
       </c>
       <c r="G89">
-        <v>398.92258975221603</v>
+        <v>322.95541247439502</v>
       </c>
       <c r="H89">
-        <v>394.69163068930499</v>
+        <v>314.75981061428502</v>
       </c>
       <c r="I89">
-        <v>393.61770582644903</v>
+        <v>321.542599455492</v>
       </c>
       <c r="J89">
-        <v>396.499895772223</v>
+        <v>317.59554122480898</v>
       </c>
       <c r="K89">
-        <v>403.01819161757197</v>
+        <v>336.71521287645101</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>418.34580239519698</v>
+        <v>354.501262672618</v>
       </c>
       <c r="B90">
-        <v>418.932647860332</v>
+        <v>333.37556467877801</v>
       </c>
       <c r="C90">
-        <v>414.606267542956</v>
+        <v>339.11545067801597</v>
       </c>
       <c r="D90">
-        <v>407.51819161757197</v>
+        <v>334.14799413931797</v>
       </c>
       <c r="E90">
-        <v>401.546638014584</v>
+        <v>323.23885966117001</v>
       </c>
       <c r="F90">
-        <v>399.42258975221603</v>
+        <v>326.71847964126403</v>
       </c>
       <c r="G90">
-        <v>400.92893218813498</v>
+        <v>323.83476306685702</v>
       </c>
       <c r="H90">
-        <v>409.42258975221603</v>
+        <v>325.77325409115502</v>
       </c>
       <c r="I90">
-        <v>415.68877363831501</v>
+        <v>317.04230119185598</v>
       </c>
       <c r="J90">
-        <v>417.51819161757197</v>
+        <v>325.57788236194398</v>
       </c>
       <c r="K90">
-        <v>414.606267542956</v>
+        <v>286.00921548263602</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>416.274734583331</v>
+        <v>326.324276262007</v>
       </c>
       <c r="B91">
-        <v>417.59290189817602</v>
+        <v>325.07731809162698</v>
       </c>
       <c r="C91">
-        <v>417.53519973109098</v>
+        <v>328.61424301603699</v>
       </c>
       <c r="D91">
-        <v>416.178445655416</v>
+        <v>321.22218599847201</v>
       </c>
       <c r="E91">
-        <v>413.61770582644903</v>
+        <v>316.05728145673697</v>
       </c>
       <c r="F91">
-        <v>409.42258975221603</v>
+        <v>323.191010209784</v>
       </c>
       <c r="G91">
-        <v>403</v>
+        <v>330.85445079767902</v>
       </c>
       <c r="H91">
-        <v>400.76233571437098</v>
+        <v>326.30945656456998</v>
       </c>
       <c r="I91">
-        <v>398.61770582644903</v>
+        <v>338.799577335008</v>
       </c>
       <c r="J91">
-        <v>398.85793757972698</v>
+        <v>345.08202920186699</v>
       </c>
       <c r="K91">
-        <v>402.53519973109098</v>
+        <v>351.81459502637</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>421.88133630112901</v>
+        <v>299.78980583809698</v>
       </c>
       <c r="B92">
-        <v>423.932647860332</v>
+        <v>321.213109773751</v>
       </c>
       <c r="C92">
-        <v>418.141801448889</v>
+        <v>309.50854379170403</v>
       </c>
       <c r="D92">
-        <v>407.51819161757197</v>
+        <v>307.263516087928</v>
       </c>
       <c r="E92">
-        <v>398.01110410865101</v>
+        <v>316.395023152862</v>
       </c>
       <c r="F92">
-        <v>394.42258975221603</v>
+        <v>308.42206650517898</v>
       </c>
       <c r="G92">
-        <v>397.39339828220199</v>
+        <v>312.25579833418902</v>
       </c>
       <c r="H92">
-        <v>409.42258975221603</v>
+        <v>317.88027148869401</v>
       </c>
       <c r="I92">
-        <v>419.22430754424801</v>
+        <v>320.85569965546398</v>
       </c>
       <c r="J92">
-        <v>422.51819161757197</v>
+        <v>311.54540756930299</v>
       </c>
       <c r="K92">
-        <v>418.141801448889</v>
+        <v>303.44180815306498</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>418.774734583331</v>
+        <v>344.14256288551201</v>
       </c>
       <c r="B93">
-        <v>421.92302891709801</v>
+        <v>333.30016584505103</v>
       </c>
       <c r="C93">
-        <v>422.53519973109098</v>
+        <v>321.17784960983698</v>
       </c>
       <c r="D93">
-        <v>420.50857267433798</v>
+        <v>310.37080612823598</v>
       </c>
       <c r="E93">
-        <v>416.11770582644903</v>
+        <v>312.56392791156401</v>
       </c>
       <c r="F93">
-        <v>409.42258975221603</v>
+        <v>305.56517332757699</v>
       </c>
       <c r="G93">
-        <v>400.5</v>
+        <v>303.24047824496398</v>
       </c>
       <c r="H93">
-        <v>396.43220869544899</v>
+        <v>300.62103737811799</v>
       </c>
       <c r="I93">
-        <v>393.61770582644903</v>
+        <v>313.94354020584899</v>
       </c>
       <c r="J93">
-        <v>394.52781056080499</v>
+        <v>312.66264346096699</v>
       </c>
       <c r="K93">
-        <v>400.03519973109098</v>
+        <v>356.71985961616002</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>423.58925942943699</v>
+        <v>348.29608779874502</v>
       </c>
       <c r="B94">
-        <v>425.49027682898901</v>
+        <v>330.237754951287</v>
       </c>
       <c r="C94">
-        <v>421.68877363831501</v>
+        <v>322.92689799240202</v>
       </c>
       <c r="D94">
-        <v>413.682011746071</v>
+        <v>313.03209541858502</v>
       </c>
       <c r="E94">
-        <v>405.35152194034998</v>
+        <v>314.382996246917</v>
       </c>
       <c r="F94">
-        <v>400.58906715674499</v>
+        <v>303.10180375611401</v>
       </c>
       <c r="G94">
-        <v>400.92893218813498</v>
+        <v>297.821724341932</v>
       </c>
       <c r="H94">
-        <v>410.58906715674499</v>
+        <v>295.88125747971702</v>
       </c>
       <c r="I94">
-        <v>419.49365756408099</v>
+        <v>294.885613372134</v>
       </c>
       <c r="J94">
-        <v>423.682011746071</v>
+        <v>293.88744937263601</v>
       </c>
       <c r="K94">
-        <v>421.68877363831501</v>
+        <v>293.84385439174702</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>421.51819161757197</v>
+        <v>347.32060060926898</v>
       </c>
       <c r="B95">
-        <v>424.150530866834</v>
+        <v>316.66444480820098</v>
       </c>
       <c r="C95">
-        <v>424.61770582644903</v>
+        <v>312.17865423739801</v>
       </c>
       <c r="D95">
-        <v>422.34226578391502</v>
+        <v>312.41803904821597</v>
       </c>
       <c r="E95">
-        <v>417.42258975221603</v>
+        <v>320.03434308413102</v>
       </c>
       <c r="F95">
-        <v>410.58906715674499</v>
+        <v>336.03930984927399</v>
       </c>
       <c r="G95">
-        <v>403</v>
+        <v>332.48600617009299</v>
       </c>
       <c r="H95">
-        <v>401.92881311890102</v>
+        <v>336.21873656211</v>
       </c>
       <c r="I95">
-        <v>402.42258975221603</v>
+        <v>321.56352223184098</v>
       </c>
       <c r="J95">
-        <v>405.02175770822703</v>
+        <v>295.67950777952802</v>
       </c>
       <c r="K95">
-        <v>409.61770582644903</v>
+        <v>275.24145301201401</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>427.12479333536999</v>
+        <v>350.65498960720902</v>
       </c>
       <c r="B96">
-        <v>430.49027682898901</v>
+        <v>333.01974628205602</v>
       </c>
       <c r="C96">
-        <v>425.22430754424801</v>
+        <v>336.06331921341598</v>
       </c>
       <c r="D96">
-        <v>413.682011746071</v>
+        <v>334.46916497366601</v>
       </c>
       <c r="E96">
-        <v>401.81598803441699</v>
+        <v>335.50108240097597</v>
       </c>
       <c r="F96">
-        <v>395.58906715674499</v>
+        <v>331.90419403556598</v>
       </c>
       <c r="G96">
-        <v>397.39339828220199</v>
+        <v>317.30831557785899</v>
       </c>
       <c r="H96">
-        <v>410.58906715674499</v>
+        <v>313.08258664564801</v>
       </c>
       <c r="I96">
-        <v>423.02919147001398</v>
+        <v>312.03411192434299</v>
       </c>
       <c r="J96">
-        <v>428.682011746071</v>
+        <v>308.19705502441798</v>
       </c>
       <c r="K96">
-        <v>425.22430754424801</v>
+        <v>337.44184480193297</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>424.01819161757197</v>
+        <v>274.26751817144998</v>
       </c>
       <c r="B97">
-        <v>428.48065788575599</v>
+        <v>287.56868444617402</v>
       </c>
       <c r="C97">
-        <v>429.61770582644903</v>
+        <v>295.10295274859999</v>
       </c>
       <c r="D97">
-        <v>426.67239280283798</v>
+        <v>299.73301681468598</v>
       </c>
       <c r="E97">
-        <v>419.92258975221603</v>
+        <v>307.71274334655698</v>
       </c>
       <c r="F97">
-        <v>410.58906715674499</v>
+        <v>300.40441326010603</v>
       </c>
       <c r="G97">
-        <v>400.5</v>
+        <v>312.89884889639399</v>
       </c>
       <c r="H97">
-        <v>397.59868609997898</v>
+        <v>306.74826485196098</v>
       </c>
       <c r="I97">
-        <v>397.42258975221603</v>
+        <v>312.54429280789401</v>
       </c>
       <c r="J97">
-        <v>400.69163068930499</v>
+        <v>323.64198221509997</v>
       </c>
       <c r="K97">
-        <v>407.11770582644903</v>
+        <v>326.39797828154701</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>419.76120096592598</v>
+        <v>325.37245919997503</v>
       </c>
       <c r="B98">
-        <v>418.67879441171402</v>
+        <v>301.07119497804803</v>
       </c>
       <c r="C98">
-        <v>412.48287169616498</v>
+        <v>306.00683082430203</v>
       </c>
       <c r="D98">
-        <v>401.94839316814398</v>
+        <v>311.00469223314502</v>
       </c>
       <c r="E98">
-        <v>401.92893218813498</v>
+        <v>326.33060871121899</v>
       </c>
       <c r="F98">
-        <v>403.94839316814398</v>
+        <v>340.61075373612999</v>
       </c>
       <c r="G98">
-        <v>410.34073607243403</v>
+        <v>335.30569033738499</v>
       </c>
       <c r="H98">
-        <v>420.67879441171402</v>
+        <v>330.565685911907</v>
       </c>
       <c r="I98">
-        <v>431.76120096592598</v>
+        <v>317.27578913450498</v>
       </c>
       <c r="J98">
-        <v>439.62176524022101</v>
+        <v>286.83583747447801</v>
       </c>
       <c r="K98">
-        <v>442.25422420075301</v>
+        <v>283.91228235718103</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>417.69013315406102</v>
+        <v>318.44690652148199</v>
       </c>
       <c r="B99">
-        <v>417.33904844955902</v>
+        <v>304.33208943627102</v>
       </c>
       <c r="C99">
-        <v>415.41180388430001</v>
+        <v>310.80992585156997</v>
       </c>
       <c r="D99">
-        <v>410.60864720598801</v>
+        <v>314.85397765398801</v>
       </c>
       <c r="E99">
-        <v>414</v>
+        <v>330.40400497791001</v>
       </c>
       <c r="F99">
-        <v>413.94839316814398</v>
+        <v>333.211783669027</v>
       </c>
       <c r="G99">
-        <v>412.41180388430001</v>
+        <v>343.11588548450902</v>
       </c>
       <c r="H99">
-        <v>412.01854037387</v>
+        <v>334.69777495961802</v>
       </c>
       <c r="I99">
-        <v>414.69013315406102</v>
+        <v>329.389014084488</v>
       </c>
       <c r="J99">
-        <v>420.96151120237698</v>
+        <v>320.20222618664002</v>
       </c>
       <c r="K99">
-        <v>430.18315638888703</v>
+        <v>312.123361157923</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>423.29673487185897</v>
+        <v>329.21071457214998</v>
       </c>
       <c r="B100">
-        <v>423.67879441171402</v>
+        <v>325.105489513728</v>
       </c>
       <c r="C100">
-        <v>416.01840560209803</v>
+        <v>323.72068737853499</v>
       </c>
       <c r="D100">
-        <v>401.94839316814398</v>
+        <v>326.35790658716599</v>
       </c>
       <c r="E100">
-        <v>398.39339828220199</v>
+        <v>324.30691873347899</v>
       </c>
       <c r="F100">
-        <v>398.94839316814398</v>
+        <v>338.86990617038401</v>
       </c>
       <c r="G100">
-        <v>406.80520216650098</v>
+        <v>356.74020545427101</v>
       </c>
       <c r="H100">
-        <v>420.67879441171402</v>
+        <v>346.226515621072</v>
       </c>
       <c r="I100">
-        <v>435.29673487185897</v>
+        <v>340.768579922941</v>
       </c>
       <c r="J100">
-        <v>444.62176524022101</v>
+        <v>331.725715909862</v>
       </c>
       <c r="K100">
-        <v>445.78975810668601</v>
+        <v>315.107132124651</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>420.19013315406102</v>
+        <v>299.08065399973702</v>
       </c>
       <c r="B101">
-        <v>421.669175468481</v>
+        <v>298.59551297224198</v>
       </c>
       <c r="C101">
-        <v>420.41180388430001</v>
+        <v>312.53086681300999</v>
       </c>
       <c r="D101">
-        <v>414.93877422490999</v>
+        <v>311.19493673119899</v>
       </c>
       <c r="E101">
-        <v>416.5</v>
+        <v>306.88711386041098</v>
       </c>
       <c r="F101">
-        <v>413.94839316814398</v>
+        <v>325.69711214453702</v>
       </c>
       <c r="G101">
-        <v>409.91180388430001</v>
+        <v>320.949468549134</v>
       </c>
       <c r="H101">
-        <v>407.68841335494801</v>
+        <v>319.93312923961003</v>
       </c>
       <c r="I101">
-        <v>409.69013315406102</v>
+        <v>322.19751887732201</v>
       </c>
       <c r="J101">
-        <v>416.631384183455</v>
+        <v>313.92361080097697</v>
       </c>
       <c r="K101">
-        <v>427.68315638888703</v>
+        <v>303.72295177924099</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>424.48287169616498</v>
+        <v>317.283550066354</v>
       </c>
       <c r="B102">
-        <v>422.78800783071398</v>
+        <v>328.32582554908601</v>
       </c>
       <c r="C102">
-        <v>415.019460980009</v>
+        <v>329.19593930940999</v>
       </c>
       <c r="D102">
-        <v>402.726044771163</v>
+        <v>333.487801672111</v>
       </c>
       <c r="E102">
-        <v>401.92893218813498</v>
+        <v>315.77597202268902</v>
       </c>
       <c r="F102">
-        <v>404.726044771163</v>
+        <v>311.02065692372599</v>
       </c>
       <c r="G102">
-        <v>412.87732535627799</v>
+        <v>308.52488902033298</v>
       </c>
       <c r="H102">
-        <v>424.78800783071398</v>
+        <v>298.24754436374701</v>
       </c>
       <c r="I102">
-        <v>436.48287169616498</v>
+        <v>287.348193435317</v>
       </c>
       <c r="J102">
-        <v>443.99351788599301</v>
+        <v>293.79425477920398</v>
       </c>
       <c r="K102">
-        <v>445.74986222358001</v>
+        <v>284.24610723771599</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>422.41180388430001</v>
+        <v>322.47837311607299</v>
       </c>
       <c r="B103">
-        <v>421.44826186855801</v>
+        <v>323.071029922702</v>
       </c>
       <c r="C103">
-        <v>417.94839316814398</v>
+        <v>322.96949430547897</v>
       </c>
       <c r="D103">
-        <v>411.386298809008</v>
+        <v>314.75998192701201</v>
       </c>
       <c r="E103">
-        <v>414</v>
+        <v>321.37496836369502</v>
       </c>
       <c r="F103">
-        <v>414.726044771163</v>
+        <v>320.83912328555402</v>
       </c>
       <c r="G103">
-        <v>414.94839316814398</v>
+        <v>309.94993684571602</v>
       </c>
       <c r="H103">
-        <v>416.12775379287001</v>
+        <v>311.08246251226598</v>
       </c>
       <c r="I103">
-        <v>419.41180388430001</v>
+        <v>322.50115013642898</v>
       </c>
       <c r="J103">
-        <v>425.33326384814802</v>
+        <v>311.79177574580098</v>
       </c>
       <c r="K103">
-        <v>433.67879441171402</v>
+        <v>338.52424934455399</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>428.01840560209803</v>
+        <v>299.08962210216498</v>
       </c>
       <c r="B104">
-        <v>427.78800783071398</v>
+        <v>300.17999217332999</v>
       </c>
       <c r="C104">
-        <v>418.55499488594199</v>
+        <v>327.20790297447201</v>
       </c>
       <c r="D104">
-        <v>402.726044771163</v>
+        <v>332.44504689638802</v>
       </c>
       <c r="E104">
-        <v>398.39339828220199</v>
+        <v>334.58502033981699</v>
       </c>
       <c r="F104">
-        <v>399.726044771163</v>
+        <v>350.815509355877</v>
       </c>
       <c r="G104">
-        <v>409.341791450345</v>
+        <v>349.07126091689298</v>
       </c>
       <c r="H104">
-        <v>424.78800783071398</v>
+        <v>331.50791448302101</v>
       </c>
       <c r="I104">
-        <v>440.01840560209803</v>
+        <v>322.47823543420901</v>
       </c>
       <c r="J104">
-        <v>448.99351788599301</v>
+        <v>306.362836818593</v>
       </c>
       <c r="K104">
-        <v>449.285396129513</v>
+        <v>280.12694646768301</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>424.91180388430001</v>
+        <v>292.54050826534399</v>
       </c>
       <c r="B105">
-        <v>425.77838888748101</v>
+        <v>315.77790232838601</v>
       </c>
       <c r="C105">
-        <v>422.94839316814398</v>
+        <v>308.09167451901902</v>
       </c>
       <c r="D105">
-        <v>415.71642582792998</v>
+        <v>318.90757736110498</v>
       </c>
       <c r="E105">
-        <v>416.5</v>
+        <v>316.196745539223</v>
       </c>
       <c r="F105">
-        <v>414.726044771163</v>
+        <v>315.58067956884503</v>
       </c>
       <c r="G105">
-        <v>412.44839316814398</v>
+        <v>324.55484407661697</v>
       </c>
       <c r="H105">
-        <v>411.797626773947</v>
+        <v>340.19673313115601</v>
       </c>
       <c r="I105">
-        <v>414.41180388430001</v>
+        <v>328.59182180925399</v>
       </c>
       <c r="J105">
-        <v>421.00313682922598</v>
+        <v>334.93346642925297</v>
       </c>
       <c r="K105">
-        <v>431.17879441171402</v>
+        <v>288.59546586626601</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>418.25422420075301</v>
+        <v>320.43878963267599</v>
       </c>
       <c r="B106">
-        <v>415.62176524022101</v>
+        <v>318.91944214861098</v>
       </c>
       <c r="C106">
-        <v>407.76120096592598</v>
+        <v>330.184071001988</v>
       </c>
       <c r="D106">
-        <v>396.67879441171402</v>
+        <v>322.32353815281601</v>
       </c>
       <c r="E106">
-        <v>398.34073607243403</v>
+        <v>313.01406351861198</v>
       </c>
       <c r="F106">
-        <v>403.94839316814398</v>
+        <v>324.26654653411703</v>
       </c>
       <c r="G106">
-        <v>413.92893218813498</v>
+        <v>333.52334313061999</v>
       </c>
       <c r="H106">
-        <v>425.94839316814398</v>
+        <v>329.32338211583198</v>
       </c>
       <c r="I106">
-        <v>436.48287169616498</v>
+        <v>329.18132193143299</v>
       </c>
       <c r="J106">
-        <v>442.67879441171402</v>
+        <v>333.29067697916599</v>
       </c>
       <c r="K106">
-        <v>443.76120096592598</v>
+        <v>280.42582446482101</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>416.18315638888703</v>
+        <v>314.75895571868102</v>
       </c>
       <c r="B107">
-        <v>414.282019278066</v>
+        <v>331.78413129681701</v>
       </c>
       <c r="C107">
-        <v>410.69013315406102</v>
+        <v>327.36008790399399</v>
       </c>
       <c r="D107">
-        <v>405.33904844955902</v>
+        <v>328.47352406718102</v>
       </c>
       <c r="E107">
-        <v>410.41180388430001</v>
+        <v>339.252013789106</v>
       </c>
       <c r="F107">
-        <v>413.94839316814398</v>
+        <v>322.391370127676</v>
       </c>
       <c r="G107">
-        <v>416</v>
+        <v>308.52497151964201</v>
       </c>
       <c r="H107">
-        <v>417.28813913029899</v>
+        <v>310.84558225068201</v>
       </c>
       <c r="I107">
-        <v>419.41180388430001</v>
+        <v>315.44195274497901</v>
       </c>
       <c r="J107">
-        <v>424.01854037387</v>
+        <v>309.00903175021602</v>
       </c>
       <c r="K107">
-        <v>431.69013315406102</v>
+        <v>343.30798900609898</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>421.78975810668601</v>
+        <v>306.00469657074302</v>
       </c>
       <c r="B108">
-        <v>420.62176524022101</v>
+        <v>294.82798877764299</v>
       </c>
       <c r="C108">
-        <v>411.29673487185897</v>
+        <v>318.862493082713</v>
       </c>
       <c r="D108">
-        <v>396.67879441171402</v>
+        <v>315.97497170271703</v>
       </c>
       <c r="E108">
-        <v>394.80520216650098</v>
+        <v>321.802349827596</v>
       </c>
       <c r="F108">
-        <v>398.94839316814398</v>
+        <v>322.56863523043</v>
       </c>
       <c r="G108">
-        <v>410.39339828220199</v>
+        <v>317.540633360463</v>
       </c>
       <c r="H108">
-        <v>425.94839316814398</v>
+        <v>315.13468525695498</v>
       </c>
       <c r="I108">
-        <v>440.01840560209803</v>
+        <v>312.95006796308297</v>
       </c>
       <c r="J108">
-        <v>447.67879441171402</v>
+        <v>317.76758413822199</v>
       </c>
       <c r="K108">
-        <v>447.29673487185897</v>
+        <v>280.64400320140697</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>418.68315638888703</v>
+        <v>312.26818230369298</v>
       </c>
       <c r="B109">
-        <v>418.61214629698799</v>
+        <v>325.34712551230598</v>
       </c>
       <c r="C109">
-        <v>415.69013315406102</v>
+        <v>317.41109789267603</v>
       </c>
       <c r="D109">
-        <v>409.669175468481</v>
+        <v>311.47634950942</v>
       </c>
       <c r="E109">
-        <v>412.91180388430001</v>
+        <v>319.74396623789801</v>
       </c>
       <c r="F109">
-        <v>413.94839316814398</v>
+        <v>310.742926112958</v>
       </c>
       <c r="G109">
-        <v>413.5</v>
+        <v>308.88337774597898</v>
       </c>
       <c r="H109">
-        <v>412.958012111377</v>
+        <v>317.72625819026598</v>
       </c>
       <c r="I109">
-        <v>414.41180388430001</v>
+        <v>334.79335983563902</v>
       </c>
       <c r="J109">
-        <v>419.68841335494801</v>
+        <v>337.95357397575998</v>
       </c>
       <c r="K109">
-        <v>429.19013315406102</v>
+        <v>367.929948614279</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>421.74986222358001</v>
+        <v>369.57186240604301</v>
       </c>
       <c r="B110">
-        <v>419.99351788599301</v>
+        <v>339.13510010242999</v>
       </c>
       <c r="C110">
-        <v>412.48287169616498</v>
+        <v>337.564994220004</v>
       </c>
       <c r="D110">
-        <v>400.78800783071398</v>
+        <v>320.758040260558</v>
       </c>
       <c r="E110">
-        <v>400.87732535627799</v>
+        <v>311.85127024586598</v>
       </c>
       <c r="F110">
-        <v>404.726044771163</v>
+        <v>309.40215776680702</v>
       </c>
       <c r="G110">
-        <v>413.92893218813498</v>
+        <v>311.92282766806898</v>
       </c>
       <c r="H110">
-        <v>426.726044771163</v>
+        <v>322.23647701997902</v>
       </c>
       <c r="I110">
-        <v>439.019460980009</v>
+        <v>333.69060783894099</v>
       </c>
       <c r="J110">
-        <v>446.78800783071398</v>
+        <v>359.13300458740503</v>
       </c>
       <c r="K110">
-        <v>448.48287169616498</v>
+        <v>342.80774670362598</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>419.67879441171402</v>
+        <v>297.596059268396</v>
       </c>
       <c r="B111">
-        <v>418.65377192383698</v>
+        <v>306.71016002265901</v>
       </c>
       <c r="C111">
-        <v>415.41180388430001</v>
+        <v>325.88886644098898</v>
       </c>
       <c r="D111">
-        <v>409.44826186855801</v>
+        <v>323.23340804946002</v>
       </c>
       <c r="E111">
-        <v>412.94839316814398</v>
+        <v>311.37997346708102</v>
       </c>
       <c r="F111">
-        <v>414.726044771163</v>
+        <v>310.29896004317601</v>
       </c>
       <c r="G111">
-        <v>416</v>
+        <v>302.37125080519098</v>
       </c>
       <c r="H111">
-        <v>418.06579073331898</v>
+        <v>305.86802926655201</v>
       </c>
       <c r="I111">
-        <v>421.94839316814398</v>
+        <v>318.97122524341597</v>
       </c>
       <c r="J111">
-        <v>428.12775379287001</v>
+        <v>345.66464848297198</v>
       </c>
       <c r="K111">
-        <v>436.41180388430001</v>
+        <v>349.83474719506302</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>425.285396129513</v>
+        <v>372.96196204840498</v>
       </c>
       <c r="B112">
-        <v>424.99351788599301</v>
+        <v>338.73209091940703</v>
       </c>
       <c r="C112">
-        <v>416.01840560209803</v>
+        <v>317.48636597864203</v>
       </c>
       <c r="D112">
-        <v>400.78800783071398</v>
+        <v>311.07940160366797</v>
       </c>
       <c r="E112">
-        <v>397.34179145034602</v>
+        <v>307.55745326480502</v>
       </c>
       <c r="F112">
-        <v>399.726044771163</v>
+        <v>303.53834851421101</v>
       </c>
       <c r="G112">
-        <v>410.39339828220199</v>
+        <v>314.05500027443401</v>
       </c>
       <c r="H112">
-        <v>426.726044771163</v>
+        <v>321.11832142462202</v>
       </c>
       <c r="I112">
-        <v>442.55499488594199</v>
+        <v>323.76502656898401</v>
       </c>
       <c r="J112">
-        <v>451.78800783071398</v>
+        <v>337.76536252746399</v>
       </c>
       <c r="K112">
-        <v>452.01840560209803</v>
+        <v>354.16066589534699</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>422.17879441171402</v>
+        <v>320.22100672017098</v>
       </c>
       <c r="B113">
-        <v>422.98389894275903</v>
+        <v>348.13886428598602</v>
       </c>
       <c r="C113">
-        <v>420.41180388430001</v>
+        <v>339.09880800378897</v>
       </c>
       <c r="D113">
-        <v>413.77838888748101</v>
+        <v>343.246310312042</v>
       </c>
       <c r="E113">
-        <v>415.44839316814398</v>
+        <v>338.51060189590299</v>
       </c>
       <c r="F113">
-        <v>414.726044771163</v>
+        <v>325.02211687229101</v>
       </c>
       <c r="G113">
-        <v>413.5</v>
+        <v>324.03042374127602</v>
       </c>
       <c r="H113">
-        <v>413.73566371439699</v>
+        <v>325.79078813859201</v>
       </c>
       <c r="I113">
-        <v>416.94839316814398</v>
+        <v>330.717609547905</v>
       </c>
       <c r="J113">
-        <v>423.797626773947</v>
+        <v>340.171142933498</v>
       </c>
       <c r="K113">
-        <v>433.91180388430001</v>
+        <v>365.59262530799998</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>420.606267542956</v>
+        <v>289.61491833220401</v>
       </c>
       <c r="B114">
-        <v>420.51819161757197</v>
+        <v>316.484244758606</v>
       </c>
       <c r="C114">
-        <v>415.68877363831501</v>
+        <v>313.06609233103597</v>
       </c>
       <c r="D114">
-        <v>406.42258975221603</v>
+        <v>320.09589757661098</v>
       </c>
       <c r="E114">
-        <v>406.92893218813498</v>
+        <v>304.43044934595599</v>
       </c>
       <c r="F114">
-        <v>408.42258975221603</v>
+        <v>306.35058430033001</v>
       </c>
       <c r="G114">
-        <v>413.546638014584</v>
+        <v>308.35301777673402</v>
       </c>
       <c r="H114">
-        <v>422.51819161757197</v>
+        <v>306.383815515094</v>
       </c>
       <c r="I114">
-        <v>432.606267542956</v>
+        <v>309.06680947917903</v>
       </c>
       <c r="J114">
-        <v>439.932647860332</v>
+        <v>318.07426594456098</v>
       </c>
       <c r="K114">
-        <v>442.34580239519698</v>
+        <v>338.17891438050202</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>418.53519973109098</v>
+        <v>362.26724612504</v>
       </c>
       <c r="B115">
-        <v>419.178445655416</v>
+        <v>346.66093193402003</v>
       </c>
       <c r="C115">
-        <v>418.61770582644903</v>
+        <v>341.169537486374</v>
       </c>
       <c r="D115">
-        <v>415.08284379006</v>
+        <v>335.44911615875799</v>
       </c>
       <c r="E115">
-        <v>419</v>
+        <v>340.44958795736801</v>
       </c>
       <c r="F115">
-        <v>418.42258975221603</v>
+        <v>327.78026798892398</v>
       </c>
       <c r="G115">
-        <v>415.61770582644903</v>
+        <v>321.85219121283399</v>
       </c>
       <c r="H115">
-        <v>413.85793757972698</v>
+        <v>313.84344179232301</v>
       </c>
       <c r="I115">
-        <v>415.53519973109098</v>
+        <v>313.937036703964</v>
       </c>
       <c r="J115">
-        <v>421.272393822487</v>
+        <v>310.10462489732402</v>
       </c>
       <c r="K115">
-        <v>430.274734583331</v>
+        <v>334.133114045171</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>424.141801448889</v>
+        <v>274.70899474430303</v>
       </c>
       <c r="B116">
-        <v>425.51819161757197</v>
+        <v>300.85910960128598</v>
       </c>
       <c r="C116">
-        <v>419.22430754424801</v>
+        <v>309.42790256994499</v>
       </c>
       <c r="D116">
-        <v>406.42258975221603</v>
+        <v>323.297046146372</v>
       </c>
       <c r="E116">
-        <v>403.39339828220199</v>
+        <v>324.61726152882602</v>
       </c>
       <c r="F116">
-        <v>403.42258975221603</v>
+        <v>335.25098926685399</v>
       </c>
       <c r="G116">
-        <v>410.01110410865101</v>
+        <v>333.955239567864</v>
       </c>
       <c r="H116">
-        <v>422.51819161757197</v>
+        <v>330.93192502369601</v>
       </c>
       <c r="I116">
-        <v>436.141801448889</v>
+        <v>327.66305518036899</v>
       </c>
       <c r="J116">
-        <v>444.932647860332</v>
+        <v>316.89240874662698</v>
       </c>
       <c r="K116">
-        <v>445.88133630112901</v>
+        <v>327.71036340979902</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>421.03519973109098</v>
+        <v>358.83830809767102</v>
       </c>
       <c r="B117">
-        <v>423.50857267433798</v>
+        <v>352.958647673408</v>
       </c>
       <c r="C117">
-        <v>423.61770582644903</v>
+        <v>342.06903332304302</v>
       </c>
       <c r="D117">
-        <v>419.41297080898198</v>
+        <v>328.12143305440998</v>
       </c>
       <c r="E117">
-        <v>421.5</v>
+        <v>312.59852952806</v>
       </c>
       <c r="F117">
-        <v>418.42258975221603</v>
+        <v>311.98765362426502</v>
       </c>
       <c r="G117">
-        <v>413.11770582644903</v>
+        <v>313.78263085971997</v>
       </c>
       <c r="H117">
-        <v>409.52781056080499</v>
+        <v>315.91918034559802</v>
       </c>
       <c r="I117">
-        <v>410.53519973109098</v>
+        <v>313.97122896113501</v>
       </c>
       <c r="J117">
-        <v>416.94226680356502</v>
+        <v>316.82913567794901</v>
       </c>
       <c r="K117">
-        <v>427.774734583331</v>
+        <v>279.36054983219401</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>427.68877363831501</v>
+        <v>279.34514819551401</v>
       </c>
       <c r="B118">
-        <v>426.682011746071</v>
+        <v>308.85204621099302</v>
       </c>
       <c r="C118">
-        <v>419.49365756408099</v>
+        <v>304.87559334436901</v>
       </c>
       <c r="D118">
-        <v>407.58906715674499</v>
+        <v>311.75983469932299</v>
       </c>
       <c r="E118">
-        <v>406.92893218813498</v>
+        <v>301.94074901155898</v>
       </c>
       <c r="F118">
-        <v>409.58906715674499</v>
+        <v>313.71781809848801</v>
       </c>
       <c r="G118">
-        <v>417.35152194034998</v>
+        <v>319.05953940833001</v>
       </c>
       <c r="H118">
-        <v>428.682011746071</v>
+        <v>326.78016117219198</v>
       </c>
       <c r="I118">
-        <v>439.68877363831501</v>
+        <v>321.03672395537001</v>
       </c>
       <c r="J118">
-        <v>446.49027682898901</v>
+        <v>316.06090411451999</v>
       </c>
       <c r="K118">
-        <v>447.58925942943699</v>
+        <v>285.04916888617402</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>425.61770582644903</v>
+        <v>348.07678083851903</v>
       </c>
       <c r="B119">
-        <v>425.34226578391502</v>
+        <v>359.09185756365798</v>
       </c>
       <c r="C119">
-        <v>422.42258975221603</v>
+        <v>345.72359301813702</v>
       </c>
       <c r="D119">
-        <v>416.24932119458998</v>
+        <v>336.46286512920801</v>
       </c>
       <c r="E119">
-        <v>419</v>
+        <v>334.18387994245501</v>
       </c>
       <c r="F119">
-        <v>419.58906715674499</v>
+        <v>326.10037249084701</v>
       </c>
       <c r="G119">
-        <v>419.42258975221603</v>
+        <v>328.44823427550301</v>
       </c>
       <c r="H119">
-        <v>420.02175770822703</v>
+        <v>330.59689316372101</v>
       </c>
       <c r="I119">
-        <v>422.61770582644903</v>
+        <v>332.00583726017499</v>
       </c>
       <c r="J119">
-        <v>427.83002279114498</v>
+        <v>327.54761921340997</v>
       </c>
       <c r="K119">
-        <v>435.51819161757197</v>
+        <v>308.81786187614802</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>431.22430754424801</v>
+        <v>347.00069692688197</v>
       </c>
       <c r="B120">
-        <v>431.682011746071</v>
+        <v>334.93580641776799</v>
       </c>
       <c r="C120">
-        <v>423.02919147001398</v>
+        <v>313.30332214087701</v>
       </c>
       <c r="D120">
-        <v>407.58906715674499</v>
+        <v>302.45349625637402</v>
       </c>
       <c r="E120">
-        <v>403.39339828220199</v>
+        <v>309.457254312869</v>
       </c>
       <c r="F120">
-        <v>404.58906715674499</v>
+        <v>311.49852306353301</v>
       </c>
       <c r="G120">
-        <v>413.81598803441699</v>
+        <v>322.16829558970602</v>
       </c>
       <c r="H120">
-        <v>428.682011746071</v>
+        <v>321.53652742092697</v>
       </c>
       <c r="I120">
-        <v>443.22430754424801</v>
+        <v>327.743125366583</v>
       </c>
       <c r="J120">
-        <v>451.49027682898901</v>
+        <v>311.89459015689999</v>
       </c>
       <c r="K120">
-        <v>451.12479333536999</v>
+        <v>323.78455723265103</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>428.11770582644903</v>
+        <v>303.09566193585499</v>
       </c>
       <c r="B121">
-        <v>429.67239280283798</v>
+        <v>316.916470571231</v>
       </c>
       <c r="C121">
-        <v>427.42258975221603</v>
+        <v>318.26154668875699</v>
       </c>
       <c r="D121">
-        <v>420.57944821351202</v>
+        <v>323.37508864286798</v>
       </c>
       <c r="E121">
-        <v>421.5</v>
+        <v>321.59121326901101</v>
       </c>
       <c r="F121">
-        <v>419.58906715674499</v>
+        <v>325.85804672701801</v>
       </c>
       <c r="G121">
-        <v>416.92258975221603</v>
+        <v>318.53198869106001</v>
       </c>
       <c r="H121">
-        <v>415.69163068930499</v>
+        <v>328.20069521813798</v>
       </c>
       <c r="I121">
-        <v>417.61770582644903</v>
+        <v>331.31752942791002</v>
       </c>
       <c r="J121">
-        <v>423.499895772223</v>
+        <v>332.17303564698898</v>
       </c>
       <c r="K121">
-        <v>433.01819161757197</v>
+        <v>344.247542755273</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>418.34580239519698</v>
+        <v>354.87334171884498</v>
       </c>
       <c r="B122">
-        <v>415.932647860332</v>
+        <v>350.15154560630702</v>
       </c>
       <c r="C122">
-        <v>408.606267542956</v>
+        <v>323.94848975219901</v>
       </c>
       <c r="D122">
-        <v>398.51819161757197</v>
+        <v>308.62614485628899</v>
       </c>
       <c r="E122">
-        <v>401.546638014584</v>
+        <v>301.43322807726599</v>
       </c>
       <c r="F122">
-        <v>408.42258975221603</v>
+        <v>306.85571535337198</v>
       </c>
       <c r="G122">
-        <v>418.92893218813498</v>
+        <v>318.23607373737798</v>
       </c>
       <c r="H122">
-        <v>430.42258975221603</v>
+        <v>326.35159816909101</v>
       </c>
       <c r="I122">
-        <v>439.68877363831501</v>
+        <v>328.185134016316</v>
       </c>
       <c r="J122">
-        <v>444.51819161757197</v>
+        <v>318.065507498697</v>
       </c>
       <c r="K122">
-        <v>444.606267542956</v>
+        <v>287.429296475424</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>416.274734583331</v>
+        <v>347.861557453025</v>
       </c>
       <c r="B123">
-        <v>414.59290189817602</v>
+        <v>336.268561574476</v>
       </c>
       <c r="C123">
-        <v>411.53519973109098</v>
+        <v>336.77117159657701</v>
       </c>
       <c r="D123">
-        <v>407.178445655416</v>
+        <v>341.270268507911</v>
       </c>
       <c r="E123">
-        <v>413.61770582644903</v>
+        <v>346.20027931039903</v>
       </c>
       <c r="F123">
-        <v>418.42258975221603</v>
+        <v>333.17583923522</v>
       </c>
       <c r="G123">
-        <v>421</v>
+        <v>321.065041713992</v>
       </c>
       <c r="H123">
-        <v>421.76233571437098</v>
+        <v>311.651340355515</v>
       </c>
       <c r="I123">
-        <v>422.61770582644903</v>
+        <v>299.06648950973403</v>
       </c>
       <c r="J123">
-        <v>425.85793757972698</v>
+        <v>291.62015554724098</v>
       </c>
       <c r="K123">
-        <v>432.53519973109098</v>
+        <v>307.432787780794</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>421.88133630112901</v>
+        <v>356.53010907322698</v>
       </c>
       <c r="B124">
-        <v>420.932647860332</v>
+        <v>331.917680638604</v>
       </c>
       <c r="C124">
-        <v>412.141801448889</v>
+        <v>317.63860230239499</v>
       </c>
       <c r="D124">
-        <v>398.51819161757197</v>
+        <v>308.34478071723902</v>
       </c>
       <c r="E124">
-        <v>398.01110410865101</v>
+        <v>315.83005991826002</v>
       </c>
       <c r="F124">
-        <v>403.42258975221603</v>
+        <v>314.03436458294198</v>
       </c>
       <c r="G124">
-        <v>415.39339828220199</v>
+        <v>320.88370669035299</v>
       </c>
       <c r="H124">
-        <v>430.42258975221603</v>
+        <v>316.19948504011501</v>
       </c>
       <c r="I124">
-        <v>443.22430754424801</v>
+        <v>324.34379176376802</v>
       </c>
       <c r="J124">
-        <v>449.51819161757197</v>
+        <v>318.016035549246</v>
       </c>
       <c r="K124">
-        <v>448.141801448889</v>
+        <v>350.78253476570802</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>418.774734583331</v>
+        <v>276.00085729031201</v>
       </c>
       <c r="B125">
-        <v>418.92302891709801</v>
+        <v>326.43760549225999</v>
       </c>
       <c r="C125">
-        <v>416.53519973109098</v>
+        <v>324.95555178894</v>
       </c>
       <c r="D125">
-        <v>411.50857267433798</v>
+        <v>338.20887662292802</v>
       </c>
       <c r="E125">
-        <v>416.11770582644903</v>
+        <v>340.30092307040002</v>
       </c>
       <c r="F125">
-        <v>418.42258975221603</v>
+        <v>335.09430788648001</v>
       </c>
       <c r="G125">
-        <v>418.5</v>
+        <v>341.47954141625098</v>
       </c>
       <c r="H125">
-        <v>417.43220869544899</v>
+        <v>345.05950767570801</v>
       </c>
       <c r="I125">
-        <v>417.61770582644903</v>
+        <v>338.72174213065398</v>
       </c>
       <c r="J125">
-        <v>421.52781056080499</v>
+        <v>335.28986504967901</v>
       </c>
       <c r="K125">
-        <v>430.03519973109098</v>
+        <v>310.578653734976</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>423.58925942943699</v>
+        <v>277.78738007203299</v>
       </c>
       <c r="B126">
-        <v>422.49027682898901</v>
+        <v>296.04564665123598</v>
       </c>
       <c r="C126">
-        <v>415.68877363831501</v>
+        <v>314.46347333515899</v>
       </c>
       <c r="D126">
-        <v>404.682011746071</v>
+        <v>331.678185549381</v>
       </c>
       <c r="E126">
-        <v>405.35152194034998</v>
+        <v>331.41129556576601</v>
       </c>
       <c r="F126">
-        <v>409.58906715674499</v>
+        <v>337.88029523860899</v>
       </c>
       <c r="G126">
-        <v>418.92893218813498</v>
+        <v>338.04262861361502</v>
       </c>
       <c r="H126">
-        <v>431.58906715674499</v>
+        <v>345.051155141322</v>
       </c>
       <c r="I126">
-        <v>443.49365756408099</v>
+        <v>328.36617650532497</v>
       </c>
       <c r="J126">
-        <v>450.682011746071</v>
+        <v>333.49025806626901</v>
       </c>
       <c r="K126">
-        <v>451.68877363831501</v>
+        <v>280.436047963161</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>421.51819161757197</v>
+        <v>307.21588893286201</v>
       </c>
       <c r="B127">
-        <v>421.150530866834</v>
+        <v>320.159398904233</v>
       </c>
       <c r="C127">
-        <v>418.61770582644903</v>
+        <v>321.603504435552</v>
       </c>
       <c r="D127">
-        <v>413.34226578391502</v>
+        <v>318.633789134739</v>
       </c>
       <c r="E127">
-        <v>417.42258975221603</v>
+        <v>331.00199304211702</v>
       </c>
       <c r="F127">
-        <v>419.58906715674499</v>
+        <v>318.27341577657398</v>
       </c>
       <c r="G127">
-        <v>421</v>
+        <v>329.00230550190298</v>
       </c>
       <c r="H127">
-        <v>422.92881311890102</v>
+        <v>315.705259328507</v>
       </c>
       <c r="I127">
-        <v>426.42258975221603</v>
+        <v>313.12674245358397</v>
       </c>
       <c r="J127">
-        <v>432.02175770822703</v>
+        <v>304.72442375963499</v>
       </c>
       <c r="K127">
-        <v>439.61770582644903</v>
+        <v>279.47472805418101</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>427.12479333536999</v>
+        <v>315.91251701388302</v>
       </c>
       <c r="B128">
-        <v>427.49027682898901</v>
+        <v>316.92561122938997</v>
       </c>
       <c r="C128">
-        <v>419.22430754424801</v>
+        <v>319.07213301502702</v>
       </c>
       <c r="D128">
-        <v>404.682011746071</v>
+        <v>314.95004160671601</v>
       </c>
       <c r="E128">
-        <v>401.81598803441699</v>
+        <v>308.896835550839</v>
       </c>
       <c r="F128">
-        <v>404.58906715674499</v>
+        <v>297.24410086095099</v>
       </c>
       <c r="G128">
-        <v>415.39339828220199</v>
+        <v>310.84235981307199</v>
       </c>
       <c r="H128">
-        <v>431.58906715674499</v>
+        <v>296.83515307418099</v>
       </c>
       <c r="I128">
-        <v>447.02919147001398</v>
+        <v>303.11623572505903</v>
       </c>
       <c r="J128">
-        <v>455.682011746071</v>
+        <v>323.082188559945</v>
       </c>
       <c r="K128">
-        <v>455.22430754424801</v>
+        <v>326.707473226719</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>424.01819161757197</v>
+        <v>292.161456055928</v>
       </c>
       <c r="B129">
-        <v>425.48065788575599</v>
+        <v>308.08366810462297</v>
       </c>
       <c r="C129">
-        <v>423.61770582644903</v>
+        <v>323.11252390159302</v>
       </c>
       <c r="D129">
-        <v>417.67239280283798</v>
+        <v>329.72131728011999</v>
       </c>
       <c r="E129">
-        <v>419.92258975221603</v>
+        <v>342.36467905473899</v>
       </c>
       <c r="F129">
-        <v>419.58906715674499</v>
+        <v>339.98126832343002</v>
       </c>
       <c r="G129">
-        <v>418.5</v>
+        <v>336.91314930047798</v>
       </c>
       <c r="H129">
-        <v>418.59868609997898</v>
+        <v>329.00285211415002</v>
       </c>
       <c r="I129">
-        <v>421.42258975221603</v>
+        <v>330.165413822711</v>
       </c>
       <c r="J129">
-        <v>427.69163068930499</v>
+        <v>322.47925521302301</v>
       </c>
       <c r="K129">
-        <v>437.11770582644903</v>
+        <v>331.01823149137101</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>431.76120096592598</v>
+        <v>322.29295993906601</v>
       </c>
       <c r="B130">
-        <v>430.67879441171402</v>
+        <v>336.54915546269302</v>
       </c>
       <c r="C130">
-        <v>424.48287169616498</v>
+        <v>325.86527599128198</v>
       </c>
       <c r="D130">
-        <v>413.94839316814398</v>
+        <v>334.02787357750401</v>
       </c>
       <c r="E130">
-        <v>401.92893218813498</v>
+        <v>327.93435568446102</v>
       </c>
       <c r="F130">
-        <v>391.94839316814398</v>
+        <v>321.955981234935</v>
       </c>
       <c r="G130">
-        <v>398.34073607243403</v>
+        <v>320.39158400425202</v>
       </c>
       <c r="H130">
-        <v>408.67879441171402</v>
+        <v>335.88841427627801</v>
       </c>
       <c r="I130">
-        <v>419.76120096592598</v>
+        <v>328.83763101858301</v>
       </c>
       <c r="J130">
-        <v>427.62176524022101</v>
+        <v>339.06437011891501</v>
       </c>
       <c r="K130">
-        <v>430.25422420075301</v>
+        <v>327.85203158170202</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>429.69013315406102</v>
+        <v>275.62707647146402</v>
       </c>
       <c r="B131">
-        <v>429.33904844955902</v>
+        <v>333.81825787388499</v>
       </c>
       <c r="C131">
-        <v>427.41180388430001</v>
+        <v>334.15899171194798</v>
       </c>
       <c r="D131">
-        <v>422.60864720598801</v>
+        <v>343.69735110296602</v>
       </c>
       <c r="E131">
-        <v>414</v>
+        <v>339.99985538253202</v>
       </c>
       <c r="F131">
-        <v>401.94839316814398</v>
+        <v>334.70661760716399</v>
       </c>
       <c r="G131">
-        <v>400.41180388430001</v>
+        <v>333.67793024198198</v>
       </c>
       <c r="H131">
-        <v>400.01854037387</v>
+        <v>343.20176860713201</v>
       </c>
       <c r="I131">
-        <v>402.69013315406102</v>
+        <v>337.73822584164998</v>
       </c>
       <c r="J131">
-        <v>408.96151120237698</v>
+        <v>335.939033179023</v>
       </c>
       <c r="K131">
-        <v>418.18315638888703</v>
+        <v>296.00115959914001</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>435.29673487185897</v>
+        <v>353.03610044538402</v>
       </c>
       <c r="B132">
-        <v>435.67879441171402</v>
+        <v>357.530575508624</v>
       </c>
       <c r="C132">
-        <v>428.01840560209803</v>
+        <v>340.277477992027</v>
       </c>
       <c r="D132">
-        <v>413.94839316814398</v>
+        <v>337.60399472441901</v>
       </c>
       <c r="E132">
-        <v>398.39339828220199</v>
+        <v>326.09918187845</v>
       </c>
       <c r="F132">
-        <v>386.94839316814398</v>
+        <v>313.54611579714202</v>
       </c>
       <c r="G132">
-        <v>394.80520216650098</v>
+        <v>319.120406267048</v>
       </c>
       <c r="H132">
-        <v>408.67879441171402</v>
+        <v>316.48474762716899</v>
       </c>
       <c r="I132">
-        <v>423.29673487185897</v>
+        <v>307.04318120886199</v>
       </c>
       <c r="J132">
-        <v>432.62176524022101</v>
+        <v>311.98322486673601</v>
       </c>
       <c r="K132">
-        <v>433.78975810668601</v>
+        <v>292.46085201580701</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>432.19013315406102</v>
+        <v>290.31272917671402</v>
       </c>
       <c r="B133">
-        <v>433.669175468481</v>
+        <v>321.18486999264798</v>
       </c>
       <c r="C133">
-        <v>432.41180388430001</v>
+        <v>307.201786227458</v>
       </c>
       <c r="D133">
-        <v>426.93877422490999</v>
+        <v>313.81012599165001</v>
       </c>
       <c r="E133">
-        <v>416.5</v>
+        <v>303.30787889544303</v>
       </c>
       <c r="F133">
-        <v>401.94839316814398</v>
+        <v>314.323117922096</v>
       </c>
       <c r="G133">
-        <v>397.91180388430001</v>
+        <v>317.828320008395</v>
       </c>
       <c r="H133">
-        <v>395.68841335494801</v>
+        <v>318.55769767920401</v>
       </c>
       <c r="I133">
-        <v>397.69013315406102</v>
+        <v>308.80812056115502</v>
       </c>
       <c r="J133">
-        <v>404.631384183455</v>
+        <v>289.411254117439</v>
       </c>
       <c r="K133">
-        <v>415.68315638888703</v>
+        <v>274.60654240742599</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>436.48287169616498</v>
+        <v>318.00218066537002</v>
       </c>
       <c r="B134">
-        <v>434.78800783071398</v>
+        <v>334.71660585604099</v>
       </c>
       <c r="C134">
-        <v>427.019460980009</v>
+        <v>321.184617572538</v>
       </c>
       <c r="D134">
-        <v>414.726044771163</v>
+        <v>325.16932169755898</v>
       </c>
       <c r="E134">
-        <v>401.92893218813498</v>
+        <v>323.80768542105301</v>
       </c>
       <c r="F134">
-        <v>392.726044771163</v>
+        <v>312.667937749408</v>
       </c>
       <c r="G134">
-        <v>400.87732535627799</v>
+        <v>307.50953185345497</v>
       </c>
       <c r="H134">
-        <v>412.78800783071398</v>
+        <v>318.80895977424098</v>
       </c>
       <c r="I134">
-        <v>424.48287169616498</v>
+        <v>312.41273952342902</v>
       </c>
       <c r="J134">
-        <v>431.99351788599301</v>
+        <v>312.80766015171702</v>
       </c>
       <c r="K134">
-        <v>433.74986222358001</v>
+        <v>305.94460003641802</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>434.41180388430001</v>
+        <v>301.044787188035</v>
       </c>
       <c r="B135">
-        <v>433.44826186855801</v>
+        <v>324.51721085903603</v>
       </c>
       <c r="C135">
-        <v>429.94839316814398</v>
+        <v>325.194630366517</v>
       </c>
       <c r="D135">
-        <v>423.386298809008</v>
+        <v>330.529578734957</v>
       </c>
       <c r="E135">
-        <v>414</v>
+        <v>337.85585209708699</v>
       </c>
       <c r="F135">
-        <v>402.726044771163</v>
+        <v>336.52583550160898</v>
       </c>
       <c r="G135">
-        <v>402.94839316814398</v>
+        <v>349.31155163669501</v>
       </c>
       <c r="H135">
-        <v>404.12775379287001</v>
+        <v>336.37050615718402</v>
       </c>
       <c r="I135">
-        <v>407.41180388430001</v>
+        <v>342.75843669289202</v>
       </c>
       <c r="J135">
-        <v>413.33326384814802</v>
+        <v>337.10135141404203</v>
       </c>
       <c r="K135">
-        <v>421.67879441171402</v>
+        <v>359.65918170878001</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>440.01840560209803</v>
+        <v>357.96960970560701</v>
       </c>
       <c r="B136">
-        <v>439.78800783071398</v>
+        <v>318.93960770549398</v>
       </c>
       <c r="C136">
-        <v>430.55499488594199</v>
+        <v>313.92911556222799</v>
       </c>
       <c r="D136">
-        <v>414.726044771163</v>
+        <v>315.21492508174799</v>
       </c>
       <c r="E136">
-        <v>398.39339828220199</v>
+        <v>315.62948340127599</v>
       </c>
       <c r="F136">
-        <v>387.726044771163</v>
+        <v>313.13699063493402</v>
       </c>
       <c r="G136">
-        <v>397.341791450345</v>
+        <v>312.378427028261</v>
       </c>
       <c r="H136">
-        <v>412.78800783071398</v>
+        <v>319.31478201727703</v>
       </c>
       <c r="I136">
-        <v>428.01840560209803</v>
+        <v>302.01857513486101</v>
       </c>
       <c r="J136">
-        <v>436.99351788599301</v>
+        <v>307.21111149916698</v>
       </c>
       <c r="K136">
-        <v>437.285396129513</v>
+        <v>277.91762289112398</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>436.91180388430001</v>
+        <v>328.14345490328202</v>
       </c>
       <c r="B137">
-        <v>437.77838888748101</v>
+        <v>320.27021108476498</v>
       </c>
       <c r="C137">
-        <v>434.94839316814398</v>
+        <v>319.71332820046501</v>
       </c>
       <c r="D137">
-        <v>427.71642582792998</v>
+        <v>320.94765740291501</v>
       </c>
       <c r="E137">
-        <v>416.5</v>
+        <v>325.88465589975499</v>
       </c>
       <c r="F137">
-        <v>402.726044771163</v>
+        <v>338.30772004927201</v>
       </c>
       <c r="G137">
-        <v>400.44839316814398</v>
+        <v>339.67308941949102</v>
       </c>
       <c r="H137">
-        <v>399.797626773947</v>
+        <v>334.70506403223999</v>
       </c>
       <c r="I137">
-        <v>402.41180388430001</v>
+        <v>325.48351318254902</v>
       </c>
       <c r="J137">
-        <v>409.00313682922598</v>
+        <v>302.65002477664899</v>
       </c>
       <c r="K137">
-        <v>419.17879441171402</v>
+        <v>288.20734666707602</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>430.25422420075301</v>
+        <v>335.24517339671701</v>
       </c>
       <c r="B138">
-        <v>427.62176524022101</v>
+        <v>352.06229576304099</v>
       </c>
       <c r="C138">
-        <v>419.76120096592598</v>
+        <v>335.51363075741898</v>
       </c>
       <c r="D138">
-        <v>408.67879441171402</v>
+        <v>339.76028346597798</v>
       </c>
       <c r="E138">
-        <v>398.34073607243403</v>
+        <v>338.78829464014598</v>
       </c>
       <c r="F138">
-        <v>391.94839316814398</v>
+        <v>336.92590010585502</v>
       </c>
       <c r="G138">
-        <v>401.92893218813498</v>
+        <v>351.35237085353901</v>
       </c>
       <c r="H138">
-        <v>413.94839316814398</v>
+        <v>347.44647165993899</v>
       </c>
       <c r="I138">
-        <v>424.48287169616498</v>
+        <v>347.50844346845003</v>
       </c>
       <c r="J138">
-        <v>430.67879441171402</v>
+        <v>343.59080675015201</v>
       </c>
       <c r="K138">
-        <v>431.76120096592598</v>
+        <v>356.78829598206499</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>428.18315638888703</v>
+        <v>335.60459884465598</v>
       </c>
       <c r="B139">
-        <v>426.282019278066</v>
+        <v>313.315178501189</v>
       </c>
       <c r="C139">
-        <v>422.69013315406102</v>
+        <v>311.93947307437998</v>
       </c>
       <c r="D139">
-        <v>417.33904844955902</v>
+        <v>305.08084871872802</v>
       </c>
       <c r="E139">
-        <v>410.41180388430001</v>
+        <v>313.38767487443999</v>
       </c>
       <c r="F139">
-        <v>401.94839316814398</v>
+        <v>307.92494032351402</v>
       </c>
       <c r="G139">
-        <v>404</v>
+        <v>301.147056494048</v>
       </c>
       <c r="H139">
-        <v>405.28813913029899</v>
+        <v>310.59479551524299</v>
       </c>
       <c r="I139">
-        <v>407.41180388430001</v>
+        <v>311.405463314249</v>
       </c>
       <c r="J139">
-        <v>412.01854037387</v>
+        <v>312.82197396280202</v>
       </c>
       <c r="K139">
-        <v>419.69013315406102</v>
+        <v>305.36481606143002</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>433.78975810668601</v>
+        <v>362.54884350976801</v>
       </c>
       <c r="B140">
-        <v>432.62176524022101</v>
+        <v>330.26770638811701</v>
       </c>
       <c r="C140">
-        <v>423.29673487185897</v>
+        <v>346.14002113367201</v>
       </c>
       <c r="D140">
-        <v>408.67879441171402</v>
+        <v>343.97790130302002</v>
       </c>
       <c r="E140">
-        <v>394.80520216650098</v>
+        <v>342.373582566707</v>
       </c>
       <c r="F140">
-        <v>386.94839316814398</v>
+        <v>358.97676276092602</v>
       </c>
       <c r="G140">
-        <v>398.39339828220199</v>
+        <v>341.29755361054299</v>
       </c>
       <c r="H140">
-        <v>413.94839316814398</v>
+        <v>339.95746245625099</v>
       </c>
       <c r="I140">
-        <v>428.01840560209803</v>
+        <v>339.57110925061301</v>
       </c>
       <c r="J140">
-        <v>435.67879441171402</v>
+        <v>331.53565443631697</v>
       </c>
       <c r="K140">
-        <v>435.29673487185897</v>
+        <v>349.80647832831897</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>430.68315638888703</v>
+        <v>341.50742170193001</v>
       </c>
       <c r="B141">
-        <v>430.61214629698799</v>
+        <v>340.01863719290498</v>
       </c>
       <c r="C141">
-        <v>427.69013315406102</v>
+        <v>327.27702897003797</v>
       </c>
       <c r="D141">
-        <v>421.669175468481</v>
+        <v>320.502106181947</v>
       </c>
       <c r="E141">
-        <v>412.91180388430001</v>
+        <v>319.68243193717001</v>
       </c>
       <c r="F141">
-        <v>401.94839316814398</v>
+        <v>314.340092967087</v>
       </c>
       <c r="G141">
-        <v>401.5</v>
+        <v>318.19610820124899</v>
       </c>
       <c r="H141">
-        <v>400.958012111377</v>
+        <v>311.13040991589497</v>
       </c>
       <c r="I141">
-        <v>402.41180388430001</v>
+        <v>311.639520722898</v>
       </c>
       <c r="J141">
-        <v>407.68841335494801</v>
+        <v>303.48639327066797</v>
       </c>
       <c r="K141">
-        <v>417.19013315406102</v>
+        <v>310.17836179649203</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>433.74986222358001</v>
+        <v>317.10778786900698</v>
       </c>
       <c r="B142">
-        <v>431.99351788599301</v>
+        <v>312.09319526348901</v>
       </c>
       <c r="C142">
-        <v>424.48287169616498</v>
+        <v>315.26718100294801</v>
       </c>
       <c r="D142">
-        <v>412.78800783071398</v>
+        <v>315.42846970782603</v>
       </c>
       <c r="E142">
-        <v>400.87732535627799</v>
+        <v>323.99719206505199</v>
       </c>
       <c r="F142">
-        <v>392.726044771163</v>
+        <v>336.92799096010299</v>
       </c>
       <c r="G142">
-        <v>401.92893218813498</v>
+        <v>322.32083316369398</v>
       </c>
       <c r="H142">
-        <v>414.726044771163</v>
+        <v>332.99973506186802</v>
       </c>
       <c r="I142">
-        <v>427.019460980009</v>
+        <v>332.95513491999299</v>
       </c>
       <c r="J142">
-        <v>434.78800783071398</v>
+        <v>312.70209013904099</v>
       </c>
       <c r="K142">
-        <v>436.48287169616498</v>
+        <v>317.69123068402303</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>431.67879441171402</v>
+        <v>370.34176336254802</v>
       </c>
       <c r="B143">
-        <v>430.65377192383698</v>
+        <v>363.21657075406102</v>
       </c>
       <c r="C143">
-        <v>427.41180388430001</v>
+        <v>333.14388079973298</v>
       </c>
       <c r="D143">
-        <v>421.44826186855801</v>
+        <v>318.26006249225702</v>
       </c>
       <c r="E143">
-        <v>412.94839316814398</v>
+        <v>318.34624741616301</v>
       </c>
       <c r="F143">
-        <v>402.726044771163</v>
+        <v>318.52353870794502</v>
       </c>
       <c r="G143">
-        <v>404</v>
+        <v>318.27790682341703</v>
       </c>
       <c r="H143">
-        <v>406.06579073331898</v>
+        <v>334.69999309227501</v>
       </c>
       <c r="I143">
-        <v>409.94839316814398</v>
+        <v>349.05213225239999</v>
       </c>
       <c r="J143">
-        <v>416.12775379287001</v>
+        <v>341.54511042797498</v>
       </c>
       <c r="K143">
-        <v>424.41180388430001</v>
+        <v>367.68336762579401</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>437.285396129513</v>
+        <v>291.716511126635</v>
       </c>
       <c r="B144">
-        <v>436.99351788599301</v>
+        <v>328.68791766211598</v>
       </c>
       <c r="C144">
-        <v>428.01840560209803</v>
+        <v>316.02873240416199</v>
       </c>
       <c r="D144">
-        <v>412.78800783071398</v>
+        <v>326.76824106558399</v>
       </c>
       <c r="E144">
-        <v>397.34179145034602</v>
+        <v>326.07249053134302</v>
       </c>
       <c r="F144">
-        <v>387.726044771163</v>
+        <v>317.94642803478501</v>
       </c>
       <c r="G144">
-        <v>398.39339828220199</v>
+        <v>320.846634223259</v>
       </c>
       <c r="H144">
-        <v>414.726044771163</v>
+        <v>319.77316908865902</v>
       </c>
       <c r="I144">
-        <v>430.55499488594199</v>
+        <v>305.30150715365698</v>
       </c>
       <c r="J144">
-        <v>439.78800783071398</v>
+        <v>292.08978635418902</v>
       </c>
       <c r="K144">
-        <v>440.01840560209803</v>
+        <v>273.05574475873601</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>434.17879441171402</v>
+        <v>363.42271106461999</v>
       </c>
       <c r="B145">
-        <v>434.98389894275903</v>
+        <v>336.63732190987503</v>
       </c>
       <c r="C145">
-        <v>432.41180388430001</v>
+        <v>327.03729216352599</v>
       </c>
       <c r="D145">
-        <v>425.77838888748101</v>
+        <v>311.48620695718802</v>
       </c>
       <c r="E145">
-        <v>415.44839316814398</v>
+        <v>321.75838172887399</v>
       </c>
       <c r="F145">
-        <v>402.726044771163</v>
+        <v>323.13899387516301</v>
       </c>
       <c r="G145">
-        <v>401.5</v>
+        <v>320.45405474547999</v>
       </c>
       <c r="H145">
-        <v>401.73566371439699</v>
+        <v>318.21494837619201</v>
       </c>
       <c r="I145">
-        <v>404.94839316814398</v>
+        <v>327.17412720723001</v>
       </c>
       <c r="J145">
-        <v>411.797626773947</v>
+        <v>310.372482260423</v>
       </c>
       <c r="K145">
-        <v>421.91180388430001</v>
+        <v>330.46317918812099</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>432.606267542956</v>
+        <v>327.22719880158098</v>
       </c>
       <c r="B146">
-        <v>432.51819161757197</v>
+        <v>306.52744671684502</v>
       </c>
       <c r="C146">
-        <v>427.68877363831501</v>
+        <v>314.32807168583003</v>
       </c>
       <c r="D146">
-        <v>418.42258975221603</v>
+        <v>306.00246308698797</v>
       </c>
       <c r="E146">
-        <v>406.92893218813498</v>
+        <v>312.12567092610601</v>
       </c>
       <c r="F146">
-        <v>396.42258975221603</v>
+        <v>327.03002089424803</v>
       </c>
       <c r="G146">
-        <v>401.546638014584</v>
+        <v>335.74438138647002</v>
       </c>
       <c r="H146">
-        <v>410.51819161757197</v>
+        <v>334.93961090570201</v>
       </c>
       <c r="I146">
-        <v>420.606267542956</v>
+        <v>348.48311577704402</v>
       </c>
       <c r="J146">
-        <v>427.932647860332</v>
+        <v>348.30754949998902</v>
       </c>
       <c r="K146">
-        <v>430.34580239519698</v>
+        <v>353.31668016408202</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>430.53519973109098</v>
+        <v>345.513182322273</v>
       </c>
       <c r="B147">
-        <v>431.178445655416</v>
+        <v>351.82201419824497</v>
       </c>
       <c r="C147">
-        <v>430.61770582644903</v>
+        <v>342.153443841517</v>
       </c>
       <c r="D147">
-        <v>427.08284379006</v>
+        <v>346.11984909413002</v>
       </c>
       <c r="E147">
-        <v>419</v>
+        <v>346.59123138693298</v>
       </c>
       <c r="F147">
-        <v>406.42258975221603</v>
+        <v>335.30613551062999</v>
       </c>
       <c r="G147">
-        <v>403.61770582644903</v>
+        <v>345.57242717715201</v>
       </c>
       <c r="H147">
-        <v>401.85793757972698</v>
+        <v>331.15627885425903</v>
       </c>
       <c r="I147">
-        <v>403.53519973109098</v>
+        <v>331.48859810923</v>
       </c>
       <c r="J147">
-        <v>409.272393822487</v>
+        <v>333.85289939706303</v>
       </c>
       <c r="K147">
-        <v>418.274734583331</v>
+        <v>367.00680486019098</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>436.141801448889</v>
+        <v>295.76241257108899</v>
       </c>
       <c r="B148">
-        <v>437.51819161757197</v>
+        <v>301.52278467483001</v>
       </c>
       <c r="C148">
-        <v>431.22430754424801</v>
+        <v>311.710167535663</v>
       </c>
       <c r="D148">
-        <v>418.42258975221603</v>
+        <v>314.24428005079602</v>
       </c>
       <c r="E148">
-        <v>403.39339828220199</v>
+        <v>305.23285516235899</v>
       </c>
       <c r="F148">
-        <v>391.42258975221603</v>
+        <v>313.63003779048</v>
       </c>
       <c r="G148">
-        <v>398.01110410865101</v>
+        <v>314.99177079157897</v>
       </c>
       <c r="H148">
-        <v>410.51819161757197</v>
+        <v>327.05410284804901</v>
       </c>
       <c r="I148">
-        <v>424.141801448889</v>
+        <v>328.44176266311803</v>
       </c>
       <c r="J148">
-        <v>432.932647860332</v>
+        <v>345.49136105459002</v>
       </c>
       <c r="K148">
-        <v>433.88133630112901</v>
+        <v>315.3712742221</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>433.03519973109098</v>
+        <v>300.18268337009101</v>
       </c>
       <c r="B149">
-        <v>435.50857267433798</v>
+        <v>328.184077315362</v>
       </c>
       <c r="C149">
-        <v>435.61770582644903</v>
+        <v>329.57515934539998</v>
       </c>
       <c r="D149">
-        <v>431.41297080898198</v>
+        <v>324.64091200879699</v>
       </c>
       <c r="E149">
-        <v>421.5</v>
+        <v>329.730157437777</v>
       </c>
       <c r="F149">
-        <v>406.42258975221603</v>
+        <v>325.61523639844398</v>
       </c>
       <c r="G149">
-        <v>401.11770582644903</v>
+        <v>327.75771399887799</v>
       </c>
       <c r="H149">
-        <v>397.52781056080499</v>
+        <v>337.19660690847002</v>
       </c>
       <c r="I149">
-        <v>398.53519973109098</v>
+        <v>353.922388538348</v>
       </c>
       <c r="J149">
-        <v>404.94226680356502</v>
+        <v>360.12359072250302</v>
       </c>
       <c r="K149">
-        <v>415.774734583331</v>
+        <v>359.14035483646597</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>439.68877363831501</v>
+        <v>310.89161513683001</v>
       </c>
       <c r="B150">
-        <v>438.682011746071</v>
+        <v>318.67896446255298</v>
       </c>
       <c r="C150">
-        <v>431.49365756408099</v>
+        <v>319.55725558755898</v>
       </c>
       <c r="D150">
-        <v>419.58906715674499</v>
+        <v>314.048271039469</v>
       </c>
       <c r="E150">
-        <v>406.92893218813498</v>
+        <v>306.95161649404002</v>
       </c>
       <c r="F150">
-        <v>397.58906715674499</v>
+        <v>297.61238524765298</v>
       </c>
       <c r="G150">
-        <v>405.35152194034998</v>
+        <v>291.00063782739198</v>
       </c>
       <c r="H150">
-        <v>416.682011746071</v>
+        <v>285.79215998521698</v>
       </c>
       <c r="I150">
-        <v>427.68877363831501</v>
+        <v>298.37738792398</v>
       </c>
       <c r="J150">
-        <v>434.49027682898901</v>
+        <v>309.64036344271801</v>
       </c>
       <c r="K150">
-        <v>435.58925942943699</v>
+        <v>346.27283209019703</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>437.61770582644903</v>
+        <v>317.31523382194803</v>
       </c>
       <c r="B151">
-        <v>437.34226578391502</v>
+        <v>304.32936509219002</v>
       </c>
       <c r="C151">
-        <v>434.42258975221603</v>
+        <v>326.93090965974699</v>
       </c>
       <c r="D151">
-        <v>428.24932119458998</v>
+        <v>334.5228688725</v>
       </c>
       <c r="E151">
-        <v>419</v>
+        <v>328.78812228298301</v>
       </c>
       <c r="F151">
-        <v>407.58906715674499</v>
+        <v>330.34422454107101</v>
       </c>
       <c r="G151">
-        <v>407.42258975221603</v>
+        <v>329.64312667170498</v>
       </c>
       <c r="H151">
-        <v>408.02175770822703</v>
+        <v>318.68417878544801</v>
       </c>
       <c r="I151">
-        <v>410.61770582644903</v>
+        <v>320.07679159756401</v>
       </c>
       <c r="J151">
-        <v>415.83002279114498</v>
+        <v>341.86810606344699</v>
       </c>
       <c r="K151">
-        <v>423.51819161757197</v>
+        <v>362.23809394629302</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>443.22430754424801</v>
+        <v>335.84143539786697</v>
       </c>
       <c r="B152">
-        <v>443.682011746071</v>
+        <v>329.47470134638098</v>
       </c>
       <c r="C152">
-        <v>435.02919147001398</v>
+        <v>321.88832999215299</v>
       </c>
       <c r="D152">
-        <v>419.58906715674499</v>
+        <v>326.61566204056101</v>
       </c>
       <c r="E152">
-        <v>403.39339828220199</v>
+        <v>326.11628328636499</v>
       </c>
       <c r="F152">
-        <v>392.58906715674499</v>
+        <v>321.76824404317898</v>
       </c>
       <c r="G152">
-        <v>401.81598803441699</v>
+        <v>315.74603675789803</v>
       </c>
       <c r="H152">
-        <v>416.682011746071</v>
+        <v>329.75361657338601</v>
       </c>
       <c r="I152">
-        <v>431.22430754424801</v>
+        <v>325.19918636390599</v>
       </c>
       <c r="J152">
-        <v>439.49027682898901</v>
+        <v>332.55011772172099</v>
       </c>
       <c r="K152">
-        <v>439.12479333536999</v>
+        <v>336.70594459250901</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>440.11770582644903</v>
+        <v>287.44350527396102</v>
       </c>
       <c r="B153">
-        <v>441.67239280283798</v>
+        <v>311.78358175997801</v>
       </c>
       <c r="C153">
-        <v>439.42258975221603</v>
+        <v>324.76655761171799</v>
       </c>
       <c r="D153">
-        <v>432.57944821351202</v>
+        <v>339.83337929387602</v>
       </c>
       <c r="E153">
-        <v>421.5</v>
+        <v>354.12246516507798</v>
       </c>
       <c r="F153">
-        <v>407.58906715674499</v>
+        <v>344.40457035498599</v>
       </c>
       <c r="G153">
-        <v>404.92258975221603</v>
+        <v>336.97510148096802</v>
       </c>
       <c r="H153">
-        <v>403.69163068930499</v>
+        <v>333.771426707876</v>
       </c>
       <c r="I153">
-        <v>405.61770582644903</v>
+        <v>334.79693650775801</v>
       </c>
       <c r="J153">
-        <v>411.499895772223</v>
+        <v>334.40716240908802</v>
       </c>
       <c r="K153">
-        <v>421.01819161757197</v>
+        <v>367.90516268416002</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>430.34580239519698</v>
+        <v>366.96087069397601</v>
       </c>
       <c r="B154">
-        <v>427.932647860332</v>
+        <v>340.44746484738801</v>
       </c>
       <c r="C154">
-        <v>420.606267542956</v>
+        <v>336.01954884279701</v>
       </c>
       <c r="D154">
-        <v>410.51819161757197</v>
+        <v>333.11493830841601</v>
       </c>
       <c r="E154">
-        <v>401.546638014584</v>
+        <v>325.47604591855099</v>
       </c>
       <c r="F154">
-        <v>396.42258975221603</v>
+        <v>325.15538484775902</v>
       </c>
       <c r="G154">
-        <v>406.92893218813498</v>
+        <v>326.49253829138797</v>
       </c>
       <c r="H154">
-        <v>418.42258975221603</v>
+        <v>321.90423398076098</v>
       </c>
       <c r="I154">
-        <v>427.68877363831501</v>
+        <v>320.04554103533098</v>
       </c>
       <c r="J154">
-        <v>432.51819161757197</v>
+        <v>328.547982877251</v>
       </c>
       <c r="K154">
-        <v>432.606267542956</v>
+        <v>343.14435329491897</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>428.274734583331</v>
+        <v>355.68745161611702</v>
       </c>
       <c r="B155">
-        <v>426.59290189817602</v>
+        <v>322.16838128303499</v>
       </c>
       <c r="C155">
-        <v>423.53519973109098</v>
+        <v>327.028522575674</v>
       </c>
       <c r="D155">
-        <v>419.178445655416</v>
+        <v>319.812184154764</v>
       </c>
       <c r="E155">
-        <v>413.61770582644903</v>
+        <v>311.17530567127801</v>
       </c>
       <c r="F155">
-        <v>406.42258975221603</v>
+        <v>310.22772132848598</v>
       </c>
       <c r="G155">
-        <v>409</v>
+        <v>292.37257760730699</v>
       </c>
       <c r="H155">
-        <v>409.76233571437098</v>
+        <v>303.01491727070402</v>
       </c>
       <c r="I155">
-        <v>410.61770582644903</v>
+        <v>297.295007353107</v>
       </c>
       <c r="J155">
-        <v>413.85793757972698</v>
+        <v>307.85988622131401</v>
       </c>
       <c r="K155">
-        <v>420.53519973109098</v>
+        <v>291.00620992358398</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>433.88133630112901</v>
+        <v>305.59949551881999</v>
       </c>
       <c r="B156">
-        <v>432.932647860332</v>
+        <v>297.15977430697097</v>
       </c>
       <c r="C156">
-        <v>424.141801448889</v>
+        <v>310.47176036561899</v>
       </c>
       <c r="D156">
-        <v>410.51819161757197</v>
+        <v>312.57492582339597</v>
       </c>
       <c r="E156">
-        <v>398.01110410865101</v>
+        <v>307.67461849512699</v>
       </c>
       <c r="F156">
-        <v>391.42258975221603</v>
+        <v>319.12399573613499</v>
       </c>
       <c r="G156">
-        <v>403.39339828220199</v>
+        <v>302.49162340079602</v>
       </c>
       <c r="H156">
-        <v>418.42258975221603</v>
+        <v>307.04110259097502</v>
       </c>
       <c r="I156">
-        <v>431.22430754424801</v>
+        <v>315.112965668333</v>
       </c>
       <c r="J156">
-        <v>437.51819161757197</v>
+        <v>318.97988379195903</v>
       </c>
       <c r="K156">
-        <v>436.141801448889</v>
+        <v>356.47463819449899</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>430.774734583331</v>
+        <v>282.67795115822599</v>
       </c>
       <c r="B157">
-        <v>430.92302891709801</v>
+        <v>315.78107889640398</v>
       </c>
       <c r="C157">
-        <v>428.53519973109098</v>
+        <v>323.79406430152801</v>
       </c>
       <c r="D157">
-        <v>423.50857267433798</v>
+        <v>322.14770169858298</v>
       </c>
       <c r="E157">
-        <v>416.11770582644903</v>
+        <v>318.16662054010197</v>
       </c>
       <c r="F157">
-        <v>406.42258975221603</v>
+        <v>318.55018935107199</v>
       </c>
       <c r="G157">
-        <v>406.5</v>
+        <v>306.34578490358598</v>
       </c>
       <c r="H157">
-        <v>405.43220869544899</v>
+        <v>307.31678174415299</v>
       </c>
       <c r="I157">
-        <v>405.61770582644903</v>
+        <v>322.60097563725799</v>
       </c>
       <c r="J157">
-        <v>409.52781056080499</v>
+        <v>322.10905146428701</v>
       </c>
       <c r="K157">
-        <v>418.03519973109098</v>
+        <v>350.86710760902599</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>435.58925942943699</v>
+        <v>290.64968225866699</v>
       </c>
       <c r="B158">
-        <v>434.49027682898901</v>
+        <v>320.43488942838798</v>
       </c>
       <c r="C158">
-        <v>427.68877363831501</v>
+        <v>321.14505133318403</v>
       </c>
       <c r="D158">
-        <v>416.682011746071</v>
+        <v>336.39183833537999</v>
       </c>
       <c r="E158">
-        <v>405.35152194034998</v>
+        <v>334.59313305451798</v>
       </c>
       <c r="F158">
-        <v>397.58906715674499</v>
+        <v>337.16396882158602</v>
       </c>
       <c r="G158">
-        <v>406.92893218813498</v>
+        <v>339.63192607076797</v>
       </c>
       <c r="H158">
-        <v>419.58906715674499</v>
+        <v>345.36662940016799</v>
       </c>
       <c r="I158">
-        <v>431.49365756408099</v>
+        <v>332.16707648504701</v>
       </c>
       <c r="J158">
-        <v>438.682011746071</v>
+        <v>328.77324798923598</v>
       </c>
       <c r="K158">
-        <v>439.68877363831501</v>
+        <v>300.88585269404001</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>433.51819161757197</v>
+        <v>302.99476033202001</v>
       </c>
       <c r="B159">
-        <v>433.150530866834</v>
+        <v>312.12137997833003</v>
       </c>
       <c r="C159">
-        <v>430.61770582644903</v>
+        <v>309.84946258697602</v>
       </c>
       <c r="D159">
-        <v>425.34226578391502</v>
+        <v>313.79812161189602</v>
       </c>
       <c r="E159">
-        <v>417.42258975221603</v>
+        <v>322.665272936885</v>
       </c>
       <c r="F159">
-        <v>407.58906715674499</v>
+        <v>317.653726098677</v>
       </c>
       <c r="G159">
-        <v>409</v>
+        <v>308.19675927787699</v>
       </c>
       <c r="H159">
-        <v>410.92881311890102</v>
+        <v>308.73171195034899</v>
       </c>
       <c r="I159">
-        <v>414.42258975221603</v>
+        <v>309.64094461150802</v>
       </c>
       <c r="J159">
-        <v>420.02175770822703</v>
+        <v>298.51910700689001</v>
       </c>
       <c r="K159">
-        <v>427.61770582644903</v>
+        <v>327.284218762416</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>439.12479333536999</v>
+        <v>325.90677288207502</v>
       </c>
       <c r="B160">
-        <v>439.49027682898901</v>
+        <v>337.255275951915</v>
       </c>
       <c r="C160">
-        <v>431.22430754424801</v>
+        <v>339.44161591587999</v>
       </c>
       <c r="D160">
-        <v>416.682011746071</v>
+        <v>338.45858209740697</v>
       </c>
       <c r="E160">
-        <v>401.81598803441699</v>
+        <v>329.05774215036701</v>
       </c>
       <c r="F160">
-        <v>392.58906715674499</v>
+        <v>318.53051357254202</v>
       </c>
       <c r="G160">
-        <v>403.39339828220199</v>
+        <v>315.59416795357902</v>
       </c>
       <c r="H160">
-        <v>419.58906715674499</v>
+        <v>312.29776616532001</v>
       </c>
       <c r="I160">
-        <v>435.02919147001398</v>
+        <v>319.15313534053598</v>
       </c>
       <c r="J160">
-        <v>443.682011746071</v>
+        <v>336.51565478444599</v>
       </c>
       <c r="K160">
-        <v>443.22430754424801</v>
+        <v>355.26844966579199</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>436.01819161757197</v>
+        <v>342.18549902928203</v>
       </c>
       <c r="B161">
-        <v>437.48065788575599</v>
+        <v>325.78150873126799</v>
       </c>
       <c r="C161">
-        <v>435.61770582644903</v>
+        <v>314.33451930189801</v>
       </c>
       <c r="D161">
-        <v>429.67239280283798</v>
+        <v>315.33486482578002</v>
       </c>
       <c r="E161">
-        <v>419.92258975221603</v>
+        <v>312.50744551367598</v>
       </c>
       <c r="F161">
-        <v>407.58906715674499</v>
+        <v>323.729210404144</v>
       </c>
       <c r="G161">
-        <v>406.5</v>
+        <v>323.05458486396702</v>
       </c>
       <c r="H161">
-        <v>406.59868609997898</v>
+        <v>321.69949241021402</v>
       </c>
       <c r="I161">
-        <v>409.42258975221603</v>
+        <v>318.50116454917099</v>
       </c>
       <c r="J161">
-        <v>415.69163068930499</v>
+        <v>305.12502256316998</v>
       </c>
       <c r="K161">
-        <v>425.11770582644903</v>
+        <v>331.19558734347203</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>437.76120096592598</v>
+        <v>281.51959164259898</v>
       </c>
       <c r="B162">
-        <v>436.67879441171402</v>
+        <v>325.390391561147</v>
       </c>
       <c r="C162">
-        <v>430.48287169616498</v>
+        <v>309.04826716945797</v>
       </c>
       <c r="D162">
-        <v>419.94839316814398</v>
+        <v>320.89209601029</v>
       </c>
       <c r="E162">
-        <v>407.92893218813498</v>
+        <v>314.45515992410202</v>
       </c>
       <c r="F162">
-        <v>397.94839316814398</v>
+        <v>310.08872359242002</v>
       </c>
       <c r="G162">
-        <v>392.34073607243403</v>
+        <v>316.72306498713999</v>
       </c>
       <c r="H162">
-        <v>402.67879441171402</v>
+        <v>324.766224114159</v>
       </c>
       <c r="I162">
-        <v>413.76120096592598</v>
+        <v>320.355866608106</v>
       </c>
       <c r="J162">
-        <v>421.62176524022101</v>
+        <v>320.381537363012</v>
       </c>
       <c r="K162">
-        <v>424.25422420075301</v>
+        <v>318.68694831649202</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>435.69013315406102</v>
+        <v>302.48792133147498</v>
       </c>
       <c r="B163">
-        <v>435.33904844955902</v>
+        <v>322.34479221284499</v>
       </c>
       <c r="C163">
-        <v>433.41180388430001</v>
+        <v>330.05981169656098</v>
       </c>
       <c r="D163">
-        <v>428.60864720598801</v>
+        <v>334.65025671916499</v>
       </c>
       <c r="E163">
-        <v>420</v>
+        <v>328.10259869643698</v>
       </c>
       <c r="F163">
-        <v>407.94839316814398</v>
+        <v>332.60003081150302</v>
       </c>
       <c r="G163">
-        <v>394.41180388430001</v>
+        <v>331.06476443261897</v>
       </c>
       <c r="H163">
-        <v>394.01854037387</v>
+        <v>330.51327715818201</v>
       </c>
       <c r="I163">
-        <v>396.69013315406102</v>
+        <v>339.38541565094903</v>
       </c>
       <c r="J163">
-        <v>402.96151120237698</v>
+        <v>347.54391749532999</v>
       </c>
       <c r="K163">
-        <v>412.18315638888703</v>
+        <v>369.80083890832702</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>441.29673487185897</v>
+        <v>308.32862512552703</v>
       </c>
       <c r="B164">
-        <v>441.67879441171402</v>
+        <v>309.74296844058699</v>
       </c>
       <c r="C164">
-        <v>434.01840560209803</v>
+        <v>319.305457048969</v>
       </c>
       <c r="D164">
-        <v>419.94839316814398</v>
+        <v>326.39593128280501</v>
       </c>
       <c r="E164">
-        <v>404.39339828220199</v>
+        <v>340.830066449654</v>
       </c>
       <c r="F164">
-        <v>392.94839316814398</v>
+        <v>347.06736144739199</v>
       </c>
       <c r="G164">
-        <v>388.80520216650098</v>
+        <v>338.55234078380198</v>
       </c>
       <c r="H164">
-        <v>402.67879441171402</v>
+        <v>346.56909105383301</v>
       </c>
       <c r="I164">
-        <v>417.29673487185897</v>
+        <v>336.20020719506499</v>
       </c>
       <c r="J164">
-        <v>426.62176524022101</v>
+        <v>318.91453498538499</v>
       </c>
       <c r="K164">
-        <v>427.78975810668601</v>
+        <v>291.93657700086601</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>438.19013315406102</v>
+        <v>296.83300302558399</v>
       </c>
       <c r="B165">
-        <v>439.669175468481</v>
+        <v>303.34973625455001</v>
       </c>
       <c r="C165">
-        <v>438.41180388430001</v>
+        <v>300.886566019886</v>
       </c>
       <c r="D165">
-        <v>432.93877422490999</v>
+        <v>302.46776307513102</v>
       </c>
       <c r="E165">
-        <v>422.5</v>
+        <v>294.35891666467302</v>
       </c>
       <c r="F165">
-        <v>407.94839316814398</v>
+        <v>294.96419851851499</v>
       </c>
       <c r="G165">
-        <v>391.91180388430001</v>
+        <v>295.842431788981</v>
       </c>
       <c r="H165">
-        <v>389.68841335494801</v>
+        <v>297.61647352410802</v>
       </c>
       <c r="I165">
-        <v>391.69013315406102</v>
+        <v>295.328221896564</v>
       </c>
       <c r="J165">
-        <v>398.631384183455</v>
+        <v>300.314242175944</v>
       </c>
       <c r="K165">
-        <v>409.68315638888703</v>
+        <v>293.29773016409001</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>442.48287169616498</v>
+        <v>280.15204464021002</v>
       </c>
       <c r="B166">
-        <v>440.78800783071398</v>
+        <v>309.56253927869602</v>
       </c>
       <c r="C166">
-        <v>433.019460980009</v>
+        <v>329.75056603160999</v>
       </c>
       <c r="D166">
-        <v>420.726044771163</v>
+        <v>335.34885148591002</v>
       </c>
       <c r="E166">
-        <v>407.92893218813498</v>
+        <v>319.05773449332997</v>
       </c>
       <c r="F166">
-        <v>398.726044771163</v>
+        <v>334.44797112505302</v>
       </c>
       <c r="G166">
-        <v>394.87732535627799</v>
+        <v>334.10535743622</v>
       </c>
       <c r="H166">
-        <v>406.78800783071398</v>
+        <v>320.16175802403399</v>
       </c>
       <c r="I166">
-        <v>418.48287169616498</v>
+        <v>323.767122413599</v>
       </c>
       <c r="J166">
-        <v>425.99351788599301</v>
+        <v>324.93481355879902</v>
       </c>
       <c r="K166">
-        <v>427.74986222358001</v>
+        <v>326.17029385953299</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>440.41180388430001</v>
+        <v>280.35984646628702</v>
       </c>
       <c r="B167">
-        <v>439.44826186855801</v>
+        <v>328.88374610189697</v>
       </c>
       <c r="C167">
-        <v>435.94839316814398</v>
+        <v>326.58262907092802</v>
       </c>
       <c r="D167">
-        <v>429.386298809008</v>
+        <v>325.78452510692102</v>
       </c>
       <c r="E167">
-        <v>420</v>
+        <v>309.11152366406299</v>
       </c>
       <c r="F167">
-        <v>408.726044771163</v>
+        <v>308.38287789151701</v>
       </c>
       <c r="G167">
-        <v>396.94839316814398</v>
+        <v>323.34177414371601</v>
       </c>
       <c r="H167">
-        <v>398.12775379287001</v>
+        <v>317.91532444255103</v>
       </c>
       <c r="I167">
-        <v>401.41180388430001</v>
+        <v>333.81832472427698</v>
       </c>
       <c r="J167">
-        <v>407.33326384814802</v>
+        <v>349.93615595300201</v>
       </c>
       <c r="K167">
-        <v>415.67879441171402</v>
+        <v>355.884328054886</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>446.01840560209803</v>
+        <v>308.680562538169</v>
       </c>
       <c r="B168">
-        <v>445.78800783071398</v>
+        <v>317.58060592027402</v>
       </c>
       <c r="C168">
-        <v>436.55499488594199</v>
+        <v>307.40787326778297</v>
       </c>
       <c r="D168">
-        <v>420.726044771163</v>
+        <v>317.93731803330297</v>
       </c>
       <c r="E168">
-        <v>404.39339828220199</v>
+        <v>320.02345949325297</v>
       </c>
       <c r="F168">
-        <v>393.726044771163</v>
+        <v>316.59010239424202</v>
       </c>
       <c r="G168">
-        <v>391.341791450345</v>
+        <v>322.61165127083302</v>
       </c>
       <c r="H168">
-        <v>406.78800783071398</v>
+        <v>335.85236373579698</v>
       </c>
       <c r="I168">
-        <v>422.01840560209803</v>
+        <v>327.48467006623099</v>
       </c>
       <c r="J168">
-        <v>430.99351788599301</v>
+        <v>333.36605776793499</v>
       </c>
       <c r="K168">
-        <v>431.285396129513</v>
+        <v>319.48931801793901</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>442.91180388430001</v>
+        <v>367.68184909770702</v>
       </c>
       <c r="B169">
-        <v>443.77838888748101</v>
+        <v>318.553950056269</v>
       </c>
       <c r="C169">
-        <v>440.94839316814398</v>
+        <v>324.99027578988103</v>
       </c>
       <c r="D169">
-        <v>433.71642582792998</v>
+        <v>309.259041293135</v>
       </c>
       <c r="E169">
-        <v>422.5</v>
+        <v>311.91779714181098</v>
       </c>
       <c r="F169">
-        <v>408.726044771163</v>
+        <v>308.80317107470302</v>
       </c>
       <c r="G169">
-        <v>394.44839316814398</v>
+        <v>312.28831851885099</v>
       </c>
       <c r="H169">
-        <v>393.797626773947</v>
+        <v>298.57407228930799</v>
       </c>
       <c r="I169">
-        <v>396.41180388430001</v>
+        <v>308.78145753868301</v>
       </c>
       <c r="J169">
-        <v>403.00313682922598</v>
+        <v>319.40221257149199</v>
       </c>
       <c r="K169">
-        <v>413.17879441171402</v>
+        <v>340.06260286085399</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>436.25422420075301</v>
+        <v>362.663092259351</v>
       </c>
       <c r="B170">
-        <v>433.62176524022101</v>
+        <v>347.31428277147</v>
       </c>
       <c r="C170">
-        <v>425.76120096592598</v>
+        <v>338.98091889164499</v>
       </c>
       <c r="D170">
-        <v>414.67879441171402</v>
+        <v>329.00897375426598</v>
       </c>
       <c r="E170">
-        <v>404.34073607243403</v>
+        <v>327.22259573434701</v>
       </c>
       <c r="F170">
-        <v>397.94839316814398</v>
+        <v>330.298778519927</v>
       </c>
       <c r="G170">
-        <v>395.92893218813498</v>
+        <v>335.65485607139101</v>
       </c>
       <c r="H170">
-        <v>407.94839316814398</v>
+        <v>341.91267855631401</v>
       </c>
       <c r="I170">
-        <v>418.48287169616498</v>
+        <v>339.75354326084499</v>
       </c>
       <c r="J170">
-        <v>424.67879441171402</v>
+        <v>337.67964547361998</v>
       </c>
       <c r="K170">
-        <v>425.76120096592598</v>
+        <v>302.00769009511299</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>434.18315638888703</v>
+        <v>274.57485424998401</v>
       </c>
       <c r="B171">
-        <v>432.282019278066</v>
+        <v>315.76981568885299</v>
       </c>
       <c r="C171">
-        <v>428.69013315406102</v>
+        <v>334.641833561623</v>
       </c>
       <c r="D171">
-        <v>423.33904844955902</v>
+        <v>338.11576231310801</v>
       </c>
       <c r="E171">
-        <v>416.41180388430001</v>
+        <v>330.707862106753</v>
       </c>
       <c r="F171">
-        <v>407.94839316814398</v>
+        <v>325.68173449966298</v>
       </c>
       <c r="G171">
-        <v>398</v>
+        <v>320.636076338652</v>
       </c>
       <c r="H171">
-        <v>399.28813913029899</v>
+        <v>305.277116253467</v>
       </c>
       <c r="I171">
-        <v>401.41180388430001</v>
+        <v>317.33269449662902</v>
       </c>
       <c r="J171">
-        <v>406.01854037387</v>
+        <v>325.36633957792998</v>
       </c>
       <c r="K171">
-        <v>413.69013315406102</v>
+        <v>352.22238922321702</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>439.78975810668601</v>
+        <v>312.528181488016</v>
       </c>
       <c r="B172">
-        <v>438.62176524022101</v>
+        <v>308.86009687196798</v>
       </c>
       <c r="C172">
-        <v>429.29673487185897</v>
+        <v>304.40638154680198</v>
       </c>
       <c r="D172">
-        <v>414.67879441171402</v>
+        <v>301.899624535187</v>
       </c>
       <c r="E172">
-        <v>400.80520216650098</v>
+        <v>311.52564626995002</v>
       </c>
       <c r="F172">
-        <v>392.94839316814398</v>
+        <v>316.18543965954098</v>
       </c>
       <c r="G172">
-        <v>392.39339828220199</v>
+        <v>321.525825805963</v>
       </c>
       <c r="H172">
-        <v>407.94839316814398</v>
+        <v>326.49970560641702</v>
       </c>
       <c r="I172">
-        <v>422.01840560209803</v>
+        <v>323.830383695813</v>
       </c>
       <c r="J172">
-        <v>429.67879441171402</v>
+        <v>311.22357790980197</v>
       </c>
       <c r="K172">
-        <v>429.29673487185897</v>
+        <v>286.64778687691597</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>436.68315638888703</v>
+        <v>331.15419538804002</v>
       </c>
       <c r="B173">
-        <v>436.61214629698799</v>
+        <v>342.65617604447601</v>
       </c>
       <c r="C173">
-        <v>433.69013315406102</v>
+        <v>331.71811029743901</v>
       </c>
       <c r="D173">
-        <v>427.669175468481</v>
+        <v>338.22129976688598</v>
       </c>
       <c r="E173">
-        <v>418.91180388430001</v>
+        <v>332.90012156679597</v>
       </c>
       <c r="F173">
-        <v>407.94839316814398</v>
+        <v>333.93408826882899</v>
       </c>
       <c r="G173">
-        <v>395.5</v>
+        <v>332.74700525475902</v>
       </c>
       <c r="H173">
-        <v>394.958012111377</v>
+        <v>328.84488940064301</v>
       </c>
       <c r="I173">
-        <v>396.41180388430001</v>
+        <v>321.51895082011498</v>
       </c>
       <c r="J173">
-        <v>401.68841335494801</v>
+        <v>310.738826281824</v>
       </c>
       <c r="K173">
-        <v>411.19013315406102</v>
+        <v>327.04044983263498</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>439.74986222358001</v>
+        <v>358.26522134657603</v>
       </c>
       <c r="B174">
-        <v>437.99351788599301</v>
+        <v>330.07463016848499</v>
       </c>
       <c r="C174">
-        <v>430.48287169616498</v>
+        <v>328.16901835371101</v>
       </c>
       <c r="D174">
-        <v>418.78800783071398</v>
+        <v>312.13166455313097</v>
       </c>
       <c r="E174">
-        <v>406.87732535627799</v>
+        <v>316.86686301851898</v>
       </c>
       <c r="F174">
-        <v>398.726044771163</v>
+        <v>321.43896296339801</v>
       </c>
       <c r="G174">
-        <v>395.92893218813498</v>
+        <v>322.706477476364</v>
       </c>
       <c r="H174">
-        <v>408.726044771163</v>
+        <v>322.87225306202703</v>
       </c>
       <c r="I174">
-        <v>421.019460980009</v>
+        <v>336.82057339784399</v>
       </c>
       <c r="J174">
-        <v>428.78800783071398</v>
+        <v>335.20256859300099</v>
       </c>
       <c r="K174">
-        <v>430.48287169616498</v>
+        <v>347.82005402276297</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>437.67879441171402</v>
+        <v>335.47942201372098</v>
       </c>
       <c r="B175">
-        <v>436.65377192383698</v>
+        <v>340.43352618559499</v>
       </c>
       <c r="C175">
-        <v>433.41180388430001</v>
+        <v>334.64363577891697</v>
       </c>
       <c r="D175">
-        <v>427.44826186855801</v>
+        <v>338.15549669070901</v>
       </c>
       <c r="E175">
-        <v>418.94839316814398</v>
+        <v>332.58606608886902</v>
       </c>
       <c r="F175">
-        <v>408.726044771163</v>
+        <v>324.70405722111002</v>
       </c>
       <c r="G175">
-        <v>398</v>
+        <v>329.5173368371</v>
       </c>
       <c r="H175">
-        <v>400.06579073331898</v>
+        <v>325.97900934266698</v>
       </c>
       <c r="I175">
-        <v>403.94839316814398</v>
+        <v>317.74802444489001</v>
       </c>
       <c r="J175">
-        <v>410.12775379287001</v>
+        <v>323.392054343128</v>
       </c>
       <c r="K175">
-        <v>418.41180388430001</v>
+        <v>311.88380208379999</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>443.285396129513</v>
+        <v>333.59336261642602</v>
       </c>
       <c r="B176">
-        <v>442.99351788599301</v>
+        <v>316.84503150158503</v>
       </c>
       <c r="C176">
-        <v>434.01840560209803</v>
+        <v>323.96895446571699</v>
       </c>
       <c r="D176">
-        <v>418.78800783071398</v>
+        <v>318.54926291140299</v>
       </c>
       <c r="E176">
-        <v>403.34179145034602</v>
+        <v>321.41902268758997</v>
       </c>
       <c r="F176">
-        <v>393.726044771163</v>
+        <v>319.29673082458203</v>
       </c>
       <c r="G176">
-        <v>392.39339828220199</v>
+        <v>314.94875224339899</v>
       </c>
       <c r="H176">
-        <v>408.726044771163</v>
+        <v>301.53471103272699</v>
       </c>
       <c r="I176">
-        <v>424.55499488594199</v>
+        <v>303.032120848712</v>
       </c>
       <c r="J176">
-        <v>433.78800783071398</v>
+        <v>298.16051092977898</v>
       </c>
       <c r="K176">
-        <v>434.01840560209803</v>
+        <v>313.981953924778</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>440.17879441171402</v>
+        <v>355.31913814114102</v>
       </c>
       <c r="B177">
-        <v>440.98389894275903</v>
+        <v>312.76194679954102</v>
       </c>
       <c r="C177">
-        <v>438.41180388430001</v>
+        <v>314.21071312399499</v>
       </c>
       <c r="D177">
-        <v>431.77838888748101</v>
+        <v>317.441258677988</v>
       </c>
       <c r="E177">
-        <v>421.44839316814398</v>
+        <v>322.98929935919398</v>
       </c>
       <c r="F177">
-        <v>408.726044771163</v>
+        <v>321.48832403387701</v>
       </c>
       <c r="G177">
-        <v>395.5</v>
+        <v>324.43742189706501</v>
       </c>
       <c r="H177">
-        <v>395.73566371439699</v>
+        <v>326.36207801241</v>
       </c>
       <c r="I177">
-        <v>398.94839316814398</v>
+        <v>307.98213306249897</v>
       </c>
       <c r="J177">
-        <v>405.797626773947</v>
+        <v>312.23621209185501</v>
       </c>
       <c r="K177">
-        <v>415.91180388430001</v>
+        <v>279.57214116154603</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>438.606267542956</v>
+        <v>279.03391484411401</v>
       </c>
       <c r="B178">
-        <v>438.51819161757197</v>
+        <v>298.57740674285498</v>
       </c>
       <c r="C178">
-        <v>433.68877363831501</v>
+        <v>307.07929694262998</v>
       </c>
       <c r="D178">
-        <v>424.42258975221603</v>
+        <v>319.79604924932499</v>
       </c>
       <c r="E178">
-        <v>412.92893218813498</v>
+        <v>325.70660738314803</v>
       </c>
       <c r="F178">
-        <v>402.42258975221603</v>
+        <v>317.62734596971802</v>
       </c>
       <c r="G178">
-        <v>395.546638014584</v>
+        <v>307.45609622742199</v>
       </c>
       <c r="H178">
-        <v>404.51819161757197</v>
+        <v>313.95994346067602</v>
       </c>
       <c r="I178">
-        <v>414.606267542956</v>
+        <v>310.224190358052</v>
       </c>
       <c r="J178">
-        <v>421.932647860332</v>
+        <v>315.088720934614</v>
       </c>
       <c r="K178">
-        <v>424.34580239519698</v>
+        <v>323.93891086446803</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>436.53519973109098</v>
+        <v>372.93669401306897</v>
       </c>
       <c r="B179">
-        <v>437.178445655416</v>
+        <v>364.42334972352398</v>
       </c>
       <c r="C179">
-        <v>436.61770582644903</v>
+        <v>347.27690035519697</v>
       </c>
       <c r="D179">
-        <v>433.08284379006</v>
+        <v>340.62325425219399</v>
       </c>
       <c r="E179">
-        <v>425</v>
+        <v>333.496895936626</v>
       </c>
       <c r="F179">
-        <v>412.42258975221603</v>
+        <v>335.31030087398301</v>
       </c>
       <c r="G179">
-        <v>397.61770582644903</v>
+        <v>341.59147948959099</v>
       </c>
       <c r="H179">
-        <v>395.85793757972698</v>
+        <v>344.954996164249</v>
       </c>
       <c r="I179">
-        <v>397.53519973109098</v>
+        <v>331.97648121154498</v>
       </c>
       <c r="J179">
-        <v>403.272393822487</v>
+        <v>322.03793926375897</v>
       </c>
       <c r="K179">
-        <v>412.274734583331</v>
+        <v>274.77588873453197</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>442.141801448889</v>
+        <v>331.58652332053998</v>
       </c>
       <c r="B180">
-        <v>443.51819161757197</v>
+        <v>326.69586393153901</v>
       </c>
       <c r="C180">
-        <v>437.22430754424801</v>
+        <v>310.555178261842</v>
       </c>
       <c r="D180">
-        <v>424.42258975221603</v>
+        <v>304.47445630620302</v>
       </c>
       <c r="E180">
-        <v>409.39339828220199</v>
+        <v>301.52256956519898</v>
       </c>
       <c r="F180">
-        <v>397.42258975221603</v>
+        <v>295.78212698432702</v>
       </c>
       <c r="G180">
-        <v>392.01110410865101</v>
+        <v>295.92301915989901</v>
       </c>
       <c r="H180">
-        <v>404.51819161757197</v>
+        <v>305.96917840643403</v>
       </c>
       <c r="I180">
-        <v>418.141801448889</v>
+        <v>301.75561354317801</v>
       </c>
       <c r="J180">
-        <v>426.932647860332</v>
+        <v>301.24621528373001</v>
       </c>
       <c r="K180">
-        <v>427.88133630112901</v>
+        <v>280.11508922606703</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>439.03519973109098</v>
+        <v>282.749365791049</v>
       </c>
       <c r="B181">
-        <v>441.50857267433798</v>
+        <v>308.02107549682398</v>
       </c>
       <c r="C181">
-        <v>441.61770582644903</v>
+        <v>317.96809886815402</v>
       </c>
       <c r="D181">
-        <v>437.41297080898198</v>
+        <v>320.64689058064698</v>
       </c>
       <c r="E181">
-        <v>427.5</v>
+        <v>325.51528971379702</v>
       </c>
       <c r="F181">
-        <v>412.42258975221603</v>
+        <v>317.196608133805</v>
       </c>
       <c r="G181">
-        <v>395.11770582644903</v>
+        <v>307.59881940657903</v>
       </c>
       <c r="H181">
-        <v>391.52781056080499</v>
+        <v>302.19597895227798</v>
       </c>
       <c r="I181">
-        <v>392.53519973109098</v>
+        <v>313.07949310705499</v>
       </c>
       <c r="J181">
-        <v>398.94226680356502</v>
+        <v>313.77833902335402</v>
       </c>
       <c r="K181">
-        <v>409.774734583331</v>
+        <v>350.560895127398</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>445.68877363831501</v>
+        <v>281.18630451121601</v>
       </c>
       <c r="B182">
-        <v>444.682011746071</v>
+        <v>318.42153652530601</v>
       </c>
       <c r="C182">
-        <v>437.49365756408099</v>
+        <v>326.37855580741399</v>
       </c>
       <c r="D182">
-        <v>425.58906715674499</v>
+        <v>338.51463051576599</v>
       </c>
       <c r="E182">
-        <v>412.92893218813498</v>
+        <v>329.75591255445602</v>
       </c>
       <c r="F182">
-        <v>403.58906715674499</v>
+        <v>322.27174823495898</v>
       </c>
       <c r="G182">
-        <v>399.35152194034998</v>
+        <v>321.22568499178101</v>
       </c>
       <c r="H182">
-        <v>410.682011746071</v>
+        <v>315.12323244008002</v>
       </c>
       <c r="I182">
-        <v>421.68877363831501</v>
+        <v>317.59105501542001</v>
       </c>
       <c r="J182">
-        <v>428.49027682898901</v>
+        <v>331.69712713881103</v>
       </c>
       <c r="K182">
-        <v>429.58925942943699</v>
+        <v>354.205790929675</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>443.61770582644903</v>
+        <v>284.72280468031101</v>
       </c>
       <c r="B183">
-        <v>443.34226578391502</v>
+        <v>317.26479691167702</v>
       </c>
       <c r="C183">
-        <v>440.42258975221603</v>
+        <v>324.15757701638603</v>
       </c>
       <c r="D183">
-        <v>434.24932119458998</v>
+        <v>338.11439702277801</v>
       </c>
       <c r="E183">
-        <v>425</v>
+        <v>332.25892043034798</v>
       </c>
       <c r="F183">
-        <v>413.58906715674499</v>
+        <v>323.32387257543201</v>
       </c>
       <c r="G183">
-        <v>401.42258975221603</v>
+        <v>315.00121950669501</v>
       </c>
       <c r="H183">
-        <v>402.02175770822703</v>
+        <v>317.04433215478502</v>
       </c>
       <c r="I183">
-        <v>404.61770582644903</v>
+        <v>308.465205458669</v>
       </c>
       <c r="J183">
-        <v>409.83002279114498</v>
+        <v>316.40235449178402</v>
       </c>
       <c r="K183">
-        <v>417.51819161757197</v>
+        <v>311.61127123169098</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>449.22430754424801</v>
+        <v>279.22425193322698</v>
       </c>
       <c r="B184">
-        <v>449.682011746071</v>
+        <v>322.13815201654199</v>
       </c>
       <c r="C184">
-        <v>441.02919147001398</v>
+        <v>329.64710403757698</v>
       </c>
       <c r="D184">
-        <v>425.58906715674499</v>
+        <v>344.53703660552702</v>
       </c>
       <c r="E184">
-        <v>409.39339828220199</v>
+        <v>345.23481090239397</v>
       </c>
       <c r="F184">
-        <v>398.58906715674499</v>
+        <v>337.15559650595202</v>
       </c>
       <c r="G184">
-        <v>395.81598803441699</v>
+        <v>340.96051312010002</v>
       </c>
       <c r="H184">
-        <v>410.682011746071</v>
+        <v>344.64040304022001</v>
       </c>
       <c r="I184">
-        <v>425.22430754424801</v>
+        <v>337.83993686560598</v>
       </c>
       <c r="J184">
-        <v>433.49027682898901</v>
+        <v>346.305560236502</v>
       </c>
       <c r="K184">
-        <v>433.12479333536999</v>
+        <v>319.67158389990999</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>446.11770582644903</v>
+        <v>334.641892963023</v>
       </c>
       <c r="B185">
-        <v>447.67239280283798</v>
+        <v>327.74173366793599</v>
       </c>
       <c r="C185">
-        <v>445.42258975221603</v>
+        <v>313.62387260762102</v>
       </c>
       <c r="D185">
-        <v>438.57944821351202</v>
+        <v>313.86209086077002</v>
       </c>
       <c r="E185">
-        <v>427.5</v>
+        <v>321.16504327651103</v>
       </c>
       <c r="F185">
-        <v>413.58906715674499</v>
+        <v>312.451621896186</v>
       </c>
       <c r="G185">
-        <v>398.92258975221603</v>
+        <v>311.19378370548901</v>
       </c>
       <c r="H185">
-        <v>397.69163068930499</v>
+        <v>308.50721602689998</v>
       </c>
       <c r="I185">
-        <v>399.61770582644903</v>
+        <v>314.08979592822601</v>
       </c>
       <c r="J185">
-        <v>405.499895772223</v>
+        <v>309.63933880775397</v>
       </c>
       <c r="K185">
-        <v>415.01819161757197</v>
+        <v>363.745883735397</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>436.34580239519698</v>
+        <v>312.85699419506801</v>
       </c>
       <c r="B186">
-        <v>433.932647860332</v>
+        <v>302.66355633943601</v>
       </c>
       <c r="C186">
-        <v>426.606267542956</v>
+        <v>325.235328729039</v>
       </c>
       <c r="D186">
-        <v>416.51819161757197</v>
+        <v>327.37304854338998</v>
       </c>
       <c r="E186">
-        <v>407.546638014584</v>
+        <v>336.64168659802601</v>
       </c>
       <c r="F186">
-        <v>402.42258975221603</v>
+        <v>332.04033844076201</v>
       </c>
       <c r="G186">
-        <v>400.92893218813498</v>
+        <v>334.28483384174802</v>
       </c>
       <c r="H186">
-        <v>412.42258975221603</v>
+        <v>319.93432447752099</v>
       </c>
       <c r="I186">
-        <v>421.68877363831501</v>
+        <v>312.25968983491299</v>
       </c>
       <c r="J186">
-        <v>426.51819161757197</v>
+        <v>314.27610828815699</v>
       </c>
       <c r="K186">
-        <v>426.606267542956</v>
+        <v>285.17242005378199</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>434.274734583331</v>
+        <v>303.93612074496502</v>
       </c>
       <c r="B187">
-        <v>432.59290189817602</v>
+        <v>321.96559776045399</v>
       </c>
       <c r="C187">
-        <v>429.53519973109098</v>
+        <v>319.79279363593798</v>
       </c>
       <c r="D187">
-        <v>425.178445655416</v>
+        <v>331.87803879807399</v>
       </c>
       <c r="E187">
-        <v>419.61770582644903</v>
+        <v>326.39276811232997</v>
       </c>
       <c r="F187">
-        <v>412.42258975221603</v>
+        <v>324.038145465063</v>
       </c>
       <c r="G187">
-        <v>403</v>
+        <v>330.41362858979198</v>
       </c>
       <c r="H187">
-        <v>403.76233571437098</v>
+        <v>327.16416887163899</v>
       </c>
       <c r="I187">
-        <v>404.61770582644903</v>
+        <v>311.76251656967702</v>
       </c>
       <c r="J187">
-        <v>407.85793757972698</v>
+        <v>312.01712565901499</v>
       </c>
       <c r="K187">
-        <v>414.53519973109098</v>
+        <v>287.35408504583597</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>439.88133630112901</v>
+        <v>336.95713298769101</v>
       </c>
       <c r="B188">
-        <v>438.932647860332</v>
+        <v>303.48486691359898</v>
       </c>
       <c r="C188">
-        <v>430.141801448889</v>
+        <v>314.507597528735</v>
       </c>
       <c r="D188">
-        <v>416.51819161757197</v>
+        <v>319.88672586291301</v>
       </c>
       <c r="E188">
-        <v>404.01110410865101</v>
+        <v>323.75351657092602</v>
       </c>
       <c r="F188">
-        <v>397.42258975221603</v>
+        <v>330.12712622414699</v>
       </c>
       <c r="G188">
-        <v>397.39339828220199</v>
+        <v>332.90063767424698</v>
       </c>
       <c r="H188">
-        <v>412.42258975221603</v>
+        <v>343.00695780836401</v>
       </c>
       <c r="I188">
-        <v>425.22430754424801</v>
+        <v>330.73761923593599</v>
       </c>
       <c r="J188">
-        <v>431.51819161757197</v>
+        <v>342.996208873466</v>
       </c>
       <c r="K188">
-        <v>430.141801448889</v>
+        <v>302.506081796437</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>436.774734583331</v>
+        <v>360.58837384141901</v>
       </c>
       <c r="B189">
-        <v>436.92302891709801</v>
+        <v>344.75260252176997</v>
       </c>
       <c r="C189">
-        <v>434.53519973109098</v>
+        <v>344.54625227468</v>
       </c>
       <c r="D189">
-        <v>429.50857267433798</v>
+        <v>336.86377088610402</v>
       </c>
       <c r="E189">
-        <v>422.11770582644903</v>
+        <v>350.36962950191298</v>
       </c>
       <c r="F189">
-        <v>412.42258975221603</v>
+        <v>339.071279846989</v>
       </c>
       <c r="G189">
-        <v>400.5</v>
+        <v>339.444844197213</v>
       </c>
       <c r="H189">
-        <v>399.43220869544899</v>
+        <v>331.35008162832202</v>
       </c>
       <c r="I189">
-        <v>399.61770582644903</v>
+        <v>329.16982756527801</v>
       </c>
       <c r="J189">
-        <v>403.52781056080499</v>
+        <v>320.38071976602498</v>
       </c>
       <c r="K189">
-        <v>412.03519973109098</v>
+        <v>311.27469658332097</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>441.58925942943699</v>
+        <v>346.05203193969197</v>
       </c>
       <c r="B190">
-        <v>440.49027682898901</v>
+        <v>328.00386988204701</v>
       </c>
       <c r="C190">
-        <v>433.68877363831501</v>
+        <v>326.46867126860201</v>
       </c>
       <c r="D190">
-        <v>422.682011746071</v>
+        <v>324.41360501725802</v>
       </c>
       <c r="E190">
-        <v>411.35152194034998</v>
+        <v>323.98454637897999</v>
       </c>
       <c r="F190">
-        <v>403.58906715674499</v>
+        <v>333.96846660805897</v>
       </c>
       <c r="G190">
-        <v>400.92893218813498</v>
+        <v>327.58717801928299</v>
       </c>
       <c r="H190">
-        <v>413.58906715674499</v>
+        <v>320.35526811425098</v>
       </c>
       <c r="I190">
-        <v>425.49365756408099</v>
+        <v>317.54739090400602</v>
       </c>
       <c r="J190">
-        <v>432.682011746071</v>
+        <v>300.66768961985798</v>
       </c>
       <c r="K190">
-        <v>433.68877363831501</v>
+        <v>321.73731463175</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>439.51819161757197</v>
+        <v>307.39270593022297</v>
       </c>
       <c r="B191">
-        <v>439.150530866834</v>
+        <v>298.18971694420901</v>
       </c>
       <c r="C191">
-        <v>436.61770582644903</v>
+        <v>293.41768500186402</v>
       </c>
       <c r="D191">
-        <v>431.34226578391502</v>
+        <v>294.06773928384098</v>
       </c>
       <c r="E191">
-        <v>423.42258975221603</v>
+        <v>307.72908472679097</v>
       </c>
       <c r="F191">
-        <v>413.58906715674499</v>
+        <v>318.29570681820098</v>
       </c>
       <c r="G191">
-        <v>403</v>
+        <v>332.97905845961901</v>
       </c>
       <c r="H191">
-        <v>404.92881311890102</v>
+        <v>332.78492543060401</v>
       </c>
       <c r="I191">
-        <v>408.42258975221603</v>
+        <v>342.52097471445097</v>
       </c>
       <c r="J191">
-        <v>414.02175770822703</v>
+        <v>334.76286366601698</v>
       </c>
       <c r="K191">
-        <v>421.61770582644903</v>
+        <v>359.32322375934501</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>445.12479333536999</v>
+        <v>332.42964038333599</v>
       </c>
       <c r="B192">
-        <v>445.49027682898901</v>
+        <v>343.084722561474</v>
       </c>
       <c r="C192">
-        <v>437.22430754424801</v>
+        <v>330.26317259157599</v>
       </c>
       <c r="D192">
-        <v>422.682011746071</v>
+        <v>328.33681428738203</v>
       </c>
       <c r="E192">
-        <v>407.81598803441699</v>
+        <v>323.84777718612202</v>
       </c>
       <c r="F192">
-        <v>398.58906715674499</v>
+        <v>325.45237254069099</v>
       </c>
       <c r="G192">
-        <v>397.39339828220199</v>
+        <v>343.43348264561899</v>
       </c>
       <c r="H192">
-        <v>413.58906715674499</v>
+        <v>339.60638248125201</v>
       </c>
       <c r="I192">
-        <v>429.02919147001398</v>
+        <v>343.05244128286301</v>
       </c>
       <c r="J192">
-        <v>437.682011746071</v>
+        <v>344.286629282229</v>
       </c>
       <c r="K192">
-        <v>437.22430754424801</v>
+        <v>340.02814287042202</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>442.01819161757197</v>
+        <v>273.18904504302498</v>
       </c>
       <c r="B193">
-        <v>443.48065788575599</v>
+        <v>307.20355636730699</v>
       </c>
       <c r="C193">
-        <v>441.61770582644903</v>
+        <v>316.83634487380999</v>
       </c>
       <c r="D193">
-        <v>435.67239280283798</v>
+        <v>318.122762324522</v>
       </c>
       <c r="E193">
-        <v>425.92258975221603</v>
+        <v>318.95204532759101</v>
       </c>
       <c r="F193">
-        <v>413.58906715674499</v>
+        <v>308.45299262910697</v>
       </c>
       <c r="G193">
-        <v>400.5</v>
+        <v>315.575639311835</v>
       </c>
       <c r="H193">
-        <v>400.59868609997898</v>
+        <v>309.15547667112202</v>
       </c>
       <c r="I193">
-        <v>403.42258975221603</v>
+        <v>316.74308386786998</v>
       </c>
       <c r="J193">
-        <v>409.69163068930499</v>
+        <v>327.88088125250903</v>
       </c>
       <c r="K193">
-        <v>419.11770582644903</v>
+        <v>317.55916828032599</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>351.41258453448802</v>
+      </c>
+      <c r="B194">
+        <v>309.64216491857502</v>
+      </c>
+      <c r="C194">
+        <v>330.78975136960599</v>
+      </c>
+      <c r="D194">
+        <v>320.80999114513997</v>
+      </c>
+      <c r="E194">
+        <v>330.74475561712597</v>
+      </c>
+      <c r="F194">
+        <v>343.78806257815</v>
+      </c>
+      <c r="G194">
+        <v>343.94191103322902</v>
+      </c>
+      <c r="H194">
+        <v>330.48706887521598</v>
+      </c>
+      <c r="I194">
+        <v>326.26846740851801</v>
+      </c>
+      <c r="J194">
+        <v>312.97935655210102</v>
+      </c>
+      <c r="K194">
+        <v>280.42077607866798</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>334.75950122331102</v>
+      </c>
+      <c r="B195">
+        <v>325.09711787489198</v>
+      </c>
+      <c r="C195">
+        <v>341.82448776670299</v>
+      </c>
+      <c r="D195">
+        <v>333.12773576075801</v>
+      </c>
+      <c r="E195">
+        <v>348.84508218422599</v>
+      </c>
+      <c r="F195">
+        <v>335.39311343548201</v>
+      </c>
+      <c r="G195">
+        <v>316.70250512552002</v>
+      </c>
+      <c r="H195">
+        <v>312.14975823055102</v>
+      </c>
+      <c r="I195">
+        <v>311.04856233436197</v>
+      </c>
+      <c r="J195">
+        <v>301.12802363227399</v>
+      </c>
+      <c r="K195">
+        <v>285.769761712638</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>294.92679596573998</v>
+      </c>
+      <c r="B196">
+        <v>313.02364586002398</v>
+      </c>
+      <c r="C196">
+        <v>317.75224249847503</v>
+      </c>
+      <c r="D196">
+        <v>322.54875947198701</v>
+      </c>
+      <c r="E196">
+        <v>319.74528515750501</v>
+      </c>
+      <c r="F196">
+        <v>324.73686671146999</v>
+      </c>
+      <c r="G196">
+        <v>322.37208686627503</v>
+      </c>
+      <c r="H196">
+        <v>328.80516819233799</v>
+      </c>
+      <c r="I196">
+        <v>326.73582663865</v>
+      </c>
+      <c r="J196">
+        <v>326.19815179383397</v>
+      </c>
+      <c r="K196">
+        <v>308.56267306485802</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>358.85911067385598</v>
+      </c>
+      <c r="B197">
+        <v>323.30173500700198</v>
+      </c>
+      <c r="C197">
+        <v>319.51864318140503</v>
+      </c>
+      <c r="D197">
+        <v>305.41141565399801</v>
+      </c>
+      <c r="E197">
+        <v>315.11151741393599</v>
+      </c>
+      <c r="F197">
+        <v>321.97816616188697</v>
+      </c>
+      <c r="G197">
+        <v>321.158890372401</v>
+      </c>
+      <c r="H197">
+        <v>320.85257173390602</v>
+      </c>
+      <c r="I197">
+        <v>324.829418718856</v>
+      </c>
+      <c r="J197">
+        <v>310.08908223589498</v>
+      </c>
+      <c r="K197">
+        <v>308.20720796157201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>308.33240447434599</v>
+      </c>
+      <c r="B198">
+        <v>305.02751686769301</v>
+      </c>
+      <c r="C198">
+        <v>305.52816128337099</v>
+      </c>
+      <c r="D198">
+        <v>302.44954031339302</v>
+      </c>
+      <c r="E198">
+        <v>305.29088411948197</v>
+      </c>
+      <c r="F198">
+        <v>297.32152942095303</v>
+      </c>
+      <c r="G198">
+        <v>294.04764426574098</v>
+      </c>
+      <c r="H198">
+        <v>293.33068755182302</v>
+      </c>
+      <c r="I198">
+        <v>297.69278186370701</v>
+      </c>
+      <c r="J198">
+        <v>302.45127255066899</v>
+      </c>
+      <c r="K198">
+        <v>314.74977118387699</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>274.79782437003303</v>
+      </c>
+      <c r="B199">
+        <v>288.84525503141299</v>
+      </c>
+      <c r="C199">
+        <v>296.769194145379</v>
+      </c>
+      <c r="D199">
+        <v>299.48452864890902</v>
+      </c>
+      <c r="E199">
+        <v>304.06431499190398</v>
+      </c>
+      <c r="F199">
+        <v>299.63787508265898</v>
+      </c>
+      <c r="G199">
+        <v>297.25988361511702</v>
+      </c>
+      <c r="H199">
+        <v>313.95269216628401</v>
+      </c>
+      <c r="I199">
+        <v>328.70890509461998</v>
+      </c>
+      <c r="J199">
+        <v>350.34661752671599</v>
+      </c>
+      <c r="K199">
+        <v>362.15556152936199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>364.11674587087202</v>
+      </c>
+      <c r="B200">
+        <v>331.38318226938497</v>
+      </c>
+      <c r="C200">
+        <v>324.007680379237</v>
+      </c>
+      <c r="D200">
+        <v>305.95372886828699</v>
+      </c>
+      <c r="E200">
+        <v>316.87522978660297</v>
+      </c>
+      <c r="F200">
+        <v>310.99417652832898</v>
+      </c>
+      <c r="G200">
+        <v>312.786058594427</v>
+      </c>
+      <c r="H200">
+        <v>315.28338524898498</v>
+      </c>
+      <c r="I200">
+        <v>330.55830195589698</v>
+      </c>
+      <c r="J200">
+        <v>332.51882351399598</v>
+      </c>
+      <c r="K200">
+        <v>350.22157185067903</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>285.43033297656098</v>
+      </c>
+      <c r="B201">
+        <v>320.46282301280002</v>
+      </c>
+      <c r="C201">
+        <v>325.15556114844901</v>
+      </c>
+      <c r="D201">
+        <v>342.38934600025101</v>
+      </c>
+      <c r="E201">
+        <v>342.926938420672</v>
+      </c>
+      <c r="F201">
+        <v>345.31675745895899</v>
+      </c>
+      <c r="G201">
+        <v>340.67522506626398</v>
+      </c>
+      <c r="H201">
+        <v>329.79922379506701</v>
+      </c>
+      <c r="I201">
+        <v>324.461718596097</v>
+      </c>
+      <c r="J201">
+        <v>310.571133208368</v>
+      </c>
+      <c r="K201">
+        <v>344.91173124072299</v>
       </c>
     </row>
   </sheetData>
